--- a/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_passes.xlsx
+++ b/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_passes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,8 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Diff Moyennes
-(données normalisées)</t>
+          <t>Diff. Top 5 avec Bottom 15 en %</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -484,4761 +483,4421 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_cross_receiver_runs</t>
+          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>190.6047847503374</v>
+        <v>0.01565452091767881</v>
       </c>
       <c r="C2" t="n">
-        <v>148.8924904114641</v>
+        <v>0.005310573731626364</v>
       </c>
       <c r="D2" t="n">
-        <v>1.655214893862799</v>
+        <v>194.78</v>
       </c>
       <c r="E2" t="n">
-        <v>16.60036673867424</v>
+        <v>0.01429321186227971</v>
       </c>
       <c r="F2" t="n">
-        <v>20.76529450184436</v>
+        <v>0.01099502757997121</v>
       </c>
       <c r="G2" t="n">
-        <v>166.7539473684211</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>119.0344736842105</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.6941666666667</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="J2" t="n">
-        <v>184.8194594594594</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_cross_receiver_runs_threat_per_match</t>
+          <t>count_completed_pass_to_dropping_off_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.13803216374269</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8421922712185869</v>
+        <v>0.003606237816764132</v>
       </c>
       <c r="D3" t="n">
-        <v>1.64548407613119</v>
+        <v>184.41</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1423208923437596</v>
+        <v>0.02293403053845938</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1341711194877398</v>
+        <v>0.009520847223814313</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9723684210526317</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6036842105263158</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.329736842105263</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="J3" t="n">
-        <v>1.098378378378378</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_cross_receiver_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.43621232568601</v>
+        <v>0.05935672514619883</v>
       </c>
       <c r="C4" t="n">
-        <v>11.29463937621832</v>
+        <v>0.02665033454507139</v>
       </c>
       <c r="D4" t="n">
-        <v>1.573042623856756</v>
+        <v>122.72</v>
       </c>
       <c r="E4" t="n">
-        <v>1.149989890617579</v>
+        <v>0.05331348378953706</v>
       </c>
       <c r="F4" t="n">
-        <v>1.70857722584869</v>
+        <v>0.0316286048963669</v>
       </c>
       <c r="G4" t="n">
-        <v>13.56410256410256</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>8.416666666666666</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16.07894736842105</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="J4" t="n">
-        <v>13.76315789473684</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_pulling_half_space_runs</t>
+          <t>count_completed_pass_to_underlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>188.9989455690508</v>
+        <v>0.05951417004048583</v>
       </c>
       <c r="C5" t="n">
-        <v>142.2911325272641</v>
+        <v>0.03044886992255413</v>
       </c>
       <c r="D5" t="n">
-        <v>1.563361499356771</v>
+        <v>95.45999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>25.87537042423261</v>
+        <v>0.07383408800417748</v>
       </c>
       <c r="F5" t="n">
-        <v>22.4382259320855</v>
+        <v>0.03046908524921185</v>
       </c>
       <c r="G5" t="n">
-        <v>156.578947368421</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>106.7567567567568</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>225.7692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J5" t="n">
-        <v>198.4235135135135</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_cross_receiver_runs_in_sample</t>
+          <t>count_completed_pass_to_pulling_wide_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.2034188034188</v>
+        <v>0.03758434547908231</v>
       </c>
       <c r="C6" t="n">
-        <v>11.87879985248406</v>
+        <v>0.02138717665033454</v>
       </c>
       <c r="D6" t="n">
-        <v>1.531407252130705</v>
+        <v>75.73</v>
       </c>
       <c r="E6" t="n">
-        <v>1.350698646642279</v>
+        <v>0.03162908231766076</v>
       </c>
       <c r="F6" t="n">
-        <v>1.878785324449034</v>
+        <v>0.02312336999086896</v>
       </c>
       <c r="G6" t="n">
-        <v>14.12820512820513</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>8.888888888888889</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>17.26315789473684</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>14.67567567567568</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_cross_receiver_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.2034188034188</v>
+        <v>0.1550157444894287</v>
       </c>
       <c r="C7" t="n">
-        <v>11.87879985248406</v>
+        <v>0.09062220114851693</v>
       </c>
       <c r="D7" t="n">
-        <v>1.531407252130705</v>
+        <v>71.06</v>
       </c>
       <c r="E7" t="n">
-        <v>1.350698646642279</v>
+        <v>0.08538857182660912</v>
       </c>
       <c r="F7" t="n">
-        <v>1.878785324449034</v>
+        <v>0.05357004950590515</v>
       </c>
       <c r="G7" t="n">
-        <v>14.12820512820513</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H7" t="n">
-        <v>8.888888888888889</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.26315789473684</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="J7" t="n">
-        <v>14.67567567567568</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_underlap_runs</t>
+          <t>count_pass_attempts_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>144.1019055330634</v>
+        <v>0.06491228070175439</v>
       </c>
       <c r="C8" t="n">
-        <v>97.02313653126812</v>
+        <v>0.03912596807333649</v>
       </c>
       <c r="D8" t="n">
-        <v>1.51632571083735</v>
+        <v>65.91</v>
       </c>
       <c r="E8" t="n">
-        <v>26.98728024470318</v>
+        <v>0.06404109560857536</v>
       </c>
       <c r="F8" t="n">
-        <v>24.21354143623413</v>
+        <v>0.0412284252830686</v>
       </c>
       <c r="G8" t="n">
-        <v>96.58128205128206</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>63.51351351351352</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>161.8421052631579</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J8" t="n">
-        <v>166.6665789473684</v>
+        <v>0.131578947368421</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02446828609986505</v>
+        <v>0.1632478632478632</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01737237237237237</v>
+        <v>0.1020652231178547</v>
       </c>
       <c r="D9" t="n">
-        <v>1.448245343991315</v>
+        <v>59.94</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004498538178976921</v>
+        <v>0.08235534886523686</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003917594778861238</v>
+        <v>0.04975098122049314</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01973684210526316</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01054054054054054</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03102564102564102</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0227027027027027</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>underlap_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6551093117408907</v>
+        <v>0.03456410256410257</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4949323797481692</v>
+        <v>0.02249209736051841</v>
       </c>
       <c r="D10" t="n">
-        <v>1.445511250019476</v>
+        <v>53.67</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0889357969940525</v>
+        <v>0.007670397864295207</v>
       </c>
       <c r="F10" t="n">
-        <v>0.095905816665995</v>
+        <v>0.006845745295607777</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5410526315789473</v>
+        <v>0.02282051282051282</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3376315789473684</v>
+        <v>0.01459459459459459</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7552631578947369</v>
+        <v>0.04263157894736842</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7024324324324324</v>
+        <v>0.0418421052631579</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_pulling_half_space_runs_per_match</t>
+          <t>count_completed_pass_to_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.905847953216374</v>
+        <v>1.757782276203329</v>
       </c>
       <c r="C11" t="n">
-        <v>2.223044096728308</v>
+        <v>1.145930140666983</v>
       </c>
       <c r="D11" t="n">
-        <v>1.438495240730564</v>
+        <v>53.39</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3062884687793164</v>
+        <v>0.3867417244376833</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4233753295509954</v>
+        <v>0.3657180598364699</v>
       </c>
       <c r="G11" t="n">
-        <v>2.552631578947369</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="H11" t="n">
-        <v>1.567567567567568</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="I11" t="n">
-        <v>3.333333333333333</v>
+        <v>2.027777777777778</v>
       </c>
       <c r="J11" t="n">
-        <v>3.189189189189189</v>
+        <v>2.184210526315789</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_support_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03456410256410257</v>
+        <v>0.142757534862798</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02249209736051841</v>
+        <v>0.09389125968073335</v>
       </c>
       <c r="D12" t="n">
-        <v>1.437914302575874</v>
+        <v>52.05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.007670397864295207</v>
+        <v>0.03923374382504446</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006845745295607777</v>
+        <v>0.05859951280332186</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02282051282051282</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01459459459459459</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04263157894736842</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0418421052631579</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_half_space_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.397188484030589</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="C13" t="n">
-        <v>1.809754491333438</v>
+        <v>0.0107186133501923</v>
       </c>
       <c r="D13" t="n">
-        <v>1.430691408084516</v>
+        <v>-50.9</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3547677970507607</v>
+        <v>0.01176877882894626</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3435222429614481</v>
+        <v>0.01359295395919965</v>
       </c>
       <c r="G13" t="n">
-        <v>1.973684210526316</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.297297297297297</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.923076923076923</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="J13" t="n">
-        <v>2.621621621621621</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2327498875393613</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1709190242874453</v>
+        <v>0.02138717665033455</v>
       </c>
       <c r="D14" t="n">
-        <v>1.409234269445014</v>
+        <v>-50.78</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03791358548505169</v>
+        <v>0.01441375151329385</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03776994438738727</v>
+        <v>0.02061356028695086</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1771052631578947</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1107894736842105</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2764102564102564</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2383783783783784</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_coming_short_runs</t>
+          <t>count_completed_pass_to_underlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>492.8682699055331</v>
+        <v>0.3197031039136302</v>
       </c>
       <c r="C15" t="n">
-        <v>414.2088780886149</v>
+        <v>0.2121832358674464</v>
       </c>
       <c r="D15" t="n">
-        <v>1.399295957746612</v>
+        <v>50.67</v>
       </c>
       <c r="E15" t="n">
-        <v>54.00543327057463</v>
+        <v>0.1176736664551053</v>
       </c>
       <c r="F15" t="n">
-        <v>52.42927909749181</v>
+        <v>0.0797080919523873</v>
       </c>
       <c r="G15" t="n">
-        <v>405.921052631579</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="H15" t="n">
-        <v>332.6755263157895</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="I15" t="n">
-        <v>550.0466666666666</v>
+        <v>0.5</v>
       </c>
       <c r="J15" t="n">
-        <v>523.1083783783783</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_by_teammate_per_match</t>
+          <t>count_pass_attempts_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.22498875393612</v>
+        <v>0.2284750337381916</v>
       </c>
       <c r="C16" t="n">
-        <v>18.57832569411517</v>
+        <v>0.1528870976239398</v>
       </c>
       <c r="D16" t="n">
-        <v>1.39729146082613</v>
+        <v>49.44</v>
       </c>
       <c r="E16" t="n">
-        <v>2.210104018250926</v>
+        <v>0.07614762917640998</v>
       </c>
       <c r="F16" t="n">
-        <v>3.059379845886013</v>
+        <v>0.05188628664343582</v>
       </c>
       <c r="G16" t="n">
-        <v>20.81578947368421</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="H16" t="n">
-        <v>12.6578947368421</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="I16" t="n">
-        <v>26.60526315789474</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>23.18918918918919</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_underlap_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.757782276203329</v>
+        <v>0.615429599640126</v>
       </c>
       <c r="C17" t="n">
-        <v>1.145930140666983</v>
+        <v>0.4169406248353617</v>
       </c>
       <c r="D17" t="n">
-        <v>1.396729982173377</v>
+        <v>47.61</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3867417244376833</v>
+        <v>0.1666159226509201</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3657180598364699</v>
+        <v>0.1100050684943551</v>
       </c>
       <c r="G17" t="n">
-        <v>1.076923076923077</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="H17" t="n">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.6486486486486487</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.027777777777778</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.184210526315789</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_support_runs_per_match</t>
+          <t>pass_completion_ratio_to_underlap_runs</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.608816914080071</v>
+        <v>10.13938607185662</v>
       </c>
       <c r="C18" t="n">
-        <v>3.690327169274538</v>
+        <v>6.891372086803665</v>
       </c>
       <c r="D18" t="n">
-        <v>1.387191125980832</v>
+        <v>47.13</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3758410453929934</v>
+        <v>1.90958467947582</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6143230288805317</v>
+        <v>1.769041282569681</v>
       </c>
       <c r="G18" t="n">
-        <v>4.105263157894737</v>
+        <v>6.805679064525219</v>
       </c>
       <c r="H18" t="n">
-        <v>2.763157894736842</v>
+        <v>4.437184437184437</v>
       </c>
       <c r="I18" t="n">
-        <v>5.052631578947368</v>
+        <v>11.39637774725275</v>
       </c>
       <c r="J18" t="n">
-        <v>4.947368421052632</v>
+        <v>12.07007277809909</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_support_runs_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3108020692757535</v>
+        <v>0.7365721997300945</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2622107897371056</v>
+        <v>0.5033875981244402</v>
       </c>
       <c r="D19" t="n">
-        <v>1.385639742291781</v>
+        <v>46.32</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01701722804239239</v>
+        <v>0.1505756318944425</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03290646776749149</v>
+        <v>0.1791074881564765</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2853846153846154</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2188888888888889</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3286842105263158</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3321052631578947</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_pulling_half_space_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.615429599640126</v>
+        <v>0.1593117408906883</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4169406248353617</v>
+        <v>0.1101127443232706</v>
       </c>
       <c r="D20" t="n">
-        <v>1.384107857260654</v>
+        <v>44.68</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1666159226509201</v>
+        <v>0.08311805967510395</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1100050684943551</v>
+        <v>0.04984638339092012</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2894736842105263</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.25</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_in_behind_in_sample</t>
+          <t>coming_short_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.41178587494377</v>
+        <v>0.02319725596041385</v>
       </c>
       <c r="C21" t="n">
-        <v>24.36729360939887</v>
+        <v>0.01607378431062641</v>
       </c>
       <c r="D21" t="n">
-        <v>1.384077162919257</v>
+        <v>44.32</v>
       </c>
       <c r="E21" t="n">
-        <v>1.723524738263211</v>
+        <v>0.006404487148196933</v>
       </c>
       <c r="F21" t="n">
-        <v>3.712732349952879</v>
+        <v>0.004459658448614228</v>
       </c>
       <c r="G21" t="n">
-        <v>27.57894736842105</v>
+        <v>0.01641025641025641</v>
       </c>
       <c r="H21" t="n">
-        <v>18.97368421052632</v>
+        <v>0.01</v>
       </c>
       <c r="I21" t="n">
-        <v>31.72222222222222</v>
+        <v>0.03194444444444444</v>
       </c>
       <c r="J21" t="n">
-        <v>32.24324324324324</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_in_behind_per_match</t>
+          <t>count_completed_pass_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.41178587494377</v>
+        <v>0.5504948268106163</v>
       </c>
       <c r="C22" t="n">
-        <v>24.36729360939887</v>
+        <v>0.3833912860228649</v>
       </c>
       <c r="D22" t="n">
-        <v>1.384077162919257</v>
+        <v>43.59</v>
       </c>
       <c r="E22" t="n">
-        <v>1.723524738263211</v>
+        <v>0.06288490812510888</v>
       </c>
       <c r="F22" t="n">
-        <v>3.712732349952879</v>
+        <v>0.1554080475376877</v>
       </c>
       <c r="G22" t="n">
-        <v>27.57894736842105</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H22" t="n">
-        <v>18.97368421052632</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="I22" t="n">
-        <v>31.72222222222222</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="J22" t="n">
-        <v>32.24324324324324</v>
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_pulling_half_space_runs_threat_per_match</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.08229082321187584</v>
+        <v>0.2125281151596941</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06061129550603236</v>
+        <v>0.1493282756440651</v>
       </c>
       <c r="D23" t="n">
-        <v>1.377358509252439</v>
+        <v>42.32</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01256413019604975</v>
+        <v>0.08688486531396325</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01422934503759006</v>
+        <v>0.08287491549058482</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06131578947368421</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04162162162162162</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09416666666666668</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09027027027027026</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_cross_receiver_runs_per_match</t>
+          <t>pulling_half_space_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.067881241565452</v>
+        <v>0.02446828609986505</v>
       </c>
       <c r="C24" t="n">
-        <v>2.383744270586376</v>
+        <v>0.01737237237237238</v>
       </c>
       <c r="D24" t="n">
-        <v>1.372202599984454</v>
+        <v>40.85</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3392903513596931</v>
+        <v>0.004498538178976921</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4762685392503465</v>
+        <v>0.003917594778861239</v>
       </c>
       <c r="G24" t="n">
-        <v>2.605263157894737</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="H24" t="n">
-        <v>1.526315789473684</v>
+        <v>0.01054054054054054</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>0.03102564102564102</v>
       </c>
       <c r="J24" t="n">
-        <v>3.27027027027027</v>
+        <v>0.0227027027027027</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_cross_receiver_runs_per_match</t>
+          <t>count_pass_attempts_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.983198380566802</v>
+        <v>0.8569050832208728</v>
       </c>
       <c r="C25" t="n">
-        <v>6.420549496865287</v>
+        <v>0.6145856382698487</v>
       </c>
       <c r="D25" t="n">
-        <v>1.347567670782977</v>
+        <v>39.43</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5965629937409729</v>
+        <v>0.1230163537092069</v>
       </c>
       <c r="F25" t="n">
-        <v>1.140978560826124</v>
+        <v>0.2241313014852806</v>
       </c>
       <c r="G25" t="n">
-        <v>7.236842105263158</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="H25" t="n">
-        <v>4.263157894736842</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="I25" t="n">
-        <v>8.684210526315789</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="J25" t="n">
-        <v>7.945945945945946</v>
+        <v>1.157894736842105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_cross_receiver_runs_per_match</t>
+          <t>pulling_half_space_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.857692307692308</v>
+        <v>0.01838573999100315</v>
       </c>
       <c r="C26" t="n">
-        <v>2.242697961119014</v>
+        <v>0.0133087561245456</v>
       </c>
       <c r="D26" t="n">
-        <v>1.345445404073916</v>
+        <v>38.15</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3575010289109998</v>
+        <v>0.005094014194112833</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4354659646874268</v>
+        <v>0.002606954145313349</v>
       </c>
       <c r="G26" t="n">
-        <v>2.447368421052631</v>
+        <v>0.01289473684210526</v>
       </c>
       <c r="H26" t="n">
-        <v>1.473684210526316</v>
+        <v>0.008648648648648649</v>
       </c>
       <c r="I26" t="n">
-        <v>3.416666666666667</v>
+        <v>0.02615384615384616</v>
       </c>
       <c r="J26" t="n">
-        <v>3.081081081081081</v>
+        <v>0.01789473684210527</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_in_behind_per_match</t>
+          <t>underlap_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.646401259559154</v>
+        <v>0.04933468286099865</v>
       </c>
       <c r="C27" t="n">
-        <v>6.215170433591485</v>
+        <v>0.03585235235235236</v>
       </c>
       <c r="D27" t="n">
-        <v>1.341002222426496</v>
+        <v>37.61</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3100471322310959</v>
+        <v>0.008686040899017537</v>
       </c>
       <c r="F27" t="n">
-        <v>1.098327549890569</v>
+        <v>0.01037438318228655</v>
       </c>
       <c r="G27" t="n">
-        <v>7.447368421052632</v>
+        <v>0.03641025641025641</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>0.02342105263157895</v>
       </c>
       <c r="I27" t="n">
-        <v>8.184210526315789</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="J27" t="n">
-        <v>8.108108108108109</v>
+        <v>0.06131578947368421</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_by_teammate_per_match</t>
+          <t>count_pass_attempts_to_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.97055780476833</v>
+        <v>2.462550607287449</v>
       </c>
       <c r="C28" t="n">
-        <v>27.33098098098099</v>
+        <v>1.804567725620357</v>
       </c>
       <c r="D28" t="n">
-        <v>1.33772713147624</v>
+        <v>36.46</v>
       </c>
       <c r="E28" t="n">
-        <v>1.908954556189987</v>
+        <v>0.4807798848169605</v>
       </c>
       <c r="F28" t="n">
-        <v>4.381670542279594</v>
+        <v>0.5116660533739636</v>
       </c>
       <c r="G28" t="n">
-        <v>30.94736842105263</v>
+        <v>1.615384615384615</v>
       </c>
       <c r="H28" t="n">
-        <v>21.10526315789474</v>
+        <v>1.135135135135135</v>
       </c>
       <c r="I28" t="n">
-        <v>35.63888888888889</v>
+        <v>2.763157894736842</v>
       </c>
       <c r="J28" t="n">
-        <v>36.37837837837838</v>
+        <v>3.105263157894737</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_cross_receiver_runs_per_match</t>
+          <t>cross_receiver_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.608614484930274</v>
+        <v>0.2327498875393613</v>
       </c>
       <c r="C29" t="n">
-        <v>6.167246193561985</v>
+        <v>0.1709190242874453</v>
       </c>
       <c r="D29" t="n">
-        <v>1.323492173248401</v>
+        <v>36.18</v>
       </c>
       <c r="E29" t="n">
-        <v>0.516009954262128</v>
+        <v>0.03791358548505169</v>
       </c>
       <c r="F29" t="n">
-        <v>1.092291498524141</v>
+        <v>0.03776994438738726</v>
       </c>
       <c r="G29" t="n">
-        <v>6.973684210526316</v>
+        <v>0.1771052631578947</v>
       </c>
       <c r="H29" t="n">
-        <v>4.157894736842105</v>
+        <v>0.1107894736842105</v>
       </c>
       <c r="I29" t="n">
-        <v>8.138888888888889</v>
+        <v>0.2764102564102564</v>
       </c>
       <c r="J29" t="n">
-        <v>7.810810810810811</v>
+        <v>0.2383783783783784</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_to_which_pass_completed_threat_per_match</t>
+          <t>pass_opportunities_to_pulling_half_space_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01838573999100315</v>
+        <v>0.08229082321187584</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0133087561245456</v>
+        <v>0.06061129550603236</v>
       </c>
       <c r="D30" t="n">
-        <v>1.321800343202348</v>
+        <v>35.77</v>
       </c>
       <c r="E30" t="n">
-        <v>0.005094014194112833</v>
+        <v>0.01256413019604975</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002606954145313349</v>
+        <v>0.01422934503759006</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01289473684210526</v>
+        <v>0.06131578947368421</v>
       </c>
       <c r="H30" t="n">
-        <v>0.008648648648648649</v>
+        <v>0.04162162162162162</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02615384615384616</v>
+        <v>0.09416666666666668</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01789473684210527</v>
+        <v>0.09027027027027026</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>support_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1439415204678363</v>
+        <v>1.851304543409806</v>
       </c>
       <c r="C31" t="n">
-        <v>0.118590432537801</v>
+        <v>1.367907381065276</v>
       </c>
       <c r="D31" t="n">
-        <v>1.321454790717643</v>
+        <v>35.34</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01202933713680964</v>
+        <v>0.2448425194739419</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01816190123388555</v>
+        <v>0.452221502283939</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1233333333333334</v>
+        <v>1.641025641025641</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08472222222222221</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1528947368421053</v>
+        <v>2.131578947368421</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1476315789473684</v>
+        <v>2.447368421052631</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_to_which_pass_completed_threat_per_match</t>
+          <t>overlap_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02319725596041385</v>
+        <v>0.06300134952766531</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01607378431062641</v>
+        <v>0.04657278330962541</v>
       </c>
       <c r="D32" t="n">
-        <v>1.317513075091882</v>
+        <v>35.28</v>
       </c>
       <c r="E32" t="n">
-        <v>0.006404487148196933</v>
+        <v>0.01688564532330927</v>
       </c>
       <c r="F32" t="n">
-        <v>0.004459658448614229</v>
+        <v>0.01331535161995317</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01641025641025641</v>
+        <v>0.05026315789473684</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03194444444444444</v>
+        <v>0.09166666666666667</v>
       </c>
       <c r="J32" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.08105263157894738</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_runs_in_behind_threat_per_match</t>
+          <t>pass_opportunities_to_cross_receiver_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.8266072874493927</v>
+        <v>1.13803216374269</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6720735472314419</v>
+        <v>0.8421922712185869</v>
       </c>
       <c r="D33" t="n">
-        <v>1.307770792230547</v>
+        <v>35.13</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09575339694683216</v>
+        <v>0.1423208923437596</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1176046752463231</v>
+        <v>0.1341711194877398</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7705263157894737</v>
+        <v>0.9723684210526317</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5177777777777778</v>
+        <v>0.6036842105263158</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9966666666666667</v>
+        <v>1.329736842105263</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9145945945945947</v>
+        <v>1.098378378378378</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_per_match</t>
+          <t>pass_completion_ratio_to_pulling_half_space_runs</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.573369320737743</v>
+        <v>13.43432395638549</v>
       </c>
       <c r="C34" t="n">
-        <v>7.500318739792424</v>
+        <v>10.08072695489011</v>
       </c>
       <c r="D34" t="n">
-        <v>1.236427960303933</v>
+        <v>33.27</v>
       </c>
       <c r="E34" t="n">
-        <v>1.560774961866099</v>
+        <v>1.973297839183</v>
       </c>
       <c r="F34" t="n">
-        <v>1.606227140588854</v>
+        <v>1.58397137675176</v>
       </c>
       <c r="G34" t="n">
-        <v>7</v>
+        <v>10.83044148833623</v>
       </c>
       <c r="H34" t="n">
-        <v>5.315789473684211</v>
+        <v>7.65009765009765</v>
       </c>
       <c r="I34" t="n">
-        <v>10.86842105263158</v>
+        <v>16.24823894054663</v>
       </c>
       <c r="J34" t="n">
-        <v>10.47368421052632</v>
+        <v>13.90411290511291</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_runs_in_behind_per_match</t>
+          <t>pass_opportunities_to_underlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14.87784525416104</v>
+        <v>0.1054795321637427</v>
       </c>
       <c r="C35" t="n">
-        <v>12.49228965807913</v>
+        <v>0.07932716927453769</v>
       </c>
       <c r="D35" t="n">
-        <v>1.224596032787687</v>
+        <v>32.97</v>
       </c>
       <c r="E35" t="n">
-        <v>1.561929917913412</v>
+        <v>0.01589073819378299</v>
       </c>
       <c r="F35" t="n">
-        <v>1.913969456269027</v>
+        <v>0.02077838660541692</v>
       </c>
       <c r="G35" t="n">
-        <v>13.15384615384615</v>
+        <v>0.08</v>
       </c>
       <c r="H35" t="n">
-        <v>9.368421052631579</v>
+        <v>0.05526315789473685</v>
       </c>
       <c r="I35" t="n">
-        <v>16.86842105263158</v>
+        <v>0.1197368421052632</v>
       </c>
       <c r="J35" t="n">
-        <v>15.56756756756757</v>
+        <v>0.1360526315789474</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_completed_pass_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.04933468286099865</v>
+        <v>2.397188484030589</v>
       </c>
       <c r="C36" t="n">
-        <v>0.03585235235235236</v>
+        <v>1.809754491333438</v>
       </c>
       <c r="D36" t="n">
-        <v>1.21887214027469</v>
+        <v>32.46</v>
       </c>
       <c r="E36" t="n">
-        <v>0.008686040899017537</v>
+        <v>0.3547677970507607</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01037438318228655</v>
+        <v>0.3435222429614481</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03641025641025641</v>
+        <v>1.973684210526316</v>
       </c>
       <c r="H36" t="n">
-        <v>0.02342105263157895</v>
+        <v>1.297297297297297</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05921052631578947</v>
+        <v>2.923076923076923</v>
       </c>
       <c r="J36" t="n">
-        <v>0.06131578947368421</v>
+        <v>2.621621621621621</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_runs_in_behind</t>
+          <t>count_completed_pass_to_runs_in_behind_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>394.1564457939721</v>
+        <v>0.2859424201529465</v>
       </c>
       <c r="C37" t="n">
-        <v>342.5370777619725</v>
+        <v>0.2159633317528054</v>
       </c>
       <c r="D37" t="n">
-        <v>1.218170992933772</v>
+        <v>32.4</v>
       </c>
       <c r="E37" t="n">
-        <v>29.06348694439493</v>
+        <v>0.07824576131868782</v>
       </c>
       <c r="F37" t="n">
-        <v>45.22123306510173</v>
+        <v>0.08013278772387744</v>
       </c>
       <c r="G37" t="n">
-        <v>356.8142105263158</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="H37" t="n">
-        <v>265.6068421052631</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="I37" t="n">
-        <v>430.8018421052631</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="J37" t="n">
-        <v>410.6567567567567</v>
+        <v>0.3513513513513514</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_overlap_runs_per_match</t>
+          <t>coming_short_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.7365721997300945</v>
+        <v>0.02590575798470535</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5033875981244403</v>
+        <v>0.01957099204467626</v>
       </c>
       <c r="D38" t="n">
-        <v>1.213539630978648</v>
+        <v>32.37</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1505756318944425</v>
+        <v>0.00711066446657244</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1791074881564765</v>
+        <v>0.004681264356771702</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.01846153846153846</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.01342105263157895</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.03527777777777778</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.03135135135135136</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>support_runs_to_which_pass_completed_threat_per_match</t>
+          <t>cross_receiver_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1119050832208727</v>
+        <v>0.6551093117408907</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09159103840682788</v>
+        <v>0.4949323797481692</v>
       </c>
       <c r="D39" t="n">
-        <v>1.211314517880259</v>
+        <v>32.36</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01282624476279638</v>
+        <v>0.0889357969940525</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01621816143254323</v>
+        <v>0.09590581666599497</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09358974358974359</v>
+        <v>0.5410526315789473</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06833333333333333</v>
+        <v>0.3376315789473684</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1244736842105263</v>
+        <v>0.7552631578947369</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1155263157894737</v>
+        <v>0.7024324324324324</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_underlap_runs_threat_per_match</t>
+          <t>count_pass_attempts_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1054795321637427</v>
+        <v>0.9106387764282502</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07932716927453769</v>
+        <v>0.6905221010484167</v>
       </c>
       <c r="D40" t="n">
-        <v>1.202415411047895</v>
+        <v>31.88</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01589073819378299</v>
+        <v>0.1606146133670344</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02077838660541692</v>
+        <v>0.253656921821179</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="H40" t="n">
-        <v>0.05526315789473685</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1197368421052632</v>
+        <v>1.026315789473684</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1360526315789474</v>
+        <v>1.236842105263158</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_pulling_half_space_runs_per_match</t>
+          <t>count_completed_pass_to_dropping_off_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2284750337381916</v>
+        <v>0.1531713900134953</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1528870976239398</v>
+        <v>0.1163452926610821</v>
       </c>
       <c r="D41" t="n">
-        <v>1.19574261290111</v>
+        <v>31.65</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07614762917640998</v>
+        <v>0.05200061248834271</v>
       </c>
       <c r="F41" t="n">
-        <v>0.05188628664343582</v>
+        <v>0.05922463388590447</v>
       </c>
       <c r="G41" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="H41" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_underlap_runs_per_match</t>
+          <t>count_pass_attempts_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.462550607287449</v>
+        <v>2.905847953216374</v>
       </c>
       <c r="C42" t="n">
-        <v>1.804567725620357</v>
+        <v>2.223044096728307</v>
       </c>
       <c r="D42" t="n">
-        <v>1.188216675304419</v>
+        <v>30.71</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4807798848169605</v>
+        <v>0.3062884687793164</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5116660533739636</v>
+        <v>0.4233753295509954</v>
       </c>
       <c r="G42" t="n">
-        <v>1.615384615384615</v>
+        <v>2.552631578947369</v>
       </c>
       <c r="H42" t="n">
-        <v>1.135135135135135</v>
+        <v>1.567567567567568</v>
       </c>
       <c r="I42" t="n">
-        <v>2.763157894736842</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="J42" t="n">
-        <v>3.105263157894737</v>
+        <v>3.189189189189189</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_support_runs_per_match</t>
+          <t>count_completed_pass_to_overlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13.3408457040036</v>
+        <v>0.05337381916329285</v>
       </c>
       <c r="C43" t="n">
-        <v>11.85018966334756</v>
+        <v>0.04092250144881723</v>
       </c>
       <c r="D43" t="n">
-        <v>1.176005490191331</v>
+        <v>30.43</v>
       </c>
       <c r="E43" t="n">
-        <v>1.127821860652262</v>
+        <v>0.05330014996741034</v>
       </c>
       <c r="F43" t="n">
-        <v>1.263011131010878</v>
+        <v>0.03310540249810451</v>
       </c>
       <c r="G43" t="n">
-        <v>11.81578947368421</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>9.210526315789474</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>14.61111111111111</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J43" t="n">
-        <v>13.86842105263158</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_pulling_wide_runs</t>
+          <t>count_completed_pass_to_cross_receiver_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>410.3012573099415</v>
+        <v>0.3176563202878993</v>
       </c>
       <c r="C44" t="n">
-        <v>357.2598200832411</v>
+        <v>0.2462146356883199</v>
       </c>
       <c r="D44" t="n">
-        <v>1.171957551657653</v>
+        <v>29.02</v>
       </c>
       <c r="E44" t="n">
-        <v>35.36223718521459</v>
+        <v>0.07696801516896117</v>
       </c>
       <c r="F44" t="n">
-        <v>40.81205653996204</v>
+        <v>0.09668890616768747</v>
       </c>
       <c r="G44" t="n">
-        <v>379.2986842105263</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="H44" t="n">
-        <v>287.6388888888889</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="I44" t="n">
-        <v>453.9226315789474</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="J44" t="n">
-        <v>425.351052631579</v>
+        <v>0.4054054054054054</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_cross_receiver_runs_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.509289248762933</v>
+        <v>3.067881241565452</v>
       </c>
       <c r="C45" t="n">
-        <v>1.210075865339024</v>
+        <v>2.383744270586376</v>
       </c>
       <c r="D45" t="n">
-        <v>1.162533366030211</v>
+        <v>28.7</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0867516148305683</v>
+        <v>0.3392903513596931</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2851870935715735</v>
+        <v>0.4762685392503465</v>
       </c>
       <c r="G45" t="n">
-        <v>1.394736842105263</v>
+        <v>2.605263157894737</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7368421052631579</v>
+        <v>1.526315789473684</v>
       </c>
       <c r="I45" t="n">
-        <v>1.638888888888889</v>
+        <v>3.5</v>
       </c>
       <c r="J45" t="n">
-        <v>1.810810810810811</v>
+        <v>3.27027027027027</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>overlap_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02590575798470535</v>
+        <v>0.07736774628879892</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01957099204467626</v>
+        <v>0.06025907486433802</v>
       </c>
       <c r="D46" t="n">
-        <v>1.160354241660829</v>
+        <v>28.39</v>
       </c>
       <c r="E46" t="n">
-        <v>0.00711066446657244</v>
+        <v>0.01534550713564195</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0046812643567717</v>
+        <v>0.01618053328398605</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01846153846153846</v>
+        <v>0.06710526315789474</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01342105263157895</v>
+        <v>0.04222222222222222</v>
       </c>
       <c r="I46" t="n">
-        <v>0.03527777777777778</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>0.03135135135135135</v>
+        <v>0.1018421052631579</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_support_runs_per_match</t>
+          <t>count_opportunities_to_pass_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.953396311291048</v>
+        <v>15.2034188034188</v>
       </c>
       <c r="C47" t="n">
-        <v>1.556891101627944</v>
+        <v>11.87879985248406</v>
       </c>
       <c r="D47" t="n">
-        <v>1.158986158160106</v>
+        <v>27.99</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1788279331347634</v>
+        <v>1.350698646642279</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3530426927549327</v>
+        <v>1.878785324449034</v>
       </c>
       <c r="G47" t="n">
-        <v>1.743589743589744</v>
+        <v>14.12820512820513</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9166666666666666</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="I47" t="n">
-        <v>2.236842105263158</v>
+        <v>17.26315789473684</v>
       </c>
       <c r="J47" t="n">
-        <v>2.108108108108108</v>
+        <v>14.67567567567568</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>11.38403058929375</v>
+        <v>14.43621232568601</v>
       </c>
       <c r="C48" t="n">
-        <v>10.06871871871872</v>
+        <v>11.29463937621832</v>
       </c>
       <c r="D48" t="n">
-        <v>1.152149579554871</v>
+        <v>27.81</v>
       </c>
       <c r="E48" t="n">
-        <v>1.091563811214016</v>
+        <v>1.149989890617579</v>
       </c>
       <c r="F48" t="n">
-        <v>1.137221672057764</v>
+        <v>1.70857722584869</v>
       </c>
       <c r="G48" t="n">
-        <v>10.05263157894737</v>
+        <v>13.56410256410256</v>
       </c>
       <c r="H48" t="n">
-        <v>7.631578947368421</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="I48" t="n">
-        <v>12.77777777777778</v>
+        <v>16.07894736842105</v>
       </c>
       <c r="J48" t="n">
-        <v>12</v>
+        <v>13.76315789473684</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_runs_in_behind_per_match</t>
+          <t>pass_completion_ratio_to_cross_receiver_runs</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>14.42449392712551</v>
+        <v>13.51233021982516</v>
       </c>
       <c r="C49" t="n">
-        <v>11.7118723987145</v>
+        <v>10.58262159603651</v>
       </c>
       <c r="D49" t="n">
-        <v>1.149275378834258</v>
+        <v>27.68</v>
       </c>
       <c r="E49" t="n">
-        <v>2.178671596731435</v>
+        <v>1.31580691070856</v>
       </c>
       <c r="F49" t="n">
-        <v>2.418527735737539</v>
+        <v>1.378561439968277</v>
       </c>
       <c r="G49" t="n">
-        <v>13.05263157894737</v>
+        <v>11.79466464237517</v>
       </c>
       <c r="H49" t="n">
-        <v>8.416666666666666</v>
+        <v>8.515233275496433</v>
       </c>
       <c r="I49" t="n">
-        <v>18.25</v>
+        <v>15.34609249084249</v>
       </c>
       <c r="J49" t="n">
-        <v>16.32432432432432</v>
+        <v>12.72757499257499</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_in_behind_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.636122357174989</v>
+        <v>9.573369320737743</v>
       </c>
       <c r="C50" t="n">
-        <v>1.316761498340446</v>
+        <v>7.500318739792424</v>
       </c>
       <c r="D50" t="n">
-        <v>1.143436412929556</v>
+        <v>27.64</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1154904946436771</v>
+        <v>1.560774961866099</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3066931120631148</v>
+        <v>1.606227140588854</v>
       </c>
       <c r="G50" t="n">
-        <v>1.473684210526316</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9473684210526315</v>
+        <v>5.315789473684211</v>
       </c>
       <c r="I50" t="n">
-        <v>1.777777777777778</v>
+        <v>10.86842105263158</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>10.47368421052632</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_underlap_runs_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3197031039136302</v>
+        <v>2.857692307692308</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2121832358674464</v>
+        <v>2.242697961119014</v>
       </c>
       <c r="D51" t="n">
-        <v>1.139006141085937</v>
+        <v>27.42</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1176736664551053</v>
+        <v>0.3575010289109998</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0797080919523873</v>
+        <v>0.4354659646874268</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1842105263157895</v>
+        <v>2.447368421052631</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1081081081081081</v>
+        <v>1.473684210526316</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4473684210526316</v>
+        <v>3.081081081081081</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_to_which_pass_completed_threat_per_match</t>
+          <t>count_pass_attempts_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.192272154745839</v>
+        <v>1.953396311291048</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1590434908592803</v>
+        <v>1.556891101627944</v>
       </c>
       <c r="D52" t="n">
-        <v>1.123427673611854</v>
+        <v>25.47</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01201882314445853</v>
+        <v>0.1788279331347634</v>
       </c>
       <c r="F52" t="n">
-        <v>0.03292239388542174</v>
+        <v>0.3530426927549327</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1805128205128205</v>
+        <v>1.743589743589744</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1044444444444445</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="I52" t="n">
-        <v>0.2111111111111111</v>
+        <v>2.236842105263158</v>
       </c>
       <c r="J52" t="n">
-        <v>0.2202702702702703</v>
+        <v>2.108108108108108</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_underlap_runs_per_match</t>
+          <t>count_opportunities_to_pass_to_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.5504948268106163</v>
+        <v>5.201484480431849</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3833912860228649</v>
+        <v>4.159541120067436</v>
       </c>
       <c r="D53" t="n">
-        <v>1.123194803648969</v>
+        <v>25.05</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06288490812510888</v>
+        <v>0.8337720328971673</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1554080475376877</v>
+        <v>0.9924853887465988</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4615384615384616</v>
+        <v>3.717948717948718</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1842105263157895</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>0.631578947368421</v>
+        <v>5.710526315789473</v>
       </c>
       <c r="J53" t="n">
-        <v>0.8157894736842105</v>
+        <v>6.921052631578948</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_coming_short_runs_per_match</t>
+          <t>count_cross_receiver_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>10.26524966261808</v>
+        <v>23.22498875393612</v>
       </c>
       <c r="C54" t="n">
-        <v>8.345682524629893</v>
+        <v>18.57832569411517</v>
       </c>
       <c r="D54" t="n">
-        <v>1.121053109668431</v>
+        <v>25.01</v>
       </c>
       <c r="E54" t="n">
-        <v>1.682897293194192</v>
+        <v>2.210104018250926</v>
       </c>
       <c r="F54" t="n">
-        <v>1.70073698207629</v>
+        <v>3.059379845886013</v>
       </c>
       <c r="G54" t="n">
-        <v>7.5</v>
+        <v>20.81578947368421</v>
       </c>
       <c r="H54" t="n">
-        <v>6.026315789473684</v>
+        <v>12.6578947368421</v>
       </c>
       <c r="I54" t="n">
-        <v>11.86842105263158</v>
+        <v>26.60526315789474</v>
       </c>
       <c r="J54" t="n">
-        <v>11.5</v>
+        <v>23.18918918918919</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_underlap_runs_per_match</t>
+          <t>count_underlap_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.8569050832208728</v>
+        <v>5.291138101664417</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6145856382698488</v>
+        <v>4.232432432432432</v>
       </c>
       <c r="D55" t="n">
-        <v>1.106821059515294</v>
+        <v>25.01</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1230163537092069</v>
+        <v>0.8430167793563415</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2241313014852806</v>
+        <v>1.019046725802868</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7435897435897436</v>
+        <v>3.794871794871795</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3513513513513514</v>
+        <v>3.054054054054054</v>
       </c>
       <c r="I55" t="n">
-        <v>1.052631578947368</v>
+        <v>5.815789473684211</v>
       </c>
       <c r="J55" t="n">
-        <v>1.157894736842105</v>
+        <v>7.052631578947368</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_underlap_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.851304543409806</v>
+        <v>4.608816914080071</v>
       </c>
       <c r="C56" t="n">
-        <v>1.367907381065276</v>
+        <v>3.690327169274538</v>
       </c>
       <c r="D56" t="n">
-        <v>1.09701677754173</v>
+        <v>24.89</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2448425194739419</v>
+        <v>0.3758410453929934</v>
       </c>
       <c r="F56" t="n">
-        <v>0.452221502283939</v>
+        <v>0.6143230288805317</v>
       </c>
       <c r="G56" t="n">
-        <v>1.641025641025641</v>
+        <v>4.105263157894737</v>
       </c>
       <c r="H56" t="n">
-        <v>0.7631578947368421</v>
+        <v>2.763157894736842</v>
       </c>
       <c r="I56" t="n">
-        <v>2.131578947368421</v>
+        <v>5.052631578947368</v>
       </c>
       <c r="J56" t="n">
-        <v>2.447368421052631</v>
+        <v>4.947368421052632</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.06300134952766531</v>
+        <v>0.01608187134502924</v>
       </c>
       <c r="C57" t="n">
-        <v>0.04657278330962542</v>
+        <v>0.02138717665033455</v>
       </c>
       <c r="D57" t="n">
-        <v>1.095922102027107</v>
+        <v>-24.81</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01688564532330926</v>
+        <v>0.01469280061567382</v>
       </c>
       <c r="F57" t="n">
-        <v>0.01331535161995317</v>
+        <v>0.02061356028695087</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05026315789473684</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="J57" t="n">
-        <v>0.08105263157894738</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_by_teammate_per_match</t>
+          <t>count_completed_pass_to_cross_receiver_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>9.815587044534412</v>
+        <v>1.509289248762933</v>
       </c>
       <c r="C58" t="n">
-        <v>7.997386860544756</v>
+        <v>1.210075865339024</v>
       </c>
       <c r="D58" t="n">
-        <v>1.095774911719907</v>
+        <v>24.73</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7686267072061506</v>
+        <v>0.0867516148305683</v>
       </c>
       <c r="F58" t="n">
-        <v>1.792893326521891</v>
+        <v>0.2851870935715735</v>
       </c>
       <c r="G58" t="n">
-        <v>8.868421052631579</v>
+        <v>1.394736842105263</v>
       </c>
       <c r="H58" t="n">
-        <v>5.526315789473684</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="I58" t="n">
-        <v>10.53846153846154</v>
+        <v>1.638888888888889</v>
       </c>
       <c r="J58" t="n">
-        <v>11.56756756756757</v>
+        <v>1.810810810810811</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_pulling_half_space_runs_per_match</t>
+          <t>count_pass_attempts_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>9.619163292847503</v>
+        <v>7.983198380566802</v>
       </c>
       <c r="C59" t="n">
-        <v>7.83187661345556</v>
+        <v>6.420549496865287</v>
       </c>
       <c r="D59" t="n">
-        <v>1.090050227420378</v>
+        <v>24.34</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7263006942656403</v>
+        <v>0.5965629937409729</v>
       </c>
       <c r="F59" t="n">
-        <v>1.778811466492586</v>
+        <v>1.140978560826124</v>
       </c>
       <c r="G59" t="n">
-        <v>8.736842105263158</v>
+        <v>7.236842105263158</v>
       </c>
       <c r="H59" t="n">
-        <v>5.315789473684211</v>
+        <v>4.263157894736842</v>
       </c>
       <c r="I59" t="n">
-        <v>10.35897435897436</v>
+        <v>8.684210526315789</v>
       </c>
       <c r="J59" t="n">
-        <v>11.32432432432432</v>
+        <v>7.945945945945946</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_pulling_half_space_runs_in_sample</t>
+          <t>count_completed_pass_to_runs_in_behind_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>9.619163292847503</v>
+        <v>1.636122357174989</v>
       </c>
       <c r="C60" t="n">
-        <v>7.83187661345556</v>
+        <v>1.316761498340446</v>
       </c>
       <c r="D60" t="n">
-        <v>1.090050227420378</v>
+        <v>24.25</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7263006942656403</v>
+        <v>0.1154904946436771</v>
       </c>
       <c r="F60" t="n">
-        <v>1.778811466492586</v>
+        <v>0.3066931120631148</v>
       </c>
       <c r="G60" t="n">
-        <v>8.736842105263158</v>
+        <v>1.473684210526316</v>
       </c>
       <c r="H60" t="n">
-        <v>5.315789473684211</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="I60" t="n">
-        <v>10.35897435897436</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="J60" t="n">
-        <v>11.32432432432432</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1819280251911831</v>
+        <v>1.420557804768331</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1584937832569411</v>
+        <v>1.149056951688531</v>
       </c>
       <c r="D61" t="n">
-        <v>1.078154483597162</v>
+        <v>23.63</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02845810086350001</v>
+        <v>0.2391864304528956</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02084705540165183</v>
+        <v>0.2879475330226429</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1521052631578947</v>
+        <v>1.205128205128205</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1126315789473684</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2194444444444444</v>
+        <v>1.763157894736842</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1862162162162162</v>
+        <v>1.526315789473684</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_pulling_wide_runs_threat_per_match</t>
+          <t>count_pass_attempts_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0476455240665767</v>
+        <v>7.608614484930274</v>
       </c>
       <c r="C62" t="n">
-        <v>0.04056988567514883</v>
+        <v>6.167246193561984</v>
       </c>
       <c r="D62" t="n">
-        <v>1.06432339057655</v>
+        <v>23.37</v>
       </c>
       <c r="E62" t="n">
-        <v>0.002742109285444175</v>
+        <v>0.516009954262128</v>
       </c>
       <c r="F62" t="n">
-        <v>0.006876540409797701</v>
+        <v>1.092291498524141</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04473684210526316</v>
+        <v>6.973684210526316</v>
       </c>
       <c r="H62" t="n">
-        <v>0.02864864864864865</v>
+        <v>4.157894736842105</v>
       </c>
       <c r="I62" t="n">
-        <v>0.05131578947368421</v>
+        <v>8.138888888888889</v>
       </c>
       <c r="J62" t="n">
-        <v>0.05131578947368421</v>
+        <v>7.810810810810811</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_underlap_runs_in_sample</t>
+          <t>count_pass_opportunities_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5.201484480431849</v>
+        <v>0.03670715249662618</v>
       </c>
       <c r="C63" t="n">
-        <v>4.159541120067436</v>
+        <v>0.04784521363468731</v>
       </c>
       <c r="D63" t="n">
-        <v>1.033965230057544</v>
+        <v>-23.28</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8337720328971673</v>
+        <v>0.03006525333585536</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9924853887465988</v>
+        <v>0.0284887173038604</v>
       </c>
       <c r="G63" t="n">
-        <v>3.717948717948718</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>5.710526315789473</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J63" t="n">
-        <v>6.921052631578948</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_underlap_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5.201484480431849</v>
+        <v>14.42449392712551</v>
       </c>
       <c r="C64" t="n">
-        <v>4.159541120067436</v>
+        <v>11.7118723987145</v>
       </c>
       <c r="D64" t="n">
-        <v>1.033965230057544</v>
+        <v>23.16</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8337720328971673</v>
+        <v>2.178671596731435</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9924853887465988</v>
+        <v>2.418527735737539</v>
       </c>
       <c r="G64" t="n">
-        <v>3.717948717948718</v>
+        <v>13.05263157894737</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="I64" t="n">
-        <v>5.710526315789473</v>
+        <v>18.25</v>
       </c>
       <c r="J64" t="n">
-        <v>6.921052631578948</v>
+        <v>16.32432432432432</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1632478632478632</v>
+        <v>7.646401259559154</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1020652231178547</v>
+        <v>6.215170433591485</v>
       </c>
       <c r="D65" t="n">
-        <v>1.028991510855053</v>
+        <v>23.03</v>
       </c>
       <c r="E65" t="n">
-        <v>0.08235534886523686</v>
+        <v>0.3100471322310959</v>
       </c>
       <c r="F65" t="n">
-        <v>0.04975098122049314</v>
+        <v>1.098327549890569</v>
       </c>
       <c r="G65" t="n">
-        <v>0.05263157894736842</v>
+        <v>7.447368421052632</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02631578947368421</v>
+        <v>4.5</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2631578947368421</v>
+        <v>8.184210526315789</v>
       </c>
       <c r="J65" t="n">
-        <v>0.2162162162162162</v>
+        <v>8.108108108108109</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_by_teammate_per_match</t>
+          <t>count_pass_attempts_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5.291138101664417</v>
+        <v>10.26524966261808</v>
       </c>
       <c r="C66" t="n">
-        <v>4.232432432432432</v>
+        <v>8.345682524629893</v>
       </c>
       <c r="D66" t="n">
-        <v>1.027096853563344</v>
+        <v>23</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8430167793563415</v>
+        <v>1.682897293194192</v>
       </c>
       <c r="F66" t="n">
-        <v>1.019046725802868</v>
+        <v>1.70073698207629</v>
       </c>
       <c r="G66" t="n">
-        <v>3.794871794871795</v>
+        <v>7.5</v>
       </c>
       <c r="H66" t="n">
-        <v>3.054054054054054</v>
+        <v>6.026315789473684</v>
       </c>
       <c r="I66" t="n">
-        <v>5.815789473684211</v>
+        <v>11.86842105263158</v>
       </c>
       <c r="J66" t="n">
-        <v>7.052631578947368</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>pass_opportunities_to_runs_in_behind_threat_per_match</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.07736774628879892</v>
+        <v>0.8266072874493927</v>
       </c>
       <c r="C67" t="n">
-        <v>0.06025907486433802</v>
+        <v>0.6720735472314419</v>
       </c>
       <c r="D67" t="n">
-        <v>1.02631530807083</v>
+        <v>22.99</v>
       </c>
       <c r="E67" t="n">
-        <v>0.01534550713564195</v>
+        <v>0.09575339694683216</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01618053328398605</v>
+        <v>0.1176046752463231</v>
       </c>
       <c r="G67" t="n">
-        <v>0.06710526315789474</v>
+        <v>0.7705263157894737</v>
       </c>
       <c r="H67" t="n">
-        <v>0.04222222222222222</v>
+        <v>0.5177777777777778</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1018421052631579</v>
+        <v>0.9145945945945947</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_per_match</t>
+          <t>count_opportunities_to_pass_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>16.1678587494377</v>
+        <v>9.619163292847503</v>
       </c>
       <c r="C68" t="n">
-        <v>14.44418629155471</v>
+        <v>7.83187661345556</v>
       </c>
       <c r="D68" t="n">
-        <v>1.019985923548421</v>
+        <v>22.82</v>
       </c>
       <c r="E68" t="n">
-        <v>2.044350025485508</v>
+        <v>0.7263006942656403</v>
       </c>
       <c r="F68" t="n">
-        <v>1.689443626360494</v>
+        <v>1.778811466492586</v>
       </c>
       <c r="G68" t="n">
-        <v>13.57894736842105</v>
+        <v>8.736842105263158</v>
       </c>
       <c r="H68" t="n">
-        <v>11.44736842105263</v>
+        <v>5.315789473684211</v>
       </c>
       <c r="I68" t="n">
-        <v>18.47222222222222</v>
+        <v>10.35897435897436</v>
       </c>
       <c r="J68" t="n">
-        <v>17.08108108108108</v>
+        <v>11.32432432432432</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_to_which_pass_attempted_threat_per_match</t>
+          <t>count_pulling_half_space_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.3814347728295097</v>
+        <v>9.815587044534412</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3273439492123703</v>
+        <v>7.997386860544756</v>
       </c>
       <c r="D69" t="n">
-        <v>0.997429727427508</v>
+        <v>22.73</v>
       </c>
       <c r="E69" t="n">
-        <v>0.03405361193223478</v>
+        <v>0.7686267072061506</v>
       </c>
       <c r="F69" t="n">
-        <v>0.06025705689899381</v>
+        <v>1.792893326521891</v>
       </c>
       <c r="G69" t="n">
-        <v>0.327948717948718</v>
+        <v>8.868421052631579</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2313888888888889</v>
+        <v>5.526315789473684</v>
       </c>
       <c r="I69" t="n">
-        <v>0.4218421052631579</v>
+        <v>10.53846153846154</v>
       </c>
       <c r="J69" t="n">
-        <v>0.4364864864864865</v>
+        <v>11.56756756756757</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_coming_short_runs_per_match</t>
+          <t>support_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1550157444894287</v>
+        <v>0.1119050832208727</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09062220114851693</v>
+        <v>0.09159103840682788</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9965457582448796</v>
+        <v>22.18</v>
       </c>
       <c r="E70" t="n">
-        <v>0.08538857182660912</v>
+        <v>0.01282624476279638</v>
       </c>
       <c r="F70" t="n">
-        <v>0.05357004950590515</v>
+        <v>0.01621816143254323</v>
       </c>
       <c r="G70" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.09358974358974359</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>0.06833333333333333</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.1244736842105263</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1155263157894737</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_runs_ahead_of_the_ball_threat_per_match</t>
+          <t>support_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.563968286099865</v>
+        <v>0.1439415204678363</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5073962120014752</v>
+        <v>0.118590432537801</v>
       </c>
       <c r="D71" t="n">
-        <v>0.972286176869729</v>
+        <v>21.38</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0817139415206431</v>
+        <v>0.01202933713680964</v>
       </c>
       <c r="F71" t="n">
-        <v>0.05323056349250572</v>
+        <v>0.01816190123388555</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4526315789473684</v>
+        <v>0.1233333333333334</v>
       </c>
       <c r="H71" t="n">
-        <v>0.4275</v>
+        <v>0.08472222222222221</v>
       </c>
       <c r="I71" t="n">
-        <v>0.648157894736842</v>
+        <v>0.1528947368421053</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5826315789473684</v>
+        <v>0.1476315789473684</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_support_runs_per_match</t>
+          <t>pass_opportunities_to_coming_short_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.420557804768331</v>
+        <v>0.06211358524516419</v>
       </c>
       <c r="C72" t="n">
-        <v>1.149056951688531</v>
+        <v>0.05127461672198515</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9715881499982972</v>
+        <v>21.14</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2391864304528956</v>
+        <v>0.01488623161542043</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2879475330226429</v>
+        <v>0.01052881163748747</v>
       </c>
       <c r="G72" t="n">
-        <v>1.205128205128205</v>
+        <v>0.04342105263157895</v>
       </c>
       <c r="H72" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.03578947368421053</v>
       </c>
       <c r="I72" t="n">
-        <v>1.763157894736842</v>
+        <v>0.08194444444444444</v>
       </c>
       <c r="J72" t="n">
-        <v>1.526315789473684</v>
+        <v>0.0772972972972973</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_coming_short_runs_threat_per_match</t>
+          <t>runs_in_behind_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.06211358524516419</v>
+        <v>0.192272154745839</v>
       </c>
       <c r="C73" t="n">
-        <v>0.05127461672198515</v>
+        <v>0.1590434908592803</v>
       </c>
       <c r="D73" t="n">
-        <v>0.957995499049376</v>
+        <v>20.89</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01488623161542043</v>
+        <v>0.01201882314445853</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01052881163748747</v>
+        <v>0.03292239388542174</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04342105263157895</v>
+        <v>0.1805128205128205</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03578947368421053</v>
+        <v>0.1044444444444445</v>
       </c>
       <c r="I73" t="n">
-        <v>0.08194444444444444</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0772972972972973</v>
+        <v>0.2202702702702703</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_runs_in_behind_per_match</t>
+          <t>count_opportunities_to_pass_to_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3.261201079622133</v>
+        <v>29.41178587494377</v>
       </c>
       <c r="C74" t="n">
-        <v>2.70224434961277</v>
+        <v>24.36729360939887</v>
       </c>
       <c r="D74" t="n">
-        <v>0.944501815203974</v>
+        <v>20.7</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4157831005008226</v>
+        <v>1.723524738263211</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6652231345535663</v>
+        <v>3.712732349952879</v>
       </c>
       <c r="G74" t="n">
-        <v>2.763157894736842</v>
+        <v>27.57894736842105</v>
       </c>
       <c r="H74" t="n">
-        <v>1.722222222222222</v>
+        <v>18.97368421052632</v>
       </c>
       <c r="I74" t="n">
-        <v>3.916666666666667</v>
+        <v>31.72222222222222</v>
       </c>
       <c r="J74" t="n">
-        <v>3.891891891891892</v>
+        <v>32.24324324324324</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_overlap_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9106387764282502</v>
+        <v>3.261201079622133</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6905221010484167</v>
+        <v>2.70224434961277</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9143440289022411</v>
+        <v>20.68</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1606146133670344</v>
+        <v>0.4157831005008226</v>
       </c>
       <c r="F75" t="n">
-        <v>0.253656921821179</v>
+        <v>0.6652231345535663</v>
       </c>
       <c r="G75" t="n">
-        <v>0.631578947368421</v>
+        <v>2.763157894736842</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3947368421052632</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="I75" t="n">
-        <v>1.026315789473684</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="J75" t="n">
-        <v>1.236842105263158</v>
+        <v>3.891891891891892</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_pulling_wide_runs_per_match</t>
+          <t>count_runs_in_behind_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7.560323886639677</v>
+        <v>32.97055780476833</v>
       </c>
       <c r="C76" t="n">
-        <v>6.681268110215481</v>
+        <v>27.33098098098099</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9029563796569076</v>
+        <v>20.63</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9215039207220472</v>
+        <v>1.908954556189987</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9595392855722839</v>
+        <v>4.381670542279594</v>
       </c>
       <c r="G76" t="n">
-        <v>6.342105263157895</v>
+        <v>30.94736842105263</v>
       </c>
       <c r="H76" t="n">
-        <v>5.162162162162162</v>
+        <v>21.10526315789474</v>
       </c>
       <c r="I76" t="n">
-        <v>8.710526315789474</v>
+        <v>35.63888888888889</v>
       </c>
       <c r="J76" t="n">
-        <v>8.315789473684211</v>
+        <v>36.37837837837838</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_support_runs_per_match</t>
+          <t>count_pass_attempts_to_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>26.61612685560054</v>
+        <v>14.87784525416104</v>
       </c>
       <c r="C77" t="n">
-        <v>24.64502397133976</v>
+        <v>12.49228965807913</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9013824691769179</v>
+        <v>19.1</v>
       </c>
       <c r="E77" t="n">
-        <v>2.232327475689917</v>
+        <v>1.561929917913412</v>
       </c>
       <c r="F77" t="n">
-        <v>2.386381825701311</v>
+        <v>1.913969456269027</v>
       </c>
       <c r="G77" t="n">
-        <v>23.07894736842105</v>
+        <v>13.15384615384615</v>
       </c>
       <c r="H77" t="n">
-        <v>19.28947368421053</v>
+        <v>9.368421052631579</v>
       </c>
       <c r="I77" t="n">
-        <v>28.41666666666667</v>
+        <v>16.86842105263158</v>
       </c>
       <c r="J77" t="n">
-        <v>28.23684210526316</v>
+        <v>15.56756756756757</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_support_runs_in_sample</t>
+          <t>pass_completion_ratio_to_coming_short_runs</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>26.61612685560054</v>
+        <v>35.01692728684571</v>
       </c>
       <c r="C78" t="n">
-        <v>24.64502397133976</v>
+        <v>29.42874669299494</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9013824691769179</v>
+        <v>18.99</v>
       </c>
       <c r="E78" t="n">
-        <v>2.232327475689917</v>
+        <v>4.295656249769266</v>
       </c>
       <c r="F78" t="n">
-        <v>2.386381825701311</v>
+        <v>3.638252320316486</v>
       </c>
       <c r="G78" t="n">
-        <v>23.07894736842105</v>
+        <v>28.13861577019472</v>
       </c>
       <c r="H78" t="n">
-        <v>19.28947368421053</v>
+        <v>23.00607865818392</v>
       </c>
       <c r="I78" t="n">
-        <v>28.41666666666667</v>
+        <v>39.96400844525844</v>
       </c>
       <c r="J78" t="n">
-        <v>28.23684210526316</v>
+        <v>36.5280468990469</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_in_behind_leading_to_goal_per_match</t>
+          <t>pass_opportunities_to_support_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.2859424201529465</v>
+        <v>0.3108020692757535</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2159633317528054</v>
+        <v>0.2622107897371056</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8968982657902226</v>
+        <v>18.53</v>
       </c>
       <c r="E79" t="n">
-        <v>0.07824576131868782</v>
+        <v>0.01701722804239239</v>
       </c>
       <c r="F79" t="n">
-        <v>0.08013278772387744</v>
+        <v>0.03290646776749149</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2853846153846154</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.2188888888888889</v>
       </c>
       <c r="I79" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3286842105263158</v>
       </c>
       <c r="J79" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.3321052631578947</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>count_completed_pass_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7.829352226720649</v>
+        <v>4.416486729644625</v>
       </c>
       <c r="C80" t="n">
-        <v>6.957786734102524</v>
+        <v>3.757246720404615</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8927215743834314</v>
+        <v>17.55</v>
       </c>
       <c r="E80" t="n">
-        <v>1.385033357781808</v>
+        <v>1.120642332161137</v>
       </c>
       <c r="F80" t="n">
-        <v>0.892763289288118</v>
+        <v>1.032980530757356</v>
       </c>
       <c r="G80" t="n">
-        <v>6.342105263157895</v>
+        <v>3.58974358974359</v>
       </c>
       <c r="H80" t="n">
-        <v>5.027777777777778</v>
+        <v>2.243243243243243</v>
       </c>
       <c r="I80" t="n">
-        <v>9.416666666666666</v>
+        <v>6.361111111111111</v>
       </c>
       <c r="J80" t="n">
-        <v>8.105263157894736</v>
+        <v>6.473684210526316</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_goal_per_match</t>
+          <t>pass_opportunities_to_pulling_wide_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01565452091767881</v>
+        <v>0.0476455240665767</v>
       </c>
       <c r="C81" t="n">
-        <v>0.005310573731626364</v>
+        <v>0.04056988567514883</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8728715609439697</v>
+        <v>17.44</v>
       </c>
       <c r="E81" t="n">
-        <v>0.01429321186227971</v>
+        <v>0.002742109285444177</v>
       </c>
       <c r="F81" t="n">
-        <v>0.01099502757997121</v>
+        <v>0.006876540409797701</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.04473684210526316</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>0.02864864864864865</v>
       </c>
       <c r="I81" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.05131578947368422</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.05131578947368421</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_leading_to_goal_per_match</t>
+          <t>count_completed_pass_to_pulling_wide_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.142757534862798</v>
+        <v>0.2443994601889339</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09389125968073335</v>
+        <v>0.2083346504399136</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8703378210242929</v>
+        <v>17.31</v>
       </c>
       <c r="E82" t="n">
-        <v>0.03923374382504446</v>
+        <v>0.06847839018709591</v>
       </c>
       <c r="F82" t="n">
-        <v>0.05859951280332186</v>
+        <v>0.08861278172635277</v>
       </c>
       <c r="G82" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.07894736842105263</v>
       </c>
-      <c r="H82" t="n">
-        <v>0.02702702702702703</v>
-      </c>
       <c r="I82" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_wide_runs_per_match</t>
+          <t>runs_in_behind_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6.431241565452092</v>
+        <v>0.3814347728295097</v>
       </c>
       <c r="C83" t="n">
-        <v>5.639152310204941</v>
+        <v>0.3273439492123703</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8645617845653274</v>
+        <v>16.52</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9669916747730892</v>
+        <v>0.03405361193223478</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8915380209330611</v>
+        <v>0.06025705689899381</v>
       </c>
       <c r="G83" t="n">
-        <v>5.078947368421052</v>
+        <v>0.327948717948718</v>
       </c>
       <c r="H83" t="n">
-        <v>4.222222222222222</v>
+        <v>0.2313888888888889</v>
       </c>
       <c r="I83" t="n">
-        <v>7.684210526315789</v>
+        <v>0.4218421052631579</v>
       </c>
       <c r="J83" t="n">
-        <v>7.184210526315789</v>
+        <v>0.4364864864864865</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_ahead_of_the_ball_per_match</t>
+          <t>pass_opportunities_to_overlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>44.75859199280252</v>
+        <v>0.1320368870895187</v>
       </c>
       <c r="C84" t="n">
-        <v>41.24605131447236</v>
+        <v>0.1136361624782677</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8592605753625686</v>
+        <v>16.19</v>
       </c>
       <c r="E84" t="n">
-        <v>4.901137488477305</v>
+        <v>0.02497966785353106</v>
       </c>
       <c r="F84" t="n">
-        <v>4.295405704105915</v>
+        <v>0.0244659462322729</v>
       </c>
       <c r="G84" t="n">
-        <v>36.73684210526316</v>
+        <v>0.1141025641025641</v>
       </c>
       <c r="H84" t="n">
-        <v>32.60526315789474</v>
+        <v>0.08416666666666667</v>
       </c>
       <c r="I84" t="n">
-        <v>48.94736842105263</v>
+        <v>0.1755555555555556</v>
       </c>
       <c r="J84" t="n">
-        <v>48.16216216216216</v>
+        <v>0.1744736842105263</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_ahead_of_the_ball_in_sample</t>
+          <t>count_pass_opportunities_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>44.75859199280252</v>
+        <v>1.573931623931624</v>
       </c>
       <c r="C85" t="n">
-        <v>41.24605131447236</v>
+        <v>1.355489700226542</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8592605753625686</v>
+        <v>16.12</v>
       </c>
       <c r="E85" t="n">
-        <v>4.901137488477305</v>
+        <v>0.1800699155003087</v>
       </c>
       <c r="F85" t="n">
-        <v>4.295405704105915</v>
+        <v>0.3769555412940247</v>
       </c>
       <c r="G85" t="n">
-        <v>36.73684210526316</v>
+        <v>1.315789473684211</v>
       </c>
       <c r="H85" t="n">
-        <v>32.60526315789474</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="I85" t="n">
-        <v>48.94736842105263</v>
+        <v>1.805555555555556</v>
       </c>
       <c r="J85" t="n">
-        <v>48.16216216216216</v>
+        <v>2.157894736842105</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_coming_short_runs_per_match</t>
+          <t>count_completed_pass_to_support_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.05935672514619883</v>
+        <v>1.317363922627081</v>
       </c>
       <c r="C86" t="n">
-        <v>0.02665033454507139</v>
+        <v>1.135893788525367</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8464147390303178</v>
+        <v>15.98</v>
       </c>
       <c r="E86" t="n">
-        <v>0.05331348378953706</v>
+        <v>0.1628391992606351</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0316286048963669</v>
+        <v>0.2972449701156931</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1.210526315789474</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1388888888888889</v>
+        <v>1.605263157894737</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1052631578947368</v>
+        <v>1.631578947368421</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_to_which_pass_attempted_threat_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.2490350877192982</v>
+        <v>0.02690058479532164</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2269037721932459</v>
+        <v>0.02323902850218639</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8357327686825301</v>
+        <v>15.76</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0385512593812042</v>
+        <v>0.02706850716031138</v>
       </c>
       <c r="F87" t="n">
-        <v>0.02556717823966022</v>
+        <v>0.02238885482422644</v>
       </c>
       <c r="G87" t="n">
-        <v>0.2128947368421052</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1678947368421053</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2955263157894737</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2542105263157895</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_pulling_half_space_runs_per_match</t>
+          <t>count_pass_attempts_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1593117408906883</v>
+        <v>6.412955465587045</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1101127443232706</v>
+        <v>5.563363363363362</v>
       </c>
       <c r="D88" t="n">
-        <v>0.831479419283098</v>
+        <v>15.27</v>
       </c>
       <c r="E88" t="n">
-        <v>0.08311805967510395</v>
+        <v>0.4450928113515384</v>
       </c>
       <c r="F88" t="n">
-        <v>0.04984638339092012</v>
+        <v>1.254734357206773</v>
       </c>
       <c r="G88" t="n">
-        <v>0.05263157894736842</v>
+        <v>5.871794871794871</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="I88" t="n">
-        <v>0.25</v>
+        <v>6.921052631578948</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2162162162162162</v>
+        <v>7.837837837837838</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_runs_in_behind_per_match</t>
+          <t>count_opportunities_to_pass_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6.412955465587045</v>
+        <v>22.40308142150247</v>
       </c>
       <c r="C89" t="n">
-        <v>5.563363363363363</v>
+        <v>19.51282334966545</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8073520747356928</v>
+        <v>14.81</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4450928113515384</v>
+        <v>4.05122337646065</v>
       </c>
       <c r="F89" t="n">
-        <v>1.254734357206773</v>
+        <v>3.993046303695067</v>
       </c>
       <c r="G89" t="n">
-        <v>5.871794871794871</v>
+        <v>15.68421052631579</v>
       </c>
       <c r="H89" t="n">
-        <v>3.555555555555555</v>
+        <v>13.78947368421053</v>
       </c>
       <c r="I89" t="n">
-        <v>6.921052631578948</v>
+        <v>25.81578947368421</v>
       </c>
       <c r="J89" t="n">
-        <v>7.837837837837838</v>
+        <v>26.81578947368421</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_support_runs</t>
+          <t>runs_ahead_of_the_ball_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>577.9510461088619</v>
+        <v>0.1819280251911831</v>
       </c>
       <c r="C90" t="n">
-        <v>544.7280259469995</v>
+        <v>0.1584937832569411</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8045575971417032</v>
+        <v>14.79</v>
       </c>
       <c r="E90" t="n">
-        <v>33.22845011992332</v>
+        <v>0.02845810086350001</v>
       </c>
       <c r="F90" t="n">
-        <v>49.40166900158787</v>
+        <v>0.02084705540165183</v>
       </c>
       <c r="G90" t="n">
-        <v>536.3981578947369</v>
+        <v>0.1521052631578947</v>
       </c>
       <c r="H90" t="n">
-        <v>438.3092105263158</v>
+        <v>0.1126315789473684</v>
       </c>
       <c r="I90" t="n">
-        <v>610.6417948717948</v>
+        <v>0.2194444444444444</v>
       </c>
       <c r="J90" t="n">
-        <v>596.7124324324325</v>
+        <v>0.1862162162162162</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_cross_receiver_runs_leading_to_goal_per_match</t>
+          <t>pass_completion_ratio_to_runs_in_behind</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.3176563202878993</v>
+        <v>27.93302142728691</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2462146356883199</v>
+        <v>24.36797041125375</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8019664101766868</v>
+        <v>14.63</v>
       </c>
       <c r="E91" t="n">
-        <v>0.07696801516896117</v>
+        <v>2.17523841830697</v>
       </c>
       <c r="F91" t="n">
-        <v>0.09668890616768747</v>
+        <v>3.258378230293553</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2564102564102564</v>
+        <v>25.18277106227106</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1052631578947368</v>
+        <v>18.37983342972817</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4473684210526316</v>
+        <v>29.8584266435319</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4054054054054054</v>
+        <v>29.41149401049401</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_coming_short_runs_in_sample</t>
+          <t>pass_completion_ratio_to_pulling_wide_runs</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>22.40308142150247</v>
+        <v>29.14651584637435</v>
       </c>
       <c r="C92" t="n">
-        <v>19.51282334966545</v>
+        <v>25.43054688468066</v>
       </c>
       <c r="D92" t="n">
-        <v>0.783131641456196</v>
+        <v>14.61</v>
       </c>
       <c r="E92" t="n">
-        <v>4.05122337646065</v>
+        <v>2.744270390371728</v>
       </c>
       <c r="F92" t="n">
-        <v>3.993046303695067</v>
+        <v>3.103301425165101</v>
       </c>
       <c r="G92" t="n">
-        <v>15.68421052631579</v>
+        <v>26.43101012145749</v>
       </c>
       <c r="H92" t="n">
-        <v>13.78947368421053</v>
+        <v>20.38413790838791</v>
       </c>
       <c r="I92" t="n">
-        <v>25.81578947368421</v>
+        <v>32.14888268748795</v>
       </c>
       <c r="J92" t="n">
-        <v>26.81578947368421</v>
+        <v>30.33537796414112</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_coming_short_runs_per_match</t>
+          <t>count_pass_attempts_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>22.40308142150247</v>
+        <v>5.379757085020242</v>
       </c>
       <c r="C93" t="n">
-        <v>19.51282334966545</v>
+        <v>4.694486591855012</v>
       </c>
       <c r="D93" t="n">
-        <v>0.783131641456196</v>
+        <v>14.6</v>
       </c>
       <c r="E93" t="n">
-        <v>4.05122337646065</v>
+        <v>1.144000579786169</v>
       </c>
       <c r="F93" t="n">
-        <v>3.993046303695067</v>
+        <v>1.249403110646912</v>
       </c>
       <c r="G93" t="n">
-        <v>15.68421052631579</v>
+        <v>4.512820512820513</v>
       </c>
       <c r="H93" t="n">
-        <v>13.78947368421053</v>
+        <v>3.027027027027027</v>
       </c>
       <c r="I93" t="n">
-        <v>25.81578947368421</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="J93" t="n">
-        <v>26.81578947368421</v>
+        <v>8.026315789473685</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_overlap_runs_threat_per_match</t>
+          <t>count_completed_pass_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1320368870895187</v>
+        <v>6.431241565452092</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1136361624782677</v>
+        <v>5.639152310204941</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7720002840553789</v>
+        <v>14.05</v>
       </c>
       <c r="E94" t="n">
-        <v>0.02497966785353106</v>
+        <v>0.9669916747730892</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0244659462322729</v>
+        <v>0.8915380209330611</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1141025641025641</v>
+        <v>5.078947368421052</v>
       </c>
       <c r="H94" t="n">
-        <v>0.08416666666666667</v>
+        <v>4.222222222222222</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1755555555555556</v>
+        <v>7.684210526315789</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1744736842105263</v>
+        <v>7.184210526315789</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_runs_ahead_of_the_ball_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>20.98040935672515</v>
+        <v>0.2338056680161943</v>
       </c>
       <c r="C95" t="n">
-        <v>19.57783573046731</v>
+        <v>0.205732047837311</v>
       </c>
       <c r="D95" t="n">
-        <v>0.7675682614457331</v>
+        <v>13.65</v>
       </c>
       <c r="E95" t="n">
-        <v>2.443250516368672</v>
+        <v>0.09679098518065005</v>
       </c>
       <c r="F95" t="n">
-        <v>1.969756512836217</v>
+        <v>0.09538806045009125</v>
       </c>
       <c r="G95" t="n">
-        <v>17.63157894736842</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H95" t="n">
-        <v>15.81578947368421</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I95" t="n">
-        <v>23.31578947368421</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="J95" t="n">
-        <v>23.54054054054054</v>
+        <v>0.3513513513513514</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
+          <t>count_pass_attempts_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.2125281151596941</v>
+        <v>0.0108187134502924</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1493282756440651</v>
+        <v>0.0125204151519941</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7604691006293736</v>
+        <v>-13.59</v>
       </c>
       <c r="E96" t="n">
-        <v>0.08688486531396325</v>
+        <v>0.01482314836916558</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08287491549058482</v>
+        <v>0.01385933388737947</v>
       </c>
       <c r="G96" t="n">
-        <v>0.07894736842105263</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.02702702702702703</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="J96" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_by_teammate_per_match</t>
+          <t>count_pass_attempts_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>30.09493927125506</v>
+        <v>7.560323886639677</v>
       </c>
       <c r="C97" t="n">
-        <v>28.22523839629103</v>
+        <v>6.68126811021548</v>
       </c>
       <c r="D97" t="n">
-        <v>0.747340353211125</v>
+        <v>13.16</v>
       </c>
       <c r="E97" t="n">
-        <v>2.405980958921231</v>
+        <v>0.9215039207220472</v>
       </c>
       <c r="F97" t="n">
-        <v>2.917504189905507</v>
+        <v>0.9595392855722839</v>
       </c>
       <c r="G97" t="n">
-        <v>26.5</v>
+        <v>6.342105263157895</v>
       </c>
       <c r="H97" t="n">
-        <v>21.73684210526316</v>
+        <v>5.162162162162162</v>
       </c>
       <c r="I97" t="n">
-        <v>32.13157894736842</v>
+        <v>8.710526315789474</v>
       </c>
       <c r="J97" t="n">
-        <v>32.47368421052632</v>
+        <v>8.315789473684211</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_pulling_wide_runs_per_match</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>14.70994152046784</v>
+        <v>1.779937022042285</v>
       </c>
       <c r="C98" t="n">
-        <v>13.33948158685001</v>
+        <v>1.5735050840314</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7375642196573811</v>
+        <v>13.12</v>
       </c>
       <c r="E98" t="n">
-        <v>1.987776632823529</v>
+        <v>0.4428515639102394</v>
       </c>
       <c r="F98" t="n">
-        <v>1.925575656302747</v>
+        <v>0.3517567566659142</v>
       </c>
       <c r="G98" t="n">
-        <v>12.05263157894737</v>
+        <v>1.210526315789474</v>
       </c>
       <c r="H98" t="n">
-        <v>10.10810810810811</v>
+        <v>1.026315789473684</v>
       </c>
       <c r="I98" t="n">
-        <v>17</v>
+        <v>2.388888888888889</v>
       </c>
       <c r="J98" t="n">
-        <v>16.31578947368421</v>
+        <v>2.289473684210526</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_pulling_wide_runs_in_sample</t>
+          <t>count_completed_pass_to_support_runs_per_match</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>14.70994152046784</v>
+        <v>11.38403058929375</v>
       </c>
       <c r="C99" t="n">
-        <v>13.33948158685001</v>
+        <v>10.06871871871872</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7375642196573811</v>
+        <v>13.06</v>
       </c>
       <c r="E99" t="n">
-        <v>1.987776632823529</v>
+        <v>1.091563811214016</v>
       </c>
       <c r="F99" t="n">
-        <v>1.925575656302747</v>
+        <v>1.137221672057764</v>
       </c>
       <c r="G99" t="n">
-        <v>12.05263157894737</v>
+        <v>10.05263157894737</v>
       </c>
       <c r="H99" t="n">
-        <v>10.10810810810811</v>
+        <v>7.631578947368421</v>
       </c>
       <c r="I99" t="n">
-        <v>17</v>
+        <v>12.77777777777778</v>
       </c>
       <c r="J99" t="n">
-        <v>16.31578947368421</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_by_teammate_per_match</t>
+          <t>count_coming_short_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>15.2465811965812</v>
+        <v>23.66457489878542</v>
       </c>
       <c r="C100" t="n">
-        <v>13.83202676360571</v>
+        <v>20.97032032032032</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7173501061148433</v>
+        <v>12.85</v>
       </c>
       <c r="E100" t="n">
-        <v>2.182996775150241</v>
+        <v>4.352257414447835</v>
       </c>
       <c r="F100" t="n">
-        <v>2.029025886627097</v>
+        <v>4.552249087382366</v>
       </c>
       <c r="G100" t="n">
-        <v>12.3421052631579</v>
+        <v>16.5</v>
       </c>
       <c r="H100" t="n">
-        <v>10.35135135135135</v>
+        <v>14.71052631578947</v>
       </c>
       <c r="I100" t="n">
-        <v>17.87179487179487</v>
+        <v>27.47368421052632</v>
       </c>
       <c r="J100" t="n">
-        <v>17.10526315789474</v>
+        <v>29.73684210526316</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_leading_to_shot_per_match</t>
+          <t>count_pass_attempts_to_support_runs_per_match</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1.317363922627081</v>
+        <v>13.3408457040036</v>
       </c>
       <c r="C101" t="n">
-        <v>1.135893788525367</v>
+        <v>11.85018966334756</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6946595332731365</v>
+        <v>12.58</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1628391992606351</v>
+        <v>1.127821860652262</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2972449701156931</v>
+        <v>1.263011131010878</v>
       </c>
       <c r="G101" t="n">
-        <v>1.210526315789474</v>
+        <v>11.81578947368421</v>
       </c>
       <c r="H101" t="n">
-        <v>0.7894736842105263</v>
+        <v>9.210526315789474</v>
       </c>
       <c r="I101" t="n">
-        <v>1.605263157894737</v>
+        <v>14.61111111111111</v>
       </c>
       <c r="J101" t="n">
-        <v>1.631578947368421</v>
+        <v>13.86842105263158</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dropping_off_runs_leading_to_shot_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1531713900134953</v>
+        <v>7.829352226720649</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1163452926610821</v>
+        <v>6.957786734102524</v>
       </c>
       <c r="D102" t="n">
-        <v>0.690626360377083</v>
+        <v>12.53</v>
       </c>
       <c r="E102" t="n">
-        <v>0.05200061248834271</v>
+        <v>1.385033357781808</v>
       </c>
       <c r="F102" t="n">
-        <v>0.05922463388590447</v>
+        <v>0.892763289288118</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1052631578947368</v>
+        <v>6.342105263157895</v>
       </c>
       <c r="H102" t="n">
-        <v>0.02631578947368421</v>
+        <v>5.027777777777778</v>
       </c>
       <c r="I102" t="n">
-        <v>0.2307692307692308</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="J102" t="n">
-        <v>0.25</v>
+        <v>8.105263157894736</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_overlap_runs_per_match</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1.573931623931624</v>
+        <v>16.1678587494377</v>
       </c>
       <c r="C103" t="n">
-        <v>1.355489700226542</v>
+        <v>14.44418629155471</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6739031240381466</v>
+        <v>11.93</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1800699155003087</v>
+        <v>2.044350025485508</v>
       </c>
       <c r="F103" t="n">
-        <v>0.3769555412940247</v>
+        <v>1.689443626360494</v>
       </c>
       <c r="G103" t="n">
-        <v>1.315789473684211</v>
+        <v>13.57894736842105</v>
       </c>
       <c r="H103" t="n">
-        <v>0.8421052631578947</v>
+        <v>11.44736842105263</v>
       </c>
       <c r="I103" t="n">
-        <v>1.805555555555556</v>
+        <v>18.47222222222222</v>
       </c>
       <c r="J103" t="n">
-        <v>2.157894736842105</v>
+        <v>17.08108108108108</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_runs_ahead_of_the_ball</t>
+          <t>dropping_off_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>683.6729853801169</v>
+        <v>0.003497525865946918</v>
       </c>
       <c r="C104" t="n">
-        <v>660.6702458247722</v>
+        <v>0.003138691322901849</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6704565112313731</v>
+        <v>11.43</v>
       </c>
       <c r="E104" t="n">
-        <v>34.90780298074542</v>
+        <v>0.0009059289076320459</v>
       </c>
       <c r="F104" t="n">
-        <v>48.83185417997216</v>
+        <v>0.001256042178309794</v>
       </c>
       <c r="G104" t="n">
-        <v>639.1978947368422</v>
+        <v>0.002368421052631579</v>
       </c>
       <c r="H104" t="n">
-        <v>532.2818421052631</v>
+        <v>0.001351351351351351</v>
       </c>
       <c r="I104" t="n">
-        <v>733.1152777777778</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="J104" t="n">
-        <v>727.0421621621622</v>
+        <v>0.006052631578947369</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_underlap_runs_leading_to_goal_per_match</t>
+          <t>pass_opportunities_to_dropping_off_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.05951417004048583</v>
+        <v>0.009271030139451191</v>
       </c>
       <c r="C105" t="n">
-        <v>0.03044886992255413</v>
+        <v>0.00832564143090459</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6692861921473692</v>
+        <v>11.36</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07383408800417748</v>
+        <v>0.002757583524986001</v>
       </c>
       <c r="F105" t="n">
-        <v>0.03046908524921185</v>
+        <v>0.002173622692101919</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>0.004736842105263157</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>0.005135135135135136</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.01138888888888889</v>
       </c>
       <c r="J105" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.01194444444444445</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_by_teammate_per_match</t>
+          <t>pulling_wide_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>23.66457489878542</v>
+        <v>0.02152181736392263</v>
       </c>
       <c r="C106" t="n">
-        <v>20.97032032032032</v>
+        <v>0.01934405458089668</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6666021180414901</v>
+        <v>11.26</v>
       </c>
       <c r="E106" t="n">
-        <v>4.352257414447835</v>
+        <v>0.002913477985997871</v>
       </c>
       <c r="F106" t="n">
-        <v>4.552249087382366</v>
+        <v>0.004179754759237702</v>
       </c>
       <c r="G106" t="n">
-        <v>16.5</v>
+        <v>0.01641025641025641</v>
       </c>
       <c r="H106" t="n">
-        <v>14.71052631578947</v>
+        <v>0.01166666666666667</v>
       </c>
       <c r="I106" t="n">
-        <v>27.47368421052632</v>
+        <v>0.02368421052631579</v>
       </c>
       <c r="J106" t="n">
-        <v>29.73684210526316</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_wide_runs_leading_to_goal_per_match</t>
+          <t>pass_opportunities_to_runs_ahead_of_the_ball_threat_per_match</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.03758434547908231</v>
+        <v>0.563968286099865</v>
       </c>
       <c r="C107" t="n">
-        <v>0.02138717665033454</v>
+        <v>0.5073962120014752</v>
       </c>
       <c r="D107" t="n">
-        <v>0.651750535912282</v>
+        <v>11.15</v>
       </c>
       <c r="E107" t="n">
-        <v>0.03162908231766076</v>
+        <v>0.0817139415206431</v>
       </c>
       <c r="F107" t="n">
-        <v>0.02312336999086896</v>
+        <v>0.05323056349250572</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>0.4275</v>
       </c>
       <c r="I107" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.648157894736842</v>
       </c>
       <c r="J107" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.5826315789473684</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_per_match</t>
+          <t>count_completed_pass_to_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4.416486729644625</v>
+        <v>4.674741340530813</v>
       </c>
       <c r="C108" t="n">
-        <v>3.757246720404615</v>
+        <v>4.227667140825035</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6442057174920826</v>
+        <v>10.57</v>
       </c>
       <c r="E108" t="n">
-        <v>1.120642332161137</v>
+        <v>1.419872159853307</v>
       </c>
       <c r="F108" t="n">
-        <v>1.032980530757356</v>
+        <v>0.818052901812237</v>
       </c>
       <c r="G108" t="n">
-        <v>3.58974358974359</v>
+        <v>3.184210526315789</v>
       </c>
       <c r="H108" t="n">
-        <v>2.243243243243243</v>
+        <v>3.108108108108108</v>
       </c>
       <c r="I108" t="n">
-        <v>6.361111111111111</v>
+        <v>6.410256410256411</v>
       </c>
       <c r="J108" t="n">
-        <v>6.473684210526316</v>
+        <v>5.315789473684211</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_by_teammate_per_match</t>
+          <t>count_opportunities_to_pass_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>51.65933423301844</v>
+        <v>14.70994152046784</v>
       </c>
       <c r="C109" t="n">
-        <v>48.63145250513673</v>
+        <v>13.33948158685001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6440297568246266</v>
+        <v>10.27</v>
       </c>
       <c r="E109" t="n">
-        <v>6.33091305925468</v>
+        <v>1.987776632823529</v>
       </c>
       <c r="F109" t="n">
-        <v>5.169659866026564</v>
+        <v>1.925575656302747</v>
       </c>
       <c r="G109" t="n">
-        <v>41.23684210526316</v>
+        <v>12.05263157894737</v>
       </c>
       <c r="H109" t="n">
-        <v>38.71052631578947</v>
+        <v>10.10810810810811</v>
       </c>
       <c r="I109" t="n">
-        <v>57.73684210526316</v>
+        <v>17</v>
       </c>
       <c r="J109" t="n">
-        <v>57.35135135135135</v>
+        <v>16.31578947368421</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>count_pulling_wide_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2.208007197480882</v>
+        <v>15.2465811965812</v>
       </c>
       <c r="C110" t="n">
-        <v>2.01409304040883</v>
+        <v>13.83202676360571</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6250644242250316</v>
+        <v>10.23</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3952527793618303</v>
+        <v>2.182996775150241</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3497335397250362</v>
+        <v>2.029025886627097</v>
       </c>
       <c r="G110" t="n">
-        <v>1.736842105263158</v>
+        <v>12.3421052631579</v>
       </c>
       <c r="H110" t="n">
-        <v>1.342105263157895</v>
+        <v>10.35135135135135</v>
       </c>
       <c r="I110" t="n">
-        <v>2.722222222222222</v>
+        <v>17.87179487179487</v>
       </c>
       <c r="J110" t="n">
-        <v>2.378378378378379</v>
+        <v>17.10526315789474</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
+          <t>pulling_wide_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1.779937022042285</v>
+        <v>0.0158229869545659</v>
       </c>
       <c r="C111" t="n">
-        <v>1.5735050840314</v>
+        <v>0.01439871450397766</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6143959808619764</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4428515639102394</v>
+        <v>0.003634274634028774</v>
       </c>
       <c r="F111" t="n">
-        <v>0.3517567566659142</v>
+        <v>0.003665137643569859</v>
       </c>
       <c r="G111" t="n">
-        <v>1.210526315789474</v>
+        <v>0.009743589743589744</v>
       </c>
       <c r="H111" t="n">
-        <v>1.026315789473684</v>
+        <v>0.008055555555555555</v>
       </c>
       <c r="I111" t="n">
-        <v>2.388888888888889</v>
+        <v>0.01894736842105263</v>
       </c>
       <c r="J111" t="n">
-        <v>2.289473684210526</v>
+        <v>0.02078947368421053</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_dropping_off_runs</t>
+          <t>runs_ahead_of_the_ball_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>314.1976972559604</v>
+        <v>0.2490350877192982</v>
       </c>
       <c r="C112" t="n">
-        <v>286.4657496970655</v>
+        <v>0.2269037721932459</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6079473159642039</v>
+        <v>9.75</v>
       </c>
       <c r="E112" t="n">
-        <v>59.07184478643146</v>
+        <v>0.0385512593812042</v>
       </c>
       <c r="F112" t="n">
-        <v>49.61233375387791</v>
+        <v>0.02556717823966022</v>
       </c>
       <c r="G112" t="n">
-        <v>239.9123684210526</v>
+        <v>0.2128947368421052</v>
       </c>
       <c r="H112" t="n">
-        <v>201.7544736842105</v>
+        <v>0.1678947368421053</v>
       </c>
       <c r="I112" t="n">
-        <v>375.9830769230769</v>
+        <v>0.2955263157894737</v>
       </c>
       <c r="J112" t="n">
-        <v>334.6492105263158</v>
+        <v>0.2542105263157895</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_overlap_runs_per_match</t>
+          <t>pass_completion_ratio_to_dropping_off_runs</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>5.379757085020242</v>
+        <v>22.3671020402824</v>
       </c>
       <c r="C113" t="n">
-        <v>4.694486591855012</v>
+        <v>20.39061242685365</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5802772431953154</v>
+        <v>9.69</v>
       </c>
       <c r="E113" t="n">
-        <v>1.144000579786169</v>
+        <v>4.564967753758394</v>
       </c>
       <c r="F113" t="n">
-        <v>1.249403110646912</v>
+        <v>3.732241195405032</v>
       </c>
       <c r="G113" t="n">
-        <v>4.512820512820513</v>
+        <v>16.67264607322502</v>
       </c>
       <c r="H113" t="n">
-        <v>3.027027027027027</v>
+        <v>14.43947079236553</v>
       </c>
       <c r="I113" t="n">
-        <v>7.333333333333333</v>
+        <v>27.10007175730253</v>
       </c>
       <c r="J113" t="n">
-        <v>8.026315789473685</v>
+        <v>24.11372411372411</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_pass_attempts_to_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.02152181736392263</v>
+        <v>4.84412955465587</v>
       </c>
       <c r="C114" t="n">
-        <v>0.01934405458089668</v>
+        <v>4.418555397502766</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5769961568385671</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>0.002913477985997871</v>
+        <v>1.452959107141194</v>
       </c>
       <c r="F114" t="n">
-        <v>0.004179754759237701</v>
+        <v>0.8245306606477651</v>
       </c>
       <c r="G114" t="n">
-        <v>0.01641025641025641</v>
+        <v>3.315789473684211</v>
       </c>
       <c r="H114" t="n">
-        <v>0.01166666666666667</v>
+        <v>3.189189189189189</v>
       </c>
       <c r="I114" t="n">
-        <v>0.02368421052631579</v>
+        <v>6.615384615384615</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02631578947368421</v>
+        <v>5.447368421052632</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_overlap_runs</t>
+          <t>count_completed_pass_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>297.1410512820513</v>
+        <v>2.208007197480882</v>
       </c>
       <c r="C115" t="n">
-        <v>270.2759809282967</v>
+        <v>2.01409304040883</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5727851567433309</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>40.52266307194188</v>
+        <v>0.3952527793618303</v>
       </c>
       <c r="F115" t="n">
-        <v>52.36350486317424</v>
+        <v>0.3497335397250362</v>
       </c>
       <c r="G115" t="n">
-        <v>252.1369230769231</v>
+        <v>1.736842105263158</v>
       </c>
       <c r="H115" t="n">
-        <v>188.2883783783784</v>
+        <v>1.342105263157895</v>
       </c>
       <c r="I115" t="n">
-        <v>362.7783333333334</v>
+        <v>2.722222222222222</v>
       </c>
       <c r="J115" t="n">
-        <v>384.3865789473684</v>
+        <v>2.378378378378379</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_pulling_wide_runs_per_match</t>
+          <t>pass_completion_ratio_to_overlap_runs</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.01052631578947368</v>
+        <v>21.06659951032623</v>
       </c>
       <c r="C116" t="n">
-        <v>0.02138717665033455</v>
+        <v>19.24311548100101</v>
       </c>
       <c r="D116" t="n">
-        <v>0.560112033611204</v>
+        <v>9.48</v>
       </c>
       <c r="E116" t="n">
-        <v>0.01441375151329385</v>
+        <v>3.131434599728571</v>
       </c>
       <c r="F116" t="n">
-        <v>0.02061356028695086</v>
+        <v>3.700214845535324</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>18.2156295200526</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>13.5685104985105</v>
       </c>
       <c r="I116" t="n">
-        <v>0.02631578947368421</v>
+        <v>26.3862908017908</v>
       </c>
       <c r="J116" t="n">
-        <v>0.05405405405405406</v>
+        <v>27.32656631964527</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_coming_short_runs_per_match</t>
+          <t>dropping_off_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.06491228070175439</v>
+        <v>0.003014844804318489</v>
       </c>
       <c r="C117" t="n">
-        <v>0.03912596807333649</v>
+        <v>0.002763500342447711</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5471296896431791</v>
+        <v>9.1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.06404109560857536</v>
+        <v>0.0006684318286035015</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0412284252830686</v>
+        <v>0.001014422238303509</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>0.002105263157894737</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>0.001351351351351351</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="J117" t="n">
-        <v>0.131578947368421</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dropping_off_runs_leading_to_goal_per_match</t>
+          <t>count_opportunities_to_pass_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.01025641025641026</v>
+        <v>44.75859199280252</v>
       </c>
       <c r="C118" t="n">
-        <v>0.003606237816764132</v>
+        <v>41.24605131447236</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5229763603684908</v>
+        <v>8.52</v>
       </c>
       <c r="E118" t="n">
-        <v>0.02293403053845938</v>
+        <v>4.901137488477305</v>
       </c>
       <c r="F118" t="n">
-        <v>0.009520847223814313</v>
+        <v>4.295405704105915</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>36.73684210526316</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>32.60526315789474</v>
       </c>
       <c r="I118" t="n">
-        <v>0.05128205128205128</v>
+        <v>48.94736842105263</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02777777777777778</v>
+        <v>48.16216216216216</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dropping_off_runs_per_match</t>
+          <t>count_opportunities_to_pass_to_support_runs_per_match</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4.674741340530813</v>
+        <v>26.61612685560054</v>
       </c>
       <c r="C119" t="n">
-        <v>4.227667140825035</v>
+        <v>24.64502397133976</v>
       </c>
       <c r="D119" t="n">
-        <v>0.515059759244867</v>
+        <v>8</v>
       </c>
       <c r="E119" t="n">
-        <v>1.419872159853307</v>
+        <v>2.232327475689917</v>
       </c>
       <c r="F119" t="n">
-        <v>0.818052901812237</v>
+        <v>2.386381825701311</v>
       </c>
       <c r="G119" t="n">
-        <v>3.184210526315789</v>
+        <v>23.07894736842105</v>
       </c>
       <c r="H119" t="n">
-        <v>3.108108108108108</v>
+        <v>19.28947368421053</v>
       </c>
       <c r="I119" t="n">
-        <v>6.410256410256411</v>
+        <v>28.41666666666667</v>
       </c>
       <c r="J119" t="n">
-        <v>5.315789473684211</v>
+        <v>28.23684210526316</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dropping_off_runs_per_match</t>
+          <t>count_overlap_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4.84412955465587</v>
+        <v>9.551799370220422</v>
       </c>
       <c r="C120" t="n">
-        <v>4.418555397502766</v>
+        <v>8.8937200358253</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4893273206136711</v>
+        <v>7.4</v>
       </c>
       <c r="E120" t="n">
-        <v>1.452959107141194</v>
+        <v>1.764284661732445</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8245306606477651</v>
+        <v>2.021747467552773</v>
       </c>
       <c r="G120" t="n">
-        <v>3.315789473684211</v>
+        <v>8.102564102564102</v>
       </c>
       <c r="H120" t="n">
-        <v>3.189189189189189</v>
+        <v>6.657894736842105</v>
       </c>
       <c r="I120" t="n">
-        <v>6.615384615384615</v>
+        <v>12.47222222222222</v>
       </c>
       <c r="J120" t="n">
-        <v>5.447368421052632</v>
+        <v>13.78947368421053</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_dropping_off_runs_threat_per_match</t>
+          <t>count_pass_attempts_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.009271030139451191</v>
+        <v>20.98040935672515</v>
       </c>
       <c r="C121" t="n">
-        <v>0.00832564143090459</v>
+        <v>19.57783573046731</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4625186126368325</v>
+        <v>7.16</v>
       </c>
       <c r="E121" t="n">
-        <v>0.002757583524986001</v>
+        <v>2.443250516368672</v>
       </c>
       <c r="F121" t="n">
-        <v>0.002173622692101919</v>
+        <v>1.969756512836217</v>
       </c>
       <c r="G121" t="n">
-        <v>0.004736842105263157</v>
+        <v>17.63157894736842</v>
       </c>
       <c r="H121" t="n">
-        <v>0.005135135135135136</v>
+        <v>15.81578947368421</v>
       </c>
       <c r="I121" t="n">
-        <v>0.01138888888888889</v>
+        <v>23.31578947368421</v>
       </c>
       <c r="J121" t="n">
-        <v>0.01194444444444445</v>
+        <v>23.54054054054054</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_wide_runs_leading_to_shot_per_match</t>
+          <t>count_opportunities_to_pass_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.2443994601889339</v>
+        <v>9.429667116509222</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2083346504399136</v>
+        <v>8.813771666403246</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4584008421486064</v>
+        <v>6.99</v>
       </c>
       <c r="E122" t="n">
-        <v>0.06847839018709591</v>
+        <v>1.75060535790859</v>
       </c>
       <c r="F122" t="n">
-        <v>0.08861278172635277</v>
+        <v>1.997117457544471</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1578947368421053</v>
+        <v>7.974358974358974</v>
       </c>
       <c r="H122" t="n">
-        <v>0.07894736842105263</v>
+        <v>6.657894736842105</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3333333333333333</v>
+        <v>12.30555555555556</v>
       </c>
       <c r="J122" t="n">
-        <v>0.3684210526315789</v>
+        <v>13.68421052631579</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_dropping_off_runs_per_match</t>
+          <t>count_support_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.005263157894736842</v>
+        <v>30.09493927125506</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0107186133501923</v>
+        <v>28.22523839629103</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4193139346887674</v>
+        <v>6.62</v>
       </c>
       <c r="E123" t="n">
-        <v>0.01176877882894626</v>
+        <v>2.405980958921231</v>
       </c>
       <c r="F123" t="n">
-        <v>0.01359295395919965</v>
+        <v>2.917504189905507</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>21.73684210526316</v>
       </c>
       <c r="I123" t="n">
-        <v>0.02631578947368421</v>
+        <v>32.13157894736842</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02777777777777778</v>
+        <v>32.47368421052632</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_runs_ahead_of_the_ball_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.0158229869545659</v>
+        <v>51.65933423301844</v>
       </c>
       <c r="C124" t="n">
-        <v>0.01439871450397766</v>
+        <v>48.63145250513671</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4139186771923578</v>
+        <v>6.23</v>
       </c>
       <c r="E124" t="n">
-        <v>0.003634274634028774</v>
+        <v>6.33091305925468</v>
       </c>
       <c r="F124" t="n">
-        <v>0.003665137643569859</v>
+        <v>5.169659866026564</v>
       </c>
       <c r="G124" t="n">
-        <v>0.009743589743589744</v>
+        <v>41.23684210526316</v>
       </c>
       <c r="H124" t="n">
-        <v>0.008055555555555555</v>
+        <v>38.71052631578947</v>
       </c>
       <c r="I124" t="n">
-        <v>0.01894736842105263</v>
+        <v>57.73684210526316</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02078947368421053</v>
+        <v>57.35135135135135</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_pulling_wide_runs_per_match</t>
+          <t>pass_completion_ratio_to_support_runs</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.03670715249662618</v>
+        <v>41.09307466469278</v>
       </c>
       <c r="C125" t="n">
-        <v>0.04784521363468731</v>
+        <v>38.75726413642597</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3796631983009996</v>
+        <v>6.03</v>
       </c>
       <c r="E125" t="n">
-        <v>0.03006525333585536</v>
+        <v>3.09671251854395</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0284887173038604</v>
+        <v>3.678011304910231</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>37.36321647650595</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>30.1675356660883</v>
       </c>
       <c r="I125" t="n">
-        <v>0.07894736842105263</v>
+        <v>43.89650633981403</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1052631578947368</v>
+        <v>43.00245307762412</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_by_teammate_per_match</t>
+          <t>count_pass_attempts_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>9.551799370220422</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C126" t="n">
-        <v>8.8937200358253</v>
+        <v>0.02489594858015911</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3684636124966681</v>
+        <v>5.7</v>
       </c>
       <c r="E126" t="n">
-        <v>1.764284661732445</v>
+        <v>0.03721614637823934</v>
       </c>
       <c r="F126" t="n">
-        <v>2.021747467552773</v>
+        <v>0.0211845518022079</v>
       </c>
       <c r="G126" t="n">
-        <v>8.102564102564102</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>6.657894736842105</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>12.47222222222222</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J126" t="n">
-        <v>13.78947368421053</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_overlap_runs_in_sample</t>
+          <t>count_opportunities_to_pass_to_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>9.429667116509222</v>
+        <v>9.88106162843005</v>
       </c>
       <c r="C127" t="n">
-        <v>8.813771666403246</v>
+        <v>9.491322901849218</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3505693452188357</v>
+        <v>4.11</v>
       </c>
       <c r="E127" t="n">
-        <v>1.75060535790859</v>
+        <v>2.345554224193174</v>
       </c>
       <c r="F127" t="n">
-        <v>1.997117457544471</v>
+        <v>1.611026804134943</v>
       </c>
       <c r="G127" t="n">
-        <v>7.974358974358974</v>
+        <v>7.578947368421052</v>
       </c>
       <c r="H127" t="n">
-        <v>6.657894736842105</v>
+        <v>7.081081081081081</v>
       </c>
       <c r="I127" t="n">
-        <v>12.30555555555556</v>
+        <v>13.15384615384615</v>
       </c>
       <c r="J127" t="n">
-        <v>13.68421052631579</v>
+        <v>12.07894736842105</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_overlap_runs_per_match</t>
+          <t>count_completed_pass_to_overlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>9.429667116509222</v>
+        <v>0.5054430949167791</v>
       </c>
       <c r="C128" t="n">
-        <v>8.813771666403246</v>
+        <v>0.5251251251251251</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3505693452188357</v>
+        <v>-3.75</v>
       </c>
       <c r="E128" t="n">
-        <v>1.75060535790859</v>
+        <v>0.1826648412096884</v>
       </c>
       <c r="F128" t="n">
-        <v>1.997117457544471</v>
+        <v>0.1745288254484178</v>
       </c>
       <c r="G128" t="n">
-        <v>7.974358974358974</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="H128" t="n">
-        <v>6.657894736842105</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="I128" t="n">
-        <v>12.30555555555556</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="J128" t="n">
-        <v>13.68421052631579</v>
+        <v>0.8421052631578947</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_pass_attempts_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.003497525865946918</v>
+        <v>3.100022492127755</v>
       </c>
       <c r="C129" t="n">
-        <v>0.003138691322901849</v>
+        <v>2.997194562984037</v>
       </c>
       <c r="D129" t="n">
-        <v>0.343886456636976</v>
+        <v>3.43</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0009059289076320459</v>
+        <v>0.5882014245042132</v>
       </c>
       <c r="F129" t="n">
-        <v>0.001256042178309794</v>
+        <v>0.4632915174655703</v>
       </c>
       <c r="G129" t="n">
-        <v>0.002368421052631579</v>
+        <v>2.578947368421053</v>
       </c>
       <c r="H129" t="n">
-        <v>0.001351351351351351</v>
+        <v>2.105263157894737</v>
       </c>
       <c r="I129" t="n">
-        <v>0.004444444444444444</v>
+        <v>3.861111111111111</v>
       </c>
       <c r="J129" t="n">
-        <v>0.006052631578947369</v>
+        <v>3.578947368421053</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_leading_to_goal_per_match</t>
+          <t>pass_completion_ratio_to_runs_ahead_of_the_ball</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.05337381916329285</v>
+        <v>48.5398077651356</v>
       </c>
       <c r="C130" t="n">
-        <v>0.04092250144881723</v>
+        <v>46.96299702581194</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3361317894972893</v>
+        <v>3.36</v>
       </c>
       <c r="E130" t="n">
-        <v>0.05330014996741034</v>
+        <v>3.3180515644607</v>
       </c>
       <c r="F130" t="n">
-        <v>0.03310540249810451</v>
+        <v>3.194156739981737</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>44.34674021592443</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>39.90688172353962</v>
       </c>
       <c r="I130" t="n">
-        <v>0.131578947368421</v>
+        <v>53.26565440577941</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1052631578947368</v>
+        <v>51.75274026086526</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_leading_to_shot_per_match</t>
+          <t>count_dropping_off_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.2338056680161943</v>
+        <v>10.22582096266307</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205732047837311</v>
+        <v>10.02679258205574</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3335136987668735</v>
+        <v>1.98</v>
       </c>
       <c r="E131" t="n">
-        <v>0.09679098518065005</v>
+        <v>2.538686365083639</v>
       </c>
       <c r="F131" t="n">
-        <v>0.09538806045009125</v>
+        <v>1.727987745987321</v>
       </c>
       <c r="G131" t="n">
-        <v>0.07692307692307693</v>
+        <v>7.815789473684211</v>
       </c>
       <c r="H131" t="n">
-        <v>0.02631578947368421</v>
+        <v>7.243243243243243</v>
       </c>
       <c r="I131" t="n">
-        <v>0.3421052631578947</v>
+        <v>13.87179487179487</v>
       </c>
       <c r="J131" t="n">
-        <v>0.3513513513513514</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>dropping_off_runs_to_which_pass_completed_threat_per_match</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0.003014844804318489</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.002763500342447711</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.3113111495561486</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.0006684318286035015</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.001014422238303509</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.002105263157894737</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0.001351351351351351</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.003846153846153846</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>count_pass_opportunities_to_dangerous_dropping_off_runs_per_match</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>0.01608187134502924</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.02138717665033455</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.2864459496157731</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.01469280061567382</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.02061356028695087</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.05405405405405406</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>count_opportunities_to_pass_to_dropping_off_runs_per_match</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>9.88106162843005</v>
-      </c>
-      <c r="C134" t="n">
-        <v>9.491322901849218</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.2812593024209046</v>
-      </c>
-      <c r="E134" t="n">
-        <v>2.345554224193174</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1.611026804134943</v>
-      </c>
-      <c r="G134" t="n">
-        <v>7.578947368421052</v>
-      </c>
-      <c r="H134" t="n">
-        <v>7.081081081081081</v>
-      </c>
-      <c r="I134" t="n">
-        <v>13.15384615384615</v>
-      </c>
-      <c r="J134" t="n">
-        <v>12.07894736842105</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>count_opportunities_to_pass_to_dropping_off_runs_in_sample</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>9.88106162843005</v>
-      </c>
-      <c r="C135" t="n">
-        <v>9.491322901849218</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.2812593024209046</v>
-      </c>
-      <c r="E135" t="n">
-        <v>2.345554224193174</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1.611026804134943</v>
-      </c>
-      <c r="G135" t="n">
-        <v>7.578947368421052</v>
-      </c>
-      <c r="H135" t="n">
-        <v>7.081081081081081</v>
-      </c>
-      <c r="I135" t="n">
-        <v>13.15384615384615</v>
-      </c>
-      <c r="J135" t="n">
-        <v>12.07894736842105</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>count_pass_attempts_to_dangerous_runs_ahead_of_the_ball_per_match</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>3.100022492127755</v>
-      </c>
-      <c r="C136" t="n">
-        <v>2.997194562984037</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.2691118647748944</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.5882014245042132</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.4632915174655703</v>
-      </c>
-      <c r="G136" t="n">
-        <v>2.578947368421053</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2.105263157894737</v>
-      </c>
-      <c r="I136" t="n">
-        <v>3.861111111111111</v>
-      </c>
-      <c r="J136" t="n">
-        <v>3.578947368421053</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>count_dropping_off_runs_by_teammate_per_match</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>10.22582096266307</v>
-      </c>
-      <c r="C137" t="n">
-        <v>10.02679258205574</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.1664235013086411</v>
-      </c>
-      <c r="E137" t="n">
-        <v>2.538686365083639</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1.727987745987321</v>
-      </c>
-      <c r="G137" t="n">
-        <v>7.815789473684211</v>
-      </c>
-      <c r="H137" t="n">
-        <v>7.243243243243243</v>
-      </c>
-      <c r="I137" t="n">
-        <v>13.87179487179487</v>
-      </c>
-      <c r="J137" t="n">
         <v>12.78947368421053</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>count_completed_pass_to_coming_short_runs_leading_to_goal_per_match</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.02690058479532164</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.02323902850218639</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.1605144707810256</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.02706850716031138</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.02238885482422644</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.08108108108108109</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>count_pass_attempts_to_dangerous_dropping_off_runs_per_match</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0.0108187134502924</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.0125204151519941</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.1340050420345616</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.01482314836916558</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.01385933388737947</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>count_completed_pass_to_overlap_runs_leading_to_shot_per_match</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0.5054430949167791</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.5251251251251251</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.1058734694673806</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.1826648412096884</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.1745288254484178</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.3421052631578947</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.8421052631578947</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>count_pass_attempts_to_dangerous_pulling_wide_runs_per_match</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.02489594858015911</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.07241672621247575</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.03721614637823934</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.0211845518022079</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.07894736842105263</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.05405405405405406</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_passes.xlsx
+++ b/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_passes.xlsx
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01565452091767881</v>
+        <v>0.01417045326785669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005310573731626364</v>
+        <v>0.004813531327742332</v>
       </c>
       <c r="D2" t="n">
-        <v>194.78</v>
+        <v>194.39</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01429321186227971</v>
+        <v>0.01294668753742628</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01099502757997121</v>
+        <v>0.009965858544582583</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -508,10 +508,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02411834065816272</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02444164421656383</v>
       </c>
     </row>
     <row r="3">
@@ -521,19 +521,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.009101617281544119</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003606237816764132</v>
+        <v>0.003291963252580493</v>
       </c>
       <c r="D3" t="n">
-        <v>184.41</v>
+        <v>176.48</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02293403053845938</v>
+        <v>0.02035183494671949</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009520847223814313</v>
+        <v>0.008688855596346282</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.0455080864077206</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.0251004016064257</v>
       </c>
     </row>
     <row r="4">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05935672514619883</v>
+        <v>0.05479884269304456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02665033454507139</v>
+        <v>0.02441658913301864</v>
       </c>
       <c r="D4" t="n">
-        <v>122.72</v>
+        <v>124.43</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05331348378953706</v>
+        <v>0.04926711629815705</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0316286048963669</v>
+        <v>0.02892351967637587</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1284078294833799</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09607756752759093</v>
       </c>
     </row>
     <row r="5">
@@ -589,19 +589,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05951417004048583</v>
+        <v>0.05440733115433372</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03044886992255413</v>
+        <v>0.02726179371569422</v>
       </c>
       <c r="D5" t="n">
-        <v>95.45999999999999</v>
+        <v>99.56999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07383408800417748</v>
+        <v>0.06821268629335812</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03046908524921185</v>
+        <v>0.02745068831118782</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1553557302765211</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07631386717334918</v>
       </c>
     </row>
     <row r="6">
@@ -623,19 +623,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03758434547908231</v>
+        <v>0.0348471708210419</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02138717665033454</v>
+        <v>0.0193961707634775</v>
       </c>
       <c r="D6" t="n">
-        <v>75.73</v>
+        <v>79.66</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03162908231766076</v>
+        <v>0.03003125531856193</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02312336999086896</v>
+        <v>0.02063854432032703</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -644,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07945107128161499</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07174344729430356</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1550157444894287</v>
+        <v>0.1428016396753781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09062220114851693</v>
+        <v>0.08299573806984957</v>
       </c>
       <c r="D7" t="n">
-        <v>71.06</v>
+        <v>72.06</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08538857182660912</v>
+        <v>0.07986360460105374</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05357004950590515</v>
+        <v>0.04920820211747582</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04791808276389851</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2594181574276207</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1926356247938024</v>
       </c>
     </row>
     <row r="8">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06491228070175439</v>
+        <v>0.06032675866872172</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03912596807333649</v>
+        <v>0.03591848495263986</v>
       </c>
       <c r="D8" t="n">
-        <v>65.91</v>
+        <v>67.95</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06404109560857536</v>
+        <v>0.05997748543066913</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0412284252830686</v>
+        <v>0.03781440085726862</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1560474093617657</v>
       </c>
       <c r="J8" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1202821771610256</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1632478632478632</v>
+        <v>0.150306032728396</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1020652231178547</v>
+        <v>0.09356861447491503</v>
       </c>
       <c r="D9" t="n">
-        <v>59.94</v>
+        <v>60.64</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08235534886523686</v>
+        <v>0.07702033341844329</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04975098122049314</v>
+        <v>0.04570936626757089</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04739019237774058</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02434142911234922</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2451539117723106</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.1989305715979924</v>
       </c>
     </row>
     <row r="10">
@@ -759,31 +759,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03456410256410257</v>
+        <v>0.03175810612589913</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02249209736051841</v>
+        <v>0.02057164477031054</v>
       </c>
       <c r="D10" t="n">
-        <v>53.67</v>
+        <v>54.38</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007670397864295207</v>
+        <v>0.00699974859492217</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006845745295607777</v>
+        <v>0.006234898071767328</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02282051282051282</v>
+        <v>0.02104927626687098</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01459459459459459</v>
+        <v>0.01350856492667002</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04263157894736842</v>
+        <v>0.03894133769987115</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0418421052631579</v>
+        <v>0.03808460120771747</v>
       </c>
     </row>
     <row r="11">
@@ -793,31 +793,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.757782276203329</v>
+        <v>1.61344219156465</v>
       </c>
       <c r="C11" t="n">
-        <v>1.145930140666983</v>
+        <v>1.048429101029818</v>
       </c>
       <c r="D11" t="n">
-        <v>53.39</v>
+        <v>53.89</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3867417244376833</v>
+        <v>0.3569399566341162</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3657180598364699</v>
+        <v>0.3351657080233701</v>
       </c>
       <c r="G11" t="n">
-        <v>1.076923076923077</v>
+        <v>0.9851045451427933</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.5900104093112131</v>
       </c>
       <c r="I11" t="n">
-        <v>2.027777777777778</v>
+        <v>1.86746521617616</v>
       </c>
       <c r="J11" t="n">
-        <v>2.184210526315789</v>
+        <v>1.997862604633995</v>
       </c>
     </row>
     <row r="12">
@@ -827,31 +827,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.142757534862798</v>
+        <v>0.1307418823141236</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09389125968073335</v>
+        <v>0.08556721094932931</v>
       </c>
       <c r="D12" t="n">
-        <v>52.05</v>
+        <v>52.79</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03923374382504446</v>
+        <v>0.03608311375857191</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05859951280332186</v>
+        <v>0.05324841206286351</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07180652601040877</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02454102154456281</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1691549484665788</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2170658700649315</v>
       </c>
     </row>
     <row r="13">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.005263157894736842</v>
+        <v>0.004676976802195061</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0107186133501923</v>
+        <v>0.009843305658093427</v>
       </c>
       <c r="D13" t="n">
-        <v>-50.9</v>
+        <v>-52.49</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01176877882894626</v>
+        <v>0.01045803805889775</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01359295395919965</v>
+        <v>0.0124849547851466</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -882,78 +882,78 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02338488401097531</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02531645569620253</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_pulling_wide_runs_per_match</t>
+          <t>count_completed_pass_to_underlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01052631578947368</v>
+        <v>0.2938442603392591</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02138717665033455</v>
+        <v>0.1936240742216093</v>
       </c>
       <c r="D14" t="n">
-        <v>-50.78</v>
+        <v>51.76</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01441375151329385</v>
+        <v>0.1097591070252563</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02061356028695086</v>
+        <v>0.07173139284206985</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.1681631096653876</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.09948596496925907</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.4619865419250299</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.4054752016139576</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_underlap_runs_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3197031039136302</v>
+        <v>0.009733215359193156</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2121832358674464</v>
+        <v>0.01965016500516978</v>
       </c>
       <c r="D15" t="n">
-        <v>50.67</v>
+        <v>-50.47</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1176736664551053</v>
+        <v>0.01333059976325778</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0797080919523873</v>
+        <v>0.01873375734623479</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1842105263157895</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1081081081081081</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5</v>
+        <v>0.02472255796066367</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.0487455279654139</v>
       </c>
     </row>
     <row r="16">
@@ -963,31 +963,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2284750337381916</v>
+        <v>0.2098275509249417</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1528870976239398</v>
+        <v>0.1400535902396642</v>
       </c>
       <c r="D16" t="n">
-        <v>49.44</v>
+        <v>49.82</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07614762917640998</v>
+        <v>0.07008989826200317</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05188628664343582</v>
+        <v>0.04691574665674561</v>
       </c>
       <c r="G16" t="n">
-        <v>0.131578947368421</v>
+        <v>0.120571471405609</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07483884685843374</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3055408870567975</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2179592669751112</v>
       </c>
     </row>
     <row r="17">
@@ -997,31 +997,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.615429599640126</v>
+        <v>0.5662598198252325</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4169406248353617</v>
+        <v>0.3813153633263957</v>
       </c>
       <c r="D17" t="n">
-        <v>47.61</v>
+        <v>48.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1666159226509201</v>
+        <v>0.1535847934033901</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1100050684943551</v>
+        <v>0.09943804148704204</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.3602566932898835</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.2651008034261647</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.7473592363180557</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.59335578932887</v>
       </c>
     </row>
     <row r="18">
@@ -1031,31 +1031,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.13938607185662</v>
+        <v>9.314058915204189</v>
       </c>
       <c r="C18" t="n">
-        <v>6.891372086803665</v>
+        <v>6.313280751009366</v>
       </c>
       <c r="D18" t="n">
-        <v>47.13</v>
+        <v>47.53</v>
       </c>
       <c r="E18" t="n">
-        <v>1.90958467947582</v>
+        <v>1.770920073779865</v>
       </c>
       <c r="F18" t="n">
-        <v>1.769041282569681</v>
+        <v>1.6287960467123</v>
       </c>
       <c r="G18" t="n">
-        <v>6.805679064525219</v>
+        <v>6.230977786509952</v>
       </c>
       <c r="H18" t="n">
-        <v>4.437184437184437</v>
+        <v>4.036976942900893</v>
       </c>
       <c r="I18" t="n">
-        <v>11.39637774725275</v>
+        <v>10.50478968512496</v>
       </c>
       <c r="J18" t="n">
-        <v>12.07007277809909</v>
+        <v>11.07212589516827</v>
       </c>
     </row>
     <row r="19">
@@ -1065,31 +1065,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7365721997300945</v>
+        <v>0.6767668553589014</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5033875981244402</v>
+        <v>0.4620334863862079</v>
       </c>
       <c r="D19" t="n">
-        <v>46.32</v>
+        <v>46.48</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1505756318944425</v>
+        <v>0.1388179904906254</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1791074881564765</v>
+        <v>0.1650400330535379</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4783598528366931</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2912497209344617</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.8448578639276428</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8717425108875517</v>
       </c>
     </row>
     <row r="20">
@@ -1099,31 +1099,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1593117408906883</v>
+        <v>0.1464955294004714</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1101127443232706</v>
+        <v>0.1007811998686487</v>
       </c>
       <c r="D20" t="n">
-        <v>44.68</v>
+        <v>45.36</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08311805967510395</v>
+        <v>0.07656351545085836</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04984638339092012</v>
+        <v>0.04542664695145444</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04873603438100849</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.25</v>
+        <v>0.2285236402588672</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.1990371473394988</v>
       </c>
     </row>
     <row r="21">
@@ -1133,31 +1133,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02319725596041385</v>
+        <v>0.02132043743887653</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01607378431062641</v>
+        <v>0.0147302148412853</v>
       </c>
       <c r="D21" t="n">
-        <v>44.32</v>
+        <v>44.74</v>
       </c>
       <c r="E21" t="n">
-        <v>0.006404487148196933</v>
+        <v>0.005972458726315334</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004459658448614228</v>
+        <v>0.004034060888964199</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01641025641025641</v>
+        <v>0.01496817039168877</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01</v>
+        <v>0.009195307437362313</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03194444444444444</v>
+        <v>0.02948747109892444</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02452648123515798</v>
       </c>
     </row>
     <row r="22">
@@ -1167,31 +1167,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5504948268106163</v>
+        <v>0.5059034380208655</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3833912860228649</v>
+        <v>0.350070008451128</v>
       </c>
       <c r="D22" t="n">
-        <v>43.59</v>
+        <v>44.51</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06288490812510888</v>
+        <v>0.05482880886159229</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1554080475376877</v>
+        <v>0.1396162748556885</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4264596232889143</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.169972116049563</v>
       </c>
       <c r="I22" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5761315493144246</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.7328711894526211</v>
       </c>
     </row>
     <row r="23">
@@ -1201,31 +1201,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2125281151596941</v>
+        <v>0.1940955745329077</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1493282756440651</v>
+        <v>0.1358234736615443</v>
       </c>
       <c r="D23" t="n">
-        <v>42.32</v>
+        <v>42.9</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08688486531396325</v>
+        <v>0.07956437944172796</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08287491549058482</v>
+        <v>0.07510339164755456</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07284029168505017</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02459934500144043</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2816641804660757</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2839131460583431</v>
       </c>
     </row>
     <row r="24">
@@ -1235,31 +1235,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02446828609986505</v>
+        <v>0.02252053952446486</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01737237237237238</v>
+        <v>0.01590799568389823</v>
       </c>
       <c r="D24" t="n">
-        <v>40.85</v>
+        <v>41.57</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004498538178976921</v>
+        <v>0.004227431307626315</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003917594778861239</v>
+        <v>0.003599864319312757</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01973684210526316</v>
+        <v>0.01806582348696337</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01054054054054054</v>
+        <v>0.009687281633565151</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03102564102564102</v>
+        <v>0.02858066307383672</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0227027027027027</v>
+        <v>0.02104878107194082</v>
       </c>
     </row>
     <row r="25">
@@ -1269,31 +1269,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8569050832208728</v>
+        <v>0.7874350047722007</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6145856382698487</v>
+        <v>0.5616293101307946</v>
       </c>
       <c r="D25" t="n">
-        <v>39.43</v>
+        <v>40.21</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1230163537092069</v>
+        <v>0.1095875500544948</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2241313014852806</v>
+        <v>0.2039257128417429</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.6837950022997477</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.316928601013659</v>
       </c>
       <c r="I25" t="n">
-        <v>1.052631578947368</v>
+        <v>0.9592346794110254</v>
       </c>
       <c r="J25" t="n">
-        <v>1.157894736842105</v>
+        <v>1.049611255867113</v>
       </c>
     </row>
     <row r="26">
@@ -1303,31 +1303,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01838573999100315</v>
+        <v>0.01694024287938381</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0133087561245456</v>
+        <v>0.01218805097217188</v>
       </c>
       <c r="D26" t="n">
-        <v>38.15</v>
+        <v>38.99</v>
       </c>
       <c r="E26" t="n">
-        <v>0.005094014194112833</v>
+        <v>0.00473531627822663</v>
       </c>
       <c r="F26" t="n">
-        <v>0.002606954145313349</v>
+        <v>0.002371888795939671</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01289473684210526</v>
+        <v>0.01186136380754644</v>
       </c>
       <c r="H26" t="n">
-        <v>0.008648648648648649</v>
+        <v>0.007940921287181596</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02615384615384616</v>
+        <v>0.02411677250676256</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01789473684210527</v>
+        <v>0.01624298830583906</v>
       </c>
     </row>
     <row r="27">
@@ -1337,31 +1337,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.04933468286099865</v>
+        <v>0.04532404202502678</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03585235235235236</v>
+        <v>0.03282445289590195</v>
       </c>
       <c r="D27" t="n">
-        <v>37.61</v>
+        <v>38.08</v>
       </c>
       <c r="E27" t="n">
-        <v>0.008686040899017537</v>
+        <v>0.007927004992633661</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01037438318228655</v>
+        <v>0.009475704099982841</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03641025641025641</v>
+        <v>0.03344172502024369</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02342105263157895</v>
+        <v>0.02147636033385212</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05921052631578947</v>
+        <v>0.05397529133700488</v>
       </c>
       <c r="J27" t="n">
-        <v>0.06131578947368421</v>
+        <v>0.05596356574218724</v>
       </c>
     </row>
     <row r="28">
@@ -1371,31 +1371,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.462550607287449</v>
+        <v>2.260769928723366</v>
       </c>
       <c r="C28" t="n">
-        <v>1.804567725620357</v>
+        <v>1.652039848570829</v>
       </c>
       <c r="D28" t="n">
-        <v>36.46</v>
+        <v>36.85</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4807798848169605</v>
+        <v>0.4447743615447213</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5116660533739636</v>
+        <v>0.4682832961602315</v>
       </c>
       <c r="G28" t="n">
-        <v>1.615384615384615</v>
+        <v>1.476016313168094</v>
       </c>
       <c r="H28" t="n">
-        <v>1.135135135135135</v>
+        <v>1.036684156984014</v>
       </c>
       <c r="I28" t="n">
-        <v>2.763157894736842</v>
+        <v>2.535680183498007</v>
       </c>
       <c r="J28" t="n">
-        <v>3.105263157894737</v>
+        <v>2.84220552435875</v>
       </c>
     </row>
     <row r="29">
@@ -1405,31 +1405,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2327498875393613</v>
+        <v>0.2138011933736385</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1709190242874453</v>
+        <v>0.156551459123587</v>
       </c>
       <c r="D29" t="n">
-        <v>36.18</v>
+        <v>36.57</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03791358548505169</v>
+        <v>0.03523000020285283</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03776994438738726</v>
+        <v>0.03457501766366976</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1771052631578947</v>
+        <v>0.1613716153121631</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1107894736842105</v>
+        <v>0.1005896723127001</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2764102564102564</v>
+        <v>0.2541486334571196</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2383783783783784</v>
+        <v>0.2177738729829996</v>
       </c>
     </row>
     <row r="30">
@@ -1439,31 +1439,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.08229082321187584</v>
+        <v>0.07549672917919356</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06061129550603236</v>
+        <v>0.05552130821444386</v>
       </c>
       <c r="D30" t="n">
-        <v>35.77</v>
+        <v>35.98</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01256413019604975</v>
+        <v>0.0117245300212436</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01422934503759006</v>
+        <v>0.01300929554986731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06131578947368421</v>
+        <v>0.0558242557360076</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04162162162162162</v>
+        <v>0.03815248469878554</v>
       </c>
       <c r="I30" t="n">
-        <v>0.09416666666666668</v>
+        <v>0.08668150828459169</v>
       </c>
       <c r="J30" t="n">
-        <v>0.09027027027027026</v>
+        <v>0.08238221730374809</v>
       </c>
     </row>
     <row r="31">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.851304543409806</v>
+        <v>1.698935457497393</v>
       </c>
       <c r="C31" t="n">
-        <v>1.367907381065276</v>
+        <v>1.252808964338445</v>
       </c>
       <c r="D31" t="n">
-        <v>35.34</v>
+        <v>35.61</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2448425194739419</v>
+        <v>0.2229138423392266</v>
       </c>
       <c r="F31" t="n">
-        <v>0.452221502283939</v>
+        <v>0.4135705191417622</v>
       </c>
       <c r="G31" t="n">
-        <v>1.641025641025641</v>
+        <v>1.504740948154664</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.6977535652692023</v>
       </c>
       <c r="I31" t="n">
-        <v>2.131578947368421</v>
+        <v>1.942952961824151</v>
       </c>
       <c r="J31" t="n">
-        <v>2.447368421052631</v>
+        <v>2.230299667983982</v>
       </c>
     </row>
     <row r="32">
@@ -1507,31 +1507,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.06300134952766531</v>
+        <v>0.05784666282952412</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04657278330962541</v>
+        <v>0.04271078380667202</v>
       </c>
       <c r="D32" t="n">
-        <v>35.28</v>
+        <v>35.44</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01688564532330927</v>
+        <v>0.01550322461482237</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01331535161995317</v>
+        <v>0.01219506213032638</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05026315789473684</v>
+        <v>0.04659018764802211</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03</v>
+        <v>0.02783996928818105</v>
       </c>
       <c r="I32" t="n">
-        <v>0.09166666666666667</v>
+        <v>0.08429833002676662</v>
       </c>
       <c r="J32" t="n">
-        <v>0.08105263157894738</v>
+        <v>0.07439388942381957</v>
       </c>
     </row>
     <row r="33">
@@ -1541,31 +1541,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.13803216374269</v>
+        <v>1.045224750251331</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8421922712185869</v>
+        <v>0.7723611516747285</v>
       </c>
       <c r="D33" t="n">
-        <v>35.13</v>
+        <v>35.33</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1423208923437596</v>
+        <v>0.1302679866655875</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1341711194877398</v>
+        <v>0.1236160822095864</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9723684210526317</v>
+        <v>0.8966419071768638</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6036842105263158</v>
+        <v>0.5539909751597909</v>
       </c>
       <c r="I33" t="n">
-        <v>1.329736842105263</v>
+        <v>1.21628787916027</v>
       </c>
       <c r="J33" t="n">
-        <v>1.098378378378378</v>
+        <v>1.013312994749097</v>
       </c>
     </row>
     <row r="34">
@@ -1575,31 +1575,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.43432395638549</v>
+        <v>12.33386765311571</v>
       </c>
       <c r="C34" t="n">
-        <v>10.08072695489011</v>
+        <v>9.251346317502227</v>
       </c>
       <c r="D34" t="n">
-        <v>33.27</v>
+        <v>33.32</v>
       </c>
       <c r="E34" t="n">
-        <v>1.973297839183</v>
+        <v>1.835937059388467</v>
       </c>
       <c r="F34" t="n">
-        <v>1.58397137675176</v>
+        <v>1.448164313720559</v>
       </c>
       <c r="G34" t="n">
-        <v>10.83044148833623</v>
+        <v>9.902214966853824</v>
       </c>
       <c r="H34" t="n">
-        <v>7.65009765009765</v>
+        <v>7.003015599922138</v>
       </c>
       <c r="I34" t="n">
-        <v>16.24823894054663</v>
+        <v>14.90186548049524</v>
       </c>
       <c r="J34" t="n">
-        <v>13.90411290511291</v>
+        <v>12.70117062680619</v>
       </c>
     </row>
     <row r="35">
@@ -1609,133 +1609,133 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1054795321637427</v>
+        <v>0.09678484323833443</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07932716927453769</v>
+        <v>0.07270987139358048</v>
       </c>
       <c r="D35" t="n">
-        <v>32.97</v>
+        <v>33.11</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01589073819378299</v>
+        <v>0.01471014005976703</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02077838660541692</v>
+        <v>0.01906218260515326</v>
       </c>
       <c r="G35" t="n">
-        <v>0.08</v>
+        <v>0.07323578700488416</v>
       </c>
       <c r="H35" t="n">
-        <v>0.05526315789473685</v>
+        <v>0.05066466118649409</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1197368421052632</v>
+        <v>0.1092351175318864</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1360526315789474</v>
+        <v>0.1245417122230289</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_half_space_runs_per_match</t>
+          <t>count_completed_pass_to_runs_in_behind_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.397188484030589</v>
+        <v>0.26101318088745</v>
       </c>
       <c r="C36" t="n">
-        <v>1.809754491333438</v>
+        <v>0.1966114983804183</v>
       </c>
       <c r="D36" t="n">
-        <v>32.46</v>
+        <v>32.76</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3547677970507607</v>
+        <v>0.0709954457245599</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3435222429614481</v>
+        <v>0.07259607975447514</v>
       </c>
       <c r="G36" t="n">
-        <v>1.973684210526316</v>
+        <v>0.1432875101958239</v>
       </c>
       <c r="H36" t="n">
-        <v>1.297297297297297</v>
+        <v>0.09646474219988473</v>
       </c>
       <c r="I36" t="n">
-        <v>2.923076923076923</v>
+        <v>0.333572130521296</v>
       </c>
       <c r="J36" t="n">
-        <v>2.621621621621621</v>
+        <v>0.3183935982592536</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_in_behind_leading_to_goal_per_match</t>
+          <t>coming_short_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2859424201529465</v>
+        <v>0.0238055036947708</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2159633317528054</v>
+        <v>0.01793977657656616</v>
       </c>
       <c r="D37" t="n">
-        <v>32.4</v>
+        <v>32.7</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07824576131868782</v>
+        <v>0.006620755603717477</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08013278772387744</v>
+        <v>0.004230850393878421</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.01685725061249545</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.01236242576282464</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.03259817944090633</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.02849278863327357</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_completed_pass_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02590575798470535</v>
+        <v>2.200532393939805</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01957099204467626</v>
+        <v>1.659162727207865</v>
       </c>
       <c r="D38" t="n">
-        <v>32.37</v>
+        <v>32.63</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00711066446657244</v>
+        <v>0.3266923543421363</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004681264356771702</v>
+        <v>0.3138527938598689</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01846153846153846</v>
+        <v>1.802683421712705</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01342105263157895</v>
+        <v>1.185653683840278</v>
       </c>
       <c r="I38" t="n">
-        <v>0.03527777777777778</v>
+        <v>2.681692936021747</v>
       </c>
       <c r="J38" t="n">
-        <v>0.03135135135135136</v>
+        <v>2.392532162137473</v>
       </c>
     </row>
     <row r="39">
@@ -1745,167 +1745,167 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.6551093117408907</v>
+        <v>0.6018072847125094</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4949323797481692</v>
+        <v>0.4540903808698303</v>
       </c>
       <c r="D39" t="n">
-        <v>32.36</v>
+        <v>32.53</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0889357969940525</v>
+        <v>0.08161062967595703</v>
       </c>
       <c r="F39" t="n">
-        <v>0.09590581666599497</v>
+        <v>0.08834594109633705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5410526315789473</v>
+        <v>0.4989917531371933</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3376315789473684</v>
+        <v>0.3096776139894435</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7552631578947369</v>
+        <v>0.692141756709126</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7024324324324324</v>
+        <v>0.6485698116103343</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_overlap_runs_per_match</t>
+          <t>count_completed_pass_to_dropping_off_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9106387764282502</v>
+        <v>0.1406848946084119</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6905221010484167</v>
+        <v>0.1061880785637485</v>
       </c>
       <c r="D40" t="n">
-        <v>31.88</v>
+        <v>32.49</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1606146133670344</v>
+        <v>0.04736970747848283</v>
       </c>
       <c r="F40" t="n">
-        <v>0.253656921821179</v>
+        <v>0.05398897506190987</v>
       </c>
       <c r="G40" t="n">
-        <v>0.631578947368421</v>
+        <v>0.09661690048676048</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.02376310403170104</v>
       </c>
       <c r="I40" t="n">
-        <v>1.026315789473684</v>
+        <v>0.2113690917602367</v>
       </c>
       <c r="J40" t="n">
-        <v>1.236842105263158</v>
+        <v>0.2271104069806912</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dropping_off_runs_leading_to_shot_per_match</t>
+          <t>count_pass_attempts_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1531713900134953</v>
+        <v>0.8368069348030375</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1163452926610821</v>
+        <v>0.6344636383965176</v>
       </c>
       <c r="D41" t="n">
-        <v>31.65</v>
+        <v>31.89</v>
       </c>
       <c r="E41" t="n">
-        <v>0.05200061248834271</v>
+        <v>0.1505238082199292</v>
       </c>
       <c r="F41" t="n">
-        <v>0.05922463388590447</v>
+        <v>0.2330978689698439</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.5744951673923989</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.3642171431176414</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.9394193946577818</v>
       </c>
       <c r="J41" t="n">
-        <v>0.25</v>
+        <v>1.13680537175022</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_pulling_half_space_runs_per_match</t>
+          <t>count_completed_pass_to_overlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.905847953216374</v>
+        <v>0.04904470232621534</v>
       </c>
       <c r="C42" t="n">
-        <v>2.223044096728307</v>
+        <v>0.03733501329654541</v>
       </c>
       <c r="D42" t="n">
-        <v>30.71</v>
+        <v>31.36</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3062884687793164</v>
+        <v>0.04874416390167745</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4233753295509954</v>
+        <v>0.03029710482971043</v>
       </c>
       <c r="G42" t="n">
-        <v>2.552631578947369</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.567567567567568</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.333333333333333</v>
+        <v>0.1203886240019933</v>
       </c>
       <c r="J42" t="n">
-        <v>3.189189189189189</v>
+        <v>0.09740485509092371</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_leading_to_goal_per_match</t>
+          <t>count_pass_attempts_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.05337381916329285</v>
+        <v>2.666787497954635</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04092250144881723</v>
+        <v>2.037877907679335</v>
       </c>
       <c r="D43" t="n">
-        <v>30.43</v>
+        <v>30.86</v>
       </c>
       <c r="E43" t="n">
-        <v>0.05330014996741034</v>
+        <v>0.2876973361893269</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03310540249810451</v>
+        <v>0.3884590247744497</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.327971224495612</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.438972180143773</v>
       </c>
       <c r="I43" t="n">
-        <v>0.131578947368421</v>
+        <v>3.060484175870275</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1052631578947368</v>
+        <v>2.915503392873977</v>
       </c>
     </row>
     <row r="44">
@@ -1915,31 +1915,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3176563202878993</v>
+        <v>0.2916978700239132</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2462146356883199</v>
+        <v>0.2242887598444029</v>
       </c>
       <c r="D44" t="n">
-        <v>29.02</v>
+        <v>30.05</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07696801516896117</v>
+        <v>0.0690430002798879</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09668890616768747</v>
+        <v>0.08813984001738169</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.2341187556113874</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09669518318043524</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.4083045611503147</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4054054054054054</v>
+        <v>0.3692327619111946</v>
       </c>
     </row>
     <row r="45">
@@ -1949,31 +1949,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.067881241565452</v>
+        <v>2.821675977386614</v>
       </c>
       <c r="C45" t="n">
-        <v>2.383744270586376</v>
+        <v>2.184068353895625</v>
       </c>
       <c r="D45" t="n">
-        <v>28.7</v>
+        <v>29.19</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3392903513596931</v>
+        <v>0.3246408799145311</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4762685392503465</v>
+        <v>0.4338361830999647</v>
       </c>
       <c r="G45" t="n">
-        <v>2.605263157894737</v>
+        <v>2.376171908841204</v>
       </c>
       <c r="H45" t="n">
-        <v>1.526315789473684</v>
+        <v>1.391971982098996</v>
       </c>
       <c r="I45" t="n">
-        <v>3.5</v>
+        <v>3.244700830238328</v>
       </c>
       <c r="J45" t="n">
-        <v>3.27027027027027</v>
+        <v>2.987175174357111</v>
       </c>
     </row>
     <row r="46">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.07736774628879892</v>
+        <v>0.07101292346687334</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06025907486433802</v>
+        <v>0.05530925588668963</v>
       </c>
       <c r="D46" t="n">
         <v>28.39</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01534550713564195</v>
+        <v>0.01421819936784482</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01618053328398605</v>
+        <v>0.01481444419966124</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06710526315789474</v>
+        <v>0.0620714189973384</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04222222222222222</v>
+        <v>0.03864617122445863</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.09595592005120712</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1018421052631579</v>
+        <v>0.09341024594160878</v>
       </c>
     </row>
     <row r="47">
@@ -2017,167 +2017,167 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>15.2034188034188</v>
+        <v>13.95902195019476</v>
       </c>
       <c r="C47" t="n">
-        <v>11.87879985248406</v>
+        <v>10.89392800510936</v>
       </c>
       <c r="D47" t="n">
-        <v>27.99</v>
+        <v>28.14</v>
       </c>
       <c r="E47" t="n">
-        <v>1.350698646642279</v>
+        <v>1.233065424457641</v>
       </c>
       <c r="F47" t="n">
-        <v>1.878785324449034</v>
+        <v>1.715664643115674</v>
       </c>
       <c r="G47" t="n">
-        <v>14.12820512820513</v>
+        <v>12.98229604917854</v>
       </c>
       <c r="H47" t="n">
-        <v>8.888888888888889</v>
+        <v>8.167308224161253</v>
       </c>
       <c r="I47" t="n">
-        <v>17.26315789473684</v>
+        <v>15.79733648895579</v>
       </c>
       <c r="J47" t="n">
-        <v>14.67567567567568</v>
+        <v>13.3953962705383</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_cross_receiver_runs_per_match</t>
+          <t>pass_completion_ratio_to_cross_receiver_runs</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>14.43621232568601</v>
+        <v>12.42227489097752</v>
       </c>
       <c r="C48" t="n">
-        <v>11.29463937621832</v>
+        <v>9.699634972805422</v>
       </c>
       <c r="D48" t="n">
-        <v>27.81</v>
+        <v>28.07</v>
       </c>
       <c r="E48" t="n">
-        <v>1.149989890617579</v>
+        <v>1.271475235725112</v>
       </c>
       <c r="F48" t="n">
-        <v>1.70857722584869</v>
+        <v>1.254066840650695</v>
       </c>
       <c r="G48" t="n">
-        <v>13.56410256410256</v>
+        <v>10.74337424006217</v>
       </c>
       <c r="H48" t="n">
-        <v>8.416666666666666</v>
+        <v>7.761341455647187</v>
       </c>
       <c r="I48" t="n">
-        <v>16.07894736842105</v>
+        <v>14.21905822664698</v>
       </c>
       <c r="J48" t="n">
-        <v>13.76315789473684</v>
+        <v>11.63514572955865</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_cross_receiver_runs</t>
+          <t>count_pass_opportunities_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>13.51233021982516</v>
+        <v>13.2554557219443</v>
       </c>
       <c r="C49" t="n">
-        <v>10.58262159603651</v>
+        <v>10.35924364016477</v>
       </c>
       <c r="D49" t="n">
-        <v>27.68</v>
+        <v>27.96</v>
       </c>
       <c r="E49" t="n">
-        <v>1.31580691070856</v>
+        <v>1.056876127427151</v>
       </c>
       <c r="F49" t="n">
-        <v>1.378561439968277</v>
+        <v>1.563202840560224</v>
       </c>
       <c r="G49" t="n">
-        <v>11.79466464237517</v>
+        <v>12.46548505551882</v>
       </c>
       <c r="H49" t="n">
-        <v>8.515233275496433</v>
+        <v>7.726508415763716</v>
       </c>
       <c r="I49" t="n">
-        <v>15.34609249084249</v>
+        <v>14.71353826930876</v>
       </c>
       <c r="J49" t="n">
-        <v>12.72757499257499</v>
+        <v>12.65254530333113</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>9.573369320737743</v>
+        <v>2.628697866742415</v>
       </c>
       <c r="C50" t="n">
-        <v>7.500318739792424</v>
+        <v>2.054910429706061</v>
       </c>
       <c r="D50" t="n">
-        <v>27.64</v>
+        <v>27.92</v>
       </c>
       <c r="E50" t="n">
-        <v>1.560774961866099</v>
+        <v>0.3433693025674885</v>
       </c>
       <c r="F50" t="n">
-        <v>1.606227140588854</v>
+        <v>0.3969462274082092</v>
       </c>
       <c r="G50" t="n">
-        <v>7</v>
+        <v>2.232610480134952</v>
       </c>
       <c r="H50" t="n">
-        <v>5.315789473684211</v>
+        <v>1.342718525734008</v>
       </c>
       <c r="I50" t="n">
-        <v>10.86842105263158</v>
+        <v>3.167843594605854</v>
       </c>
       <c r="J50" t="n">
-        <v>10.47368421052632</v>
+        <v>2.81724469424247</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_cross_receiver_runs_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.857692307692308</v>
+        <v>8.797423404074525</v>
       </c>
       <c r="C51" t="n">
-        <v>2.242697961119014</v>
+        <v>6.885848342386259</v>
       </c>
       <c r="D51" t="n">
-        <v>27.42</v>
+        <v>27.76</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3575010289109998</v>
+        <v>1.436633524307401</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4354659646874268</v>
+        <v>1.474944850358634</v>
       </c>
       <c r="G51" t="n">
-        <v>2.447368421052631</v>
+        <v>6.421394790839104</v>
       </c>
       <c r="H51" t="n">
-        <v>1.473684210526316</v>
+        <v>4.893266333258193</v>
       </c>
       <c r="I51" t="n">
-        <v>3.416666666666667</v>
+        <v>9.900569816676501</v>
       </c>
       <c r="J51" t="n">
-        <v>3.081081081081081</v>
+        <v>9.621894690944398</v>
       </c>
     </row>
     <row r="52">
@@ -2187,167 +2187,167 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.953396311291048</v>
+        <v>1.793111225728084</v>
       </c>
       <c r="C52" t="n">
-        <v>1.556891101627944</v>
+        <v>1.426032459353403</v>
       </c>
       <c r="D52" t="n">
-        <v>25.47</v>
+        <v>25.74</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1788279331347634</v>
+        <v>0.1546712321242802</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3530426927549327</v>
+        <v>0.3246471875938212</v>
       </c>
       <c r="G52" t="n">
-        <v>1.743589743589744</v>
+        <v>1.603307020353576</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8343600763564409</v>
       </c>
       <c r="I52" t="n">
-        <v>2.236842105263158</v>
+        <v>2.033358625347327</v>
       </c>
       <c r="J52" t="n">
-        <v>2.108108108108108</v>
+        <v>1.946514755679178</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_underlap_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5.201484480431849</v>
+        <v>4.231394293427466</v>
       </c>
       <c r="C53" t="n">
-        <v>4.159541120067436</v>
+        <v>3.379995836444955</v>
       </c>
       <c r="D53" t="n">
-        <v>25.05</v>
+        <v>25.19</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8337720328971673</v>
+        <v>0.3195578820923664</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9924853887465988</v>
+        <v>0.5633449476982911</v>
       </c>
       <c r="G53" t="n">
-        <v>3.717948717948718</v>
+        <v>3.796578487047727</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2.529536850046671</v>
       </c>
       <c r="I53" t="n">
-        <v>5.710526315789473</v>
+        <v>4.604823743675015</v>
       </c>
       <c r="J53" t="n">
-        <v>6.921052631578948</v>
+        <v>4.529331177735634</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_by_teammate_per_match</t>
+          <t>count_opportunities_to_pass_to_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>23.22498875393612</v>
+        <v>4.771598382848934</v>
       </c>
       <c r="C54" t="n">
-        <v>18.57832569411517</v>
+        <v>3.811898489620148</v>
       </c>
       <c r="D54" t="n">
-        <v>25.01</v>
+        <v>25.18</v>
       </c>
       <c r="E54" t="n">
-        <v>2.210104018250926</v>
+        <v>0.7702306756796374</v>
       </c>
       <c r="F54" t="n">
-        <v>3.059379845886013</v>
+        <v>0.9100017138453239</v>
       </c>
       <c r="G54" t="n">
-        <v>20.81578947368421</v>
+        <v>3.40352830585617</v>
       </c>
       <c r="H54" t="n">
-        <v>12.6578947368421</v>
+        <v>2.73633668590045</v>
       </c>
       <c r="I54" t="n">
-        <v>26.60526315789474</v>
+        <v>5.266932776242553</v>
       </c>
       <c r="J54" t="n">
-        <v>23.18918918918919</v>
+        <v>6.343779604101708</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_by_teammate_per_match</t>
+          <t>count_cross_receiver_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5.291138101664417</v>
+        <v>21.32812673658971</v>
       </c>
       <c r="C55" t="n">
-        <v>4.232432432432432</v>
+        <v>17.03898476371906</v>
       </c>
       <c r="D55" t="n">
-        <v>25.01</v>
+        <v>25.17</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8430167793563415</v>
+        <v>2.011218498372401</v>
       </c>
       <c r="F55" t="n">
-        <v>1.019046725802868</v>
+        <v>2.790955738827274</v>
       </c>
       <c r="G55" t="n">
-        <v>3.794871794871795</v>
+        <v>19.18806935127277</v>
       </c>
       <c r="H55" t="n">
-        <v>3.054054054054054</v>
+        <v>11.62415802659215</v>
       </c>
       <c r="I55" t="n">
-        <v>5.815789473684211</v>
+        <v>24.35091758187019</v>
       </c>
       <c r="J55" t="n">
-        <v>7.052631578947368</v>
+        <v>21.16053577553255</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_support_runs_per_match</t>
+          <t>count_underlap_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.608816914080071</v>
+        <v>4.853424638830357</v>
       </c>
       <c r="C56" t="n">
-        <v>3.690327169274538</v>
+        <v>3.878197156005868</v>
       </c>
       <c r="D56" t="n">
-        <v>24.89</v>
+        <v>25.15</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3758410453929934</v>
+        <v>0.7784447163709617</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6143230288805317</v>
+        <v>0.9339190480798512</v>
       </c>
       <c r="G56" t="n">
-        <v>4.105263157894737</v>
+        <v>3.473612511309442</v>
       </c>
       <c r="H56" t="n">
-        <v>2.763157894736842</v>
+        <v>2.785689313547162</v>
       </c>
       <c r="I56" t="n">
-        <v>5.052631578947368</v>
+        <v>5.363320097067308</v>
       </c>
       <c r="J56" t="n">
-        <v>4.947368421052632</v>
+        <v>6.462082448827773</v>
       </c>
     </row>
     <row r="57">
@@ -2357,19 +2357,19 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01608187134502924</v>
+        <v>0.01453440199611724</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02138717665033455</v>
+        <v>0.01941707127223067</v>
       </c>
       <c r="D57" t="n">
-        <v>-24.81</v>
+        <v>-25.15</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01469280061567382</v>
+        <v>0.01328065486759491</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02061356028695087</v>
+        <v>0.01881571512341528</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02502051682379551</v>
       </c>
       <c r="J57" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.04954463233443651</v>
       </c>
     </row>
     <row r="58">
@@ -2391,31 +2391,31 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.509289248762933</v>
+        <v>1.384792046834344</v>
       </c>
       <c r="C58" t="n">
-        <v>1.210075865339024</v>
+        <v>1.106523807472647</v>
       </c>
       <c r="D58" t="n">
-        <v>24.73</v>
+        <v>25.15</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0867516148305683</v>
+        <v>0.08636857070382306</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2851870935715735</v>
+        <v>0.2605662297591052</v>
       </c>
       <c r="G58" t="n">
-        <v>1.394736842105263</v>
+        <v>1.269279578217983</v>
       </c>
       <c r="H58" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.6715789033587697</v>
       </c>
       <c r="I58" t="n">
-        <v>1.638888888888889</v>
+        <v>1.512049146154727</v>
       </c>
       <c r="J58" t="n">
-        <v>1.810810810810811</v>
+        <v>1.651622225122984</v>
       </c>
     </row>
     <row r="59">
@@ -2425,31 +2425,31 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>7.983198380566802</v>
+        <v>7.333590469024445</v>
       </c>
       <c r="C59" t="n">
-        <v>6.420549496865287</v>
+        <v>5.889838942150933</v>
       </c>
       <c r="D59" t="n">
-        <v>24.34</v>
+        <v>24.51</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5965629937409729</v>
+        <v>0.553460573062014</v>
       </c>
       <c r="F59" t="n">
-        <v>1.140978560826124</v>
+        <v>1.043133897105764</v>
       </c>
       <c r="G59" t="n">
-        <v>7.236842105263158</v>
+        <v>6.672193663973262</v>
       </c>
       <c r="H59" t="n">
-        <v>4.263157894736842</v>
+        <v>3.910036077280376</v>
       </c>
       <c r="I59" t="n">
-        <v>8.684210526315789</v>
+        <v>7.963291088083444</v>
       </c>
       <c r="J59" t="n">
-        <v>7.945945945945946</v>
+        <v>7.335735297595624</v>
       </c>
     </row>
     <row r="60">
@@ -2459,31 +2459,31 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.636122357174989</v>
+        <v>1.500884732557371</v>
       </c>
       <c r="C60" t="n">
-        <v>1.316761498340446</v>
+        <v>1.206417262015781</v>
       </c>
       <c r="D60" t="n">
-        <v>24.25</v>
+        <v>24.41</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1154904946436771</v>
+        <v>0.1103761850440798</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3066931120631148</v>
+        <v>0.2818764200585442</v>
       </c>
       <c r="G60" t="n">
-        <v>1.473684210526316</v>
+        <v>1.363856619142759</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.867979585661915</v>
       </c>
       <c r="I60" t="n">
-        <v>1.777777777777778</v>
+        <v>1.648274172163109</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>1.825376282964625</v>
       </c>
     </row>
     <row r="61">
@@ -2493,31 +2493,31 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.420557804768331</v>
+        <v>1.305199128245488</v>
       </c>
       <c r="C61" t="n">
-        <v>1.149056951688531</v>
+        <v>1.052535566619967</v>
       </c>
       <c r="D61" t="n">
-        <v>23.63</v>
+        <v>24.01</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2391864304528956</v>
+        <v>0.2191700660705497</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2879475330226429</v>
+        <v>0.2629700597420104</v>
       </c>
       <c r="G61" t="n">
-        <v>1.205128205128205</v>
+        <v>1.106009791300705</v>
       </c>
       <c r="H61" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6557019247992903</v>
       </c>
       <c r="I61" t="n">
-        <v>1.763157894736842</v>
+        <v>1.611629646858778</v>
       </c>
       <c r="J61" t="n">
-        <v>1.526315789473684</v>
+        <v>1.381205827053593</v>
       </c>
     </row>
     <row r="62">
@@ -2527,303 +2527,303 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>7.608614484930274</v>
+        <v>6.989866360792308</v>
       </c>
       <c r="C62" t="n">
-        <v>6.167246193561984</v>
+        <v>5.658922080954995</v>
       </c>
       <c r="D62" t="n">
-        <v>23.37</v>
+        <v>23.52</v>
       </c>
       <c r="E62" t="n">
-        <v>0.516009954262128</v>
+        <v>0.4834424728924057</v>
       </c>
       <c r="F62" t="n">
-        <v>1.092291498524141</v>
+        <v>1.000254656429471</v>
       </c>
       <c r="G62" t="n">
-        <v>6.973684210526316</v>
+        <v>6.427944518312541</v>
       </c>
       <c r="H62" t="n">
-        <v>4.157894736842105</v>
+        <v>3.813064314098797</v>
       </c>
       <c r="I62" t="n">
-        <v>8.138888888888889</v>
+        <v>7.514972674440603</v>
       </c>
       <c r="J62" t="n">
-        <v>7.810810810810811</v>
+        <v>7.210404546805731</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_pulling_wide_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.03670715249662618</v>
+        <v>13.25377899782831</v>
       </c>
       <c r="C63" t="n">
-        <v>0.04784521363468731</v>
+        <v>10.74017582058111</v>
       </c>
       <c r="D63" t="n">
-        <v>-23.28</v>
+        <v>23.4</v>
       </c>
       <c r="E63" t="n">
-        <v>0.03006525333585536</v>
+        <v>2.060951852352126</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0284887173038604</v>
+        <v>2.21831519358663</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>11.88741214746849</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>7.749324089494515</v>
       </c>
       <c r="I63" t="n">
-        <v>0.07894736842105263</v>
+        <v>16.86114176601271</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1052631578947368</v>
+        <v>14.9309801583626</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_runs_in_behind_per_match</t>
+          <t>pass_opportunities_to_runs_in_behind_threat_per_match</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>14.42449392712551</v>
+        <v>0.7593091324361677</v>
       </c>
       <c r="C64" t="n">
-        <v>11.7118723987145</v>
+        <v>0.6161018831311666</v>
       </c>
       <c r="D64" t="n">
-        <v>23.16</v>
+        <v>23.24</v>
       </c>
       <c r="E64" t="n">
-        <v>2.178671596731435</v>
+        <v>0.09067281147307224</v>
       </c>
       <c r="F64" t="n">
-        <v>2.418527735737539</v>
+        <v>0.107972783258874</v>
       </c>
       <c r="G64" t="n">
-        <v>13.05263157894737</v>
+        <v>0.7019007375184027</v>
       </c>
       <c r="H64" t="n">
-        <v>8.416666666666666</v>
+        <v>0.4763580086421093</v>
       </c>
       <c r="I64" t="n">
-        <v>18.25</v>
+        <v>0.9199985777548684</v>
       </c>
       <c r="J64" t="n">
-        <v>16.32432432432432</v>
+        <v>0.835472413008807</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_in_behind_per_match</t>
+          <t>count_pass_attempts_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>7.646401259559154</v>
+        <v>9.431094624411395</v>
       </c>
       <c r="C65" t="n">
-        <v>6.215170433591485</v>
+        <v>7.662187983858598</v>
       </c>
       <c r="D65" t="n">
-        <v>23.03</v>
+        <v>23.09</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3100471322310959</v>
+        <v>1.544258532533781</v>
       </c>
       <c r="F65" t="n">
-        <v>1.098327549890569</v>
+        <v>1.561644648835518</v>
       </c>
       <c r="G65" t="n">
-        <v>7.447368421052632</v>
+        <v>6.877968246876821</v>
       </c>
       <c r="H65" t="n">
-        <v>4.5</v>
+        <v>5.545077672455115</v>
       </c>
       <c r="I65" t="n">
-        <v>8.184210526315789</v>
+        <v>10.81717092756647</v>
       </c>
       <c r="J65" t="n">
-        <v>8.108108108108109</v>
+        <v>10.55814256018577</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_coming_short_runs_per_match</t>
+          <t>count_completed_pass_to_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>10.26524966261808</v>
+        <v>7.016562263564377</v>
       </c>
       <c r="C66" t="n">
-        <v>8.345682524629893</v>
+        <v>5.700365708380978</v>
       </c>
       <c r="D66" t="n">
-        <v>23</v>
+        <v>23.09</v>
       </c>
       <c r="E66" t="n">
-        <v>1.682897293194192</v>
+        <v>0.2846597873087957</v>
       </c>
       <c r="F66" t="n">
-        <v>1.70073698207629</v>
+        <v>1.017488241566854</v>
       </c>
       <c r="G66" t="n">
-        <v>7.5</v>
+        <v>6.816962142102531</v>
       </c>
       <c r="H66" t="n">
-        <v>6.026315789473684</v>
+        <v>4.121588976254339</v>
       </c>
       <c r="I66" t="n">
-        <v>11.86842105263158</v>
+        <v>7.491383183216092</v>
       </c>
       <c r="J66" t="n">
-        <v>11.5</v>
+        <v>7.481338125563388</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_runs_in_behind_threat_per_match</t>
+          <t>count_opportunities_to_pass_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.8266072874493927</v>
+        <v>8.821887095045611</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6720735472314419</v>
+        <v>7.181112871979821</v>
       </c>
       <c r="D67" t="n">
-        <v>22.99</v>
+        <v>22.85</v>
       </c>
       <c r="E67" t="n">
-        <v>0.09575339694683216</v>
+        <v>0.7114153614092953</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1176046752463231</v>
+        <v>1.624437234709555</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7705263157894737</v>
+        <v>7.949137796234853</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5177777777777778</v>
+        <v>4.880285613588403</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9966666666666667</v>
+        <v>9.51205469642186</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9145945945945947</v>
+        <v>10.3417396516977</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_pulling_half_space_runs_per_match</t>
+          <t>count_pulling_half_space_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>9.619163292847503</v>
+        <v>9.002044964850409</v>
       </c>
       <c r="C68" t="n">
-        <v>7.83187661345556</v>
+        <v>7.332561510145172</v>
       </c>
       <c r="D68" t="n">
-        <v>22.82</v>
+        <v>22.77</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7263006942656403</v>
+        <v>0.7528265325329164</v>
       </c>
       <c r="F68" t="n">
-        <v>1.778811466492586</v>
+        <v>1.636911146000955</v>
       </c>
       <c r="G68" t="n">
-        <v>8.736842105263158</v>
+        <v>8.067207174751797</v>
       </c>
       <c r="H68" t="n">
-        <v>5.315789473684211</v>
+        <v>5.072932730422044</v>
       </c>
       <c r="I68" t="n">
-        <v>10.35897435897436</v>
+        <v>9.676858556035331</v>
       </c>
       <c r="J68" t="n">
-        <v>11.32432432432432</v>
+        <v>10.56087387837882</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_by_teammate_per_match</t>
+          <t>support_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>9.815587044534412</v>
+        <v>0.1028335935842741</v>
       </c>
       <c r="C69" t="n">
-        <v>7.997386860544756</v>
+        <v>0.08391804856716704</v>
       </c>
       <c r="D69" t="n">
-        <v>22.73</v>
+        <v>22.54</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7686267072061506</v>
+        <v>0.01191240805397813</v>
       </c>
       <c r="F69" t="n">
-        <v>1.792893326521891</v>
+        <v>0.01478097959951927</v>
       </c>
       <c r="G69" t="n">
-        <v>8.868421052631579</v>
+        <v>0.08592288074986056</v>
       </c>
       <c r="H69" t="n">
-        <v>5.526315789473684</v>
+        <v>0.06236333523570603</v>
       </c>
       <c r="I69" t="n">
-        <v>10.53846153846154</v>
+        <v>0.1137486045100132</v>
       </c>
       <c r="J69" t="n">
-        <v>11.56756756756757</v>
+        <v>0.1057504138384686</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>support_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1119050832208727</v>
+        <v>0.0338348442941835</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09159103840682788</v>
+        <v>0.0436434378504898</v>
       </c>
       <c r="D70" t="n">
-        <v>22.18</v>
+        <v>-22.47</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01282624476279638</v>
+        <v>0.02791582580777676</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01621816143254323</v>
+        <v>0.02543009569648966</v>
       </c>
       <c r="G70" t="n">
-        <v>0.09358974358974359</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.06833333333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1244736842105263</v>
+        <v>0.07372817543313445</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1155263157894737</v>
+        <v>0.09447979878902452</v>
       </c>
     </row>
     <row r="71">
@@ -2833,31 +2833,31 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1439415204678363</v>
+        <v>0.1322271641155611</v>
       </c>
       <c r="C71" t="n">
-        <v>0.118590432537801</v>
+        <v>0.1086355576305335</v>
       </c>
       <c r="D71" t="n">
-        <v>21.38</v>
+        <v>21.72</v>
       </c>
       <c r="E71" t="n">
-        <v>0.01202933713680964</v>
+        <v>0.01092433534187627</v>
       </c>
       <c r="F71" t="n">
-        <v>0.01816190123388555</v>
+        <v>0.01660006374937864</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1233333333333334</v>
+        <v>0.1133135053542582</v>
       </c>
       <c r="H71" t="n">
-        <v>0.08472222222222221</v>
+        <v>0.07744822525779091</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1528947368421053</v>
+        <v>0.1395859222905921</v>
       </c>
       <c r="J71" t="n">
-        <v>0.1476315789473684</v>
+        <v>0.1353234738982708</v>
       </c>
     </row>
     <row r="72">
@@ -2867,31 +2867,31 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.06211358524516419</v>
+        <v>0.05706129274008045</v>
       </c>
       <c r="C72" t="n">
-        <v>0.05127461672198515</v>
+        <v>0.0470196238065823</v>
       </c>
       <c r="D72" t="n">
-        <v>21.14</v>
+        <v>21.36</v>
       </c>
       <c r="E72" t="n">
-        <v>0.01488623161542043</v>
+        <v>0.01384618110721531</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01052881163748747</v>
+        <v>0.00959840251008059</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04342105263157895</v>
+        <v>0.03979947399744316</v>
       </c>
       <c r="H72" t="n">
-        <v>0.03578947368421053</v>
+        <v>0.03293349328965724</v>
       </c>
       <c r="I72" t="n">
-        <v>0.08194444444444444</v>
+        <v>0.07575683707859519</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0772972972972973</v>
+        <v>0.07064595635889281</v>
       </c>
     </row>
     <row r="73">
@@ -2901,99 +2901,99 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.192272154745839</v>
+        <v>0.1764726916453925</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1590434908592803</v>
+        <v>0.1457576851533093</v>
       </c>
       <c r="D73" t="n">
-        <v>20.89</v>
+        <v>21.07</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01201882314445853</v>
+        <v>0.01169211381000579</v>
       </c>
       <c r="F73" t="n">
-        <v>0.03292239388542174</v>
+        <v>0.0303600631654701</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1805128205128205</v>
+        <v>0.1654399476437851</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1044444444444445</v>
+        <v>0.09608457187601234</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.1955905830608456</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2202702702702703</v>
+        <v>0.2034336589916238</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_in_behind_per_match</t>
+          <t>count_completed_pass_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>29.41178587494377</v>
+        <v>2.996016738607299</v>
       </c>
       <c r="C74" t="n">
-        <v>24.36729360939887</v>
+        <v>2.477476803414239</v>
       </c>
       <c r="D74" t="n">
-        <v>20.7</v>
+        <v>20.93</v>
       </c>
       <c r="E74" t="n">
-        <v>1.723524738263211</v>
+        <v>0.3978594198239486</v>
       </c>
       <c r="F74" t="n">
-        <v>3.712732349952879</v>
+        <v>0.6109363268773513</v>
       </c>
       <c r="G74" t="n">
-        <v>27.57894736842105</v>
+        <v>2.530954188973138</v>
       </c>
       <c r="H74" t="n">
-        <v>18.97368421052632</v>
+        <v>1.58726300230745</v>
       </c>
       <c r="I74" t="n">
-        <v>31.72222222222222</v>
+        <v>3.627272269511354</v>
       </c>
       <c r="J74" t="n">
-        <v>32.24324324324324</v>
+        <v>3.59280772769438</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_runs_in_behind_per_match</t>
+          <t>count_opportunities_to_pass_to_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3.261201079622133</v>
+        <v>27.01939638184125</v>
       </c>
       <c r="C75" t="n">
-        <v>2.70224434961277</v>
+        <v>22.34762159092938</v>
       </c>
       <c r="D75" t="n">
-        <v>20.68</v>
+        <v>20.91</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4157831005008226</v>
+        <v>1.690235812647245</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6652231345535663</v>
+        <v>3.415902326106455</v>
       </c>
       <c r="G75" t="n">
-        <v>2.763157894736842</v>
+        <v>25.12704924233241</v>
       </c>
       <c r="H75" t="n">
-        <v>1.722222222222222</v>
+        <v>17.42175192969318</v>
       </c>
       <c r="I75" t="n">
-        <v>3.916666666666667</v>
+        <v>29.32490404010336</v>
       </c>
       <c r="J75" t="n">
-        <v>3.891891891891892</v>
+        <v>29.44269666111343</v>
       </c>
     </row>
     <row r="76">
@@ -3003,31 +3003,31 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>32.97055780476833</v>
+        <v>30.28973920426278</v>
       </c>
       <c r="C76" t="n">
-        <v>27.33098098098099</v>
+        <v>25.06189079883052</v>
       </c>
       <c r="D76" t="n">
-        <v>20.63</v>
+        <v>20.86</v>
       </c>
       <c r="E76" t="n">
-        <v>1.908954556189987</v>
+        <v>1.873476682375995</v>
       </c>
       <c r="F76" t="n">
-        <v>4.381670542279594</v>
+        <v>4.030250681356507</v>
       </c>
       <c r="G76" t="n">
-        <v>30.94736842105263</v>
+        <v>28.19161703499529</v>
       </c>
       <c r="H76" t="n">
-        <v>21.10526315789474</v>
+        <v>19.38148668310103</v>
       </c>
       <c r="I76" t="n">
-        <v>35.63888888888889</v>
+        <v>32.94370305149702</v>
       </c>
       <c r="J76" t="n">
-        <v>36.37837837837838</v>
+        <v>33.20189105186417</v>
       </c>
     </row>
     <row r="77">
@@ -3037,31 +3037,31 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>14.87784525416104</v>
+        <v>13.6612360287811</v>
       </c>
       <c r="C77" t="n">
-        <v>12.49228965807913</v>
+        <v>11.45856890573449</v>
       </c>
       <c r="D77" t="n">
-        <v>19.1</v>
+        <v>19.22</v>
       </c>
       <c r="E77" t="n">
-        <v>1.561929917913412</v>
+        <v>1.382286028355183</v>
       </c>
       <c r="F77" t="n">
-        <v>1.913969456269027</v>
+        <v>1.774164188289195</v>
       </c>
       <c r="G77" t="n">
-        <v>13.15384615384615</v>
+        <v>12.08473680532425</v>
       </c>
       <c r="H77" t="n">
-        <v>9.368421052631579</v>
+        <v>8.588201074624921</v>
       </c>
       <c r="I77" t="n">
-        <v>16.86842105263158</v>
+        <v>15.45240438270371</v>
       </c>
       <c r="J77" t="n">
-        <v>15.56756756756757</v>
+        <v>14.36280111737453</v>
       </c>
     </row>
     <row r="78">
@@ -3071,31 +3071,31 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>35.01692728684571</v>
+        <v>32.18989238108161</v>
       </c>
       <c r="C78" t="n">
-        <v>29.42874669299494</v>
+        <v>27.00778226497966</v>
       </c>
       <c r="D78" t="n">
-        <v>18.99</v>
+        <v>19.19</v>
       </c>
       <c r="E78" t="n">
-        <v>4.295656249769266</v>
+        <v>4.02224372044413</v>
       </c>
       <c r="F78" t="n">
-        <v>3.638252320316486</v>
+        <v>3.327601889805057</v>
       </c>
       <c r="G78" t="n">
-        <v>28.13861577019472</v>
+        <v>25.8246012943766</v>
       </c>
       <c r="H78" t="n">
-        <v>23.00607865818392</v>
+        <v>21.14834104229756</v>
       </c>
       <c r="I78" t="n">
-        <v>39.96400844525844</v>
+        <v>36.95046483772828</v>
       </c>
       <c r="J78" t="n">
-        <v>36.5280468990469</v>
+        <v>33.4127310101839</v>
       </c>
     </row>
     <row r="79">
@@ -3105,133 +3105,133 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.3108020692757535</v>
+        <v>0.2855189212223725</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2622107897371056</v>
+        <v>0.2401905026979526</v>
       </c>
       <c r="D79" t="n">
-        <v>18.53</v>
+        <v>18.87</v>
       </c>
       <c r="E79" t="n">
-        <v>0.01701722804239239</v>
+        <v>0.01549370939087758</v>
       </c>
       <c r="F79" t="n">
-        <v>0.03290646776749149</v>
+        <v>0.02999461063157183</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2853846153846154</v>
+        <v>0.2620542931767179</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2188888888888889</v>
+        <v>0.2005891699600618</v>
       </c>
       <c r="I79" t="n">
-        <v>0.3286842105263158</v>
+        <v>0.2997688324502037</v>
       </c>
       <c r="J79" t="n">
-        <v>0.3321052631578947</v>
+        <v>0.3043144386629628</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_per_match</t>
+          <t>count_completed_pass_to_pulling_wide_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4.416486729644625</v>
+        <v>0.2248306237521426</v>
       </c>
       <c r="C80" t="n">
-        <v>3.757246720404615</v>
+        <v>0.1901088267517848</v>
       </c>
       <c r="D80" t="n">
-        <v>17.55</v>
+        <v>18.26</v>
       </c>
       <c r="E80" t="n">
-        <v>1.120642332161137</v>
+        <v>0.06242460680935047</v>
       </c>
       <c r="F80" t="n">
-        <v>1.032980530757356</v>
+        <v>0.08084965446946504</v>
       </c>
       <c r="G80" t="n">
-        <v>3.58974358974359</v>
+        <v>0.1446053194504582</v>
       </c>
       <c r="H80" t="n">
-        <v>2.243243243243243</v>
+        <v>0.0721083255012272</v>
       </c>
       <c r="I80" t="n">
-        <v>6.361111111111111</v>
+        <v>0.3067034822481946</v>
       </c>
       <c r="J80" t="n">
-        <v>6.473684210526316</v>
+        <v>0.3368049594352455</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_pulling_wide_runs_threat_per_match</t>
+          <t>count_completed_pass_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.0476455240665767</v>
+        <v>4.06044831197166</v>
       </c>
       <c r="C81" t="n">
-        <v>0.04056988567514883</v>
+        <v>3.446067720438852</v>
       </c>
       <c r="D81" t="n">
-        <v>17.44</v>
+        <v>17.83</v>
       </c>
       <c r="E81" t="n">
-        <v>0.002742109285444177</v>
+        <v>1.042931933496789</v>
       </c>
       <c r="F81" t="n">
-        <v>0.006876540409797701</v>
+        <v>0.9426456466383453</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04473684210526316</v>
+        <v>3.298379398537224</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02864864864864865</v>
+        <v>2.082971697492324</v>
       </c>
       <c r="I81" t="n">
-        <v>0.05131578947368422</v>
+        <v>5.878218294323088</v>
       </c>
       <c r="J81" t="n">
-        <v>0.05131578947368421</v>
+        <v>5.936503129092971</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_wide_runs_leading_to_shot_per_match</t>
+          <t>pass_opportunities_to_pulling_wide_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.2443994601889339</v>
+        <v>0.04378461166333793</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2083346504399136</v>
+        <v>0.03718255607203978</v>
       </c>
       <c r="D82" t="n">
-        <v>17.31</v>
+        <v>17.76</v>
       </c>
       <c r="E82" t="n">
-        <v>0.06847839018709591</v>
+        <v>0.002589654854186412</v>
       </c>
       <c r="F82" t="n">
-        <v>0.08861278172635277</v>
+        <v>0.006240745595078256</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.04117421078162561</v>
       </c>
       <c r="H82" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.02616435791386752</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.04732323189806648</v>
       </c>
       <c r="J82" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.0467313987796875</v>
       </c>
     </row>
     <row r="83">
@@ -3241,65 +3241,65 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.3814347728295097</v>
+        <v>0.3500882260125051</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3273439492123703</v>
+        <v>0.3000062628506236</v>
       </c>
       <c r="D83" t="n">
-        <v>16.52</v>
+        <v>16.69</v>
       </c>
       <c r="E83" t="n">
-        <v>0.03405361193223478</v>
+        <v>0.03043298827722718</v>
       </c>
       <c r="F83" t="n">
-        <v>0.06025705689899381</v>
+        <v>0.05545110354189176</v>
       </c>
       <c r="G83" t="n">
-        <v>0.327948717948718</v>
+        <v>0.3009532110574055</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2313888888888889</v>
+        <v>0.2128165784937952</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4218421052631579</v>
+        <v>0.3838485648429964</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4364864864864865</v>
+        <v>0.4023797788114878</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_overlap_runs_threat_per_match</t>
+          <t>count_completed_pass_to_support_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1320368870895187</v>
+        <v>1.212384235703445</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1136361624782677</v>
+        <v>1.039094452279696</v>
       </c>
       <c r="D84" t="n">
-        <v>16.19</v>
+        <v>16.68</v>
       </c>
       <c r="E84" t="n">
-        <v>0.02497966785353106</v>
+        <v>0.1553885127606563</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0244659462322729</v>
+        <v>0.2723823212296129</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1141025641025641</v>
+        <v>1.102824841098995</v>
       </c>
       <c r="H84" t="n">
-        <v>0.08416666666666667</v>
+        <v>0.7211711252969115</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1755555555555556</v>
+        <v>1.484416167277185</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1744736842105263</v>
+        <v>1.494310552136633</v>
       </c>
     </row>
     <row r="85">
@@ -3309,303 +3309,303 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1.573931623931624</v>
+        <v>1.4481798824113</v>
       </c>
       <c r="C85" t="n">
-        <v>1.355489700226542</v>
+        <v>1.244326231275183</v>
       </c>
       <c r="D85" t="n">
-        <v>16.12</v>
+        <v>16.38</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1800699155003087</v>
+        <v>0.1732035497285688</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3769555412940247</v>
+        <v>0.346293795804876</v>
       </c>
       <c r="G85" t="n">
-        <v>1.315789473684211</v>
+        <v>1.197306353767111</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.7739240034927644</v>
       </c>
       <c r="I85" t="n">
-        <v>1.805555555555556</v>
+        <v>1.667888834766311</v>
       </c>
       <c r="J85" t="n">
-        <v>2.157894736842105</v>
+        <v>1.982147708717819</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_leading_to_shot_per_match</t>
+          <t>pass_opportunities_to_overlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1.317363922627081</v>
+        <v>0.1213025919245322</v>
       </c>
       <c r="C86" t="n">
-        <v>1.135893788525367</v>
+        <v>0.1042379215175842</v>
       </c>
       <c r="D86" t="n">
-        <v>15.98</v>
+        <v>16.37</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1628391992606351</v>
+        <v>0.02324947248822941</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2972449701156931</v>
+        <v>0.022405111522518</v>
       </c>
       <c r="G86" t="n">
-        <v>1.210526315789474</v>
+        <v>0.1048357569703956</v>
       </c>
       <c r="H86" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.07721446527747219</v>
       </c>
       <c r="I86" t="n">
-        <v>1.605263157894737</v>
+        <v>0.1619417104247</v>
       </c>
       <c r="J86" t="n">
-        <v>1.631578947368421</v>
+        <v>0.1601459322925014</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_leading_to_goal_per_match</t>
+          <t>count_pass_attempts_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02690058479532164</v>
+        <v>5.887842165368204</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02323902850218639</v>
+        <v>5.101179536880823</v>
       </c>
       <c r="D87" t="n">
-        <v>15.76</v>
+        <v>15.42</v>
       </c>
       <c r="E87" t="n">
-        <v>0.02706850716031138</v>
+        <v>0.4027016280566265</v>
       </c>
       <c r="F87" t="n">
-        <v>0.02238885482422644</v>
+        <v>1.152172774219028</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>5.398101129891033</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>3.275960459487976</v>
       </c>
       <c r="I87" t="n">
-        <v>0.05555555555555555</v>
+        <v>6.297370330336608</v>
       </c>
       <c r="J87" t="n">
-        <v>0.08108108108108109</v>
+        <v>7.225068352520345</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_runs_in_behind_per_match</t>
+          <t>runs_ahead_of_the_ball_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>6.412955465587045</v>
+        <v>0.1670905235913781</v>
       </c>
       <c r="C88" t="n">
-        <v>5.563363363363362</v>
+        <v>0.1452534686012971</v>
       </c>
       <c r="D88" t="n">
-        <v>15.27</v>
+        <v>15.03</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4450928113515384</v>
+        <v>0.0272648750592925</v>
       </c>
       <c r="F88" t="n">
-        <v>1.254734357206773</v>
+        <v>0.01897512979916615</v>
       </c>
       <c r="G88" t="n">
-        <v>5.871794871794871</v>
+        <v>0.1380282180170083</v>
       </c>
       <c r="H88" t="n">
-        <v>3.555555555555555</v>
+        <v>0.1033273994775726</v>
       </c>
       <c r="I88" t="n">
-        <v>6.921052631578948</v>
+        <v>0.2028142255259943</v>
       </c>
       <c r="J88" t="n">
-        <v>7.837837837837838</v>
+        <v>0.170226382765415</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_coming_short_runs_per_match</t>
+          <t>count_pass_attempts_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>22.40308142150247</v>
+        <v>0.009681080166954164</v>
       </c>
       <c r="C89" t="n">
-        <v>19.51282334966545</v>
+        <v>0.01137675400005241</v>
       </c>
       <c r="D89" t="n">
-        <v>14.81</v>
+        <v>-14.9</v>
       </c>
       <c r="E89" t="n">
-        <v>4.05122337646065</v>
+        <v>0.01326897223169184</v>
       </c>
       <c r="F89" t="n">
-        <v>3.993046303695067</v>
+        <v>0.01260164026529347</v>
       </c>
       <c r="G89" t="n">
-        <v>15.68421052631579</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>13.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>25.81578947368421</v>
+        <v>0.02502051682379551</v>
       </c>
       <c r="J89" t="n">
-        <v>26.81578947368421</v>
+        <v>0.02531645569620253</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_to_which_pass_completed_threat_per_match</t>
+          <t>count_opportunities_to_pass_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1819280251911831</v>
+        <v>20.57561914194189</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1584937832569411</v>
+        <v>17.90964663085183</v>
       </c>
       <c r="D90" t="n">
-        <v>14.79</v>
+        <v>14.89</v>
       </c>
       <c r="E90" t="n">
-        <v>0.02845810086350001</v>
+        <v>3.71458376834921</v>
       </c>
       <c r="F90" t="n">
-        <v>0.02084705540165183</v>
+        <v>3.67781541888291</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1521052631578947</v>
+        <v>14.39340258240894</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1126315789473684</v>
+        <v>12.69283461380332</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2194444444444444</v>
+        <v>23.50655083309772</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1862162162162162</v>
+        <v>24.57319397706416</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_runs_in_behind</t>
+          <t>count_pass_attempts_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>27.93302142728691</v>
+        <v>4.943063421107881</v>
       </c>
       <c r="C91" t="n">
-        <v>24.36797041125375</v>
+        <v>4.306895687834324</v>
       </c>
       <c r="D91" t="n">
-        <v>14.63</v>
+        <v>14.77</v>
       </c>
       <c r="E91" t="n">
-        <v>2.17523841830697</v>
+        <v>1.066414170632582</v>
       </c>
       <c r="F91" t="n">
-        <v>3.258378230293553</v>
+        <v>1.140399635531402</v>
       </c>
       <c r="G91" t="n">
-        <v>25.18277106227106</v>
+        <v>4.141479800519609</v>
       </c>
       <c r="H91" t="n">
-        <v>18.37983342972817</v>
+        <v>2.807299920012503</v>
       </c>
       <c r="I91" t="n">
-        <v>29.8584266435319</v>
+        <v>6.776380649345637</v>
       </c>
       <c r="J91" t="n">
-        <v>29.41149401049401</v>
+        <v>7.358759561837421</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_pulling_wide_runs</t>
+          <t>pass_completion_ratio_to_runs_in_behind</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>29.14651584637435</v>
+        <v>25.65198252265822</v>
       </c>
       <c r="C92" t="n">
-        <v>25.43054688468066</v>
+        <v>22.36325089398123</v>
       </c>
       <c r="D92" t="n">
-        <v>14.61</v>
+        <v>14.71</v>
       </c>
       <c r="E92" t="n">
-        <v>2.744270390371728</v>
+        <v>2.069905230514933</v>
       </c>
       <c r="F92" t="n">
-        <v>3.103301425165101</v>
+        <v>3.014019800806823</v>
       </c>
       <c r="G92" t="n">
-        <v>26.43101012145749</v>
+        <v>22.91367868811232</v>
       </c>
       <c r="H92" t="n">
-        <v>20.38413790838791</v>
+        <v>16.85580608037161</v>
       </c>
       <c r="I92" t="n">
-        <v>32.14888268748795</v>
+        <v>27.54458604528249</v>
       </c>
       <c r="J92" t="n">
-        <v>30.33537796414112</v>
+        <v>27.12690931852445</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_overlap_runs_per_match</t>
+          <t>pass_completion_ratio_to_pulling_wide_runs</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>5.379757085020242</v>
+        <v>26.75044556164211</v>
       </c>
       <c r="C93" t="n">
-        <v>4.694486591855012</v>
+        <v>23.32865074863572</v>
       </c>
       <c r="D93" t="n">
-        <v>14.6</v>
+        <v>14.67</v>
       </c>
       <c r="E93" t="n">
-        <v>1.144000579786169</v>
+        <v>2.458384787477705</v>
       </c>
       <c r="F93" t="n">
-        <v>1.249403110646912</v>
+        <v>2.851537057740152</v>
       </c>
       <c r="G93" t="n">
-        <v>4.512820512820513</v>
+        <v>24.20426288067506</v>
       </c>
       <c r="H93" t="n">
-        <v>3.027027027027027</v>
+        <v>18.74607558104</v>
       </c>
       <c r="I93" t="n">
-        <v>7.333333333333333</v>
+        <v>29.43946092796613</v>
       </c>
       <c r="J93" t="n">
-        <v>8.026315789473685</v>
+        <v>27.90493774367128</v>
       </c>
     </row>
     <row r="94">
@@ -3615,201 +3615,201 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>6.431241565452092</v>
+        <v>5.899123198753109</v>
       </c>
       <c r="C94" t="n">
-        <v>5.639152310204941</v>
+        <v>5.168989684609575</v>
       </c>
       <c r="D94" t="n">
-        <v>14.05</v>
+        <v>14.13</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9669916747730892</v>
+        <v>0.8777507321047103</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8915380209330611</v>
+        <v>0.8166240302667312</v>
       </c>
       <c r="G94" t="n">
-        <v>5.078947368421052</v>
+        <v>4.646304316076898</v>
       </c>
       <c r="H94" t="n">
-        <v>4.222222222222222</v>
+        <v>3.887327069156641</v>
       </c>
       <c r="I94" t="n">
-        <v>7.684210526315789</v>
+        <v>7.004523788488228</v>
       </c>
       <c r="J94" t="n">
-        <v>7.184210526315789</v>
+        <v>6.59361539091334</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.2338056680161943</v>
+        <v>0.02417722260772849</v>
       </c>
       <c r="C95" t="n">
-        <v>0.205732047837311</v>
+        <v>0.02129354236854769</v>
       </c>
       <c r="D95" t="n">
-        <v>13.65</v>
+        <v>13.54</v>
       </c>
       <c r="E95" t="n">
-        <v>0.09679098518065005</v>
+        <v>0.02418067137959735</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09538806045009125</v>
+        <v>0.020375861812752</v>
       </c>
       <c r="G95" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.04939399762792304</v>
       </c>
       <c r="J95" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.07395992148717608</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_dropping_off_runs_per_match</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0108187134502924</v>
+        <v>1.635194822477348</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0125204151519941</v>
+        <v>1.440486758322611</v>
       </c>
       <c r="D96" t="n">
-        <v>-13.59</v>
+        <v>13.52</v>
       </c>
       <c r="E96" t="n">
-        <v>0.01482314836916558</v>
+        <v>0.4216704514186969</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01385933388737947</v>
+        <v>0.3183009817252321</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1.094480548105663</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>0.9402639057475803</v>
       </c>
       <c r="I96" t="n">
-        <v>0.02777777777777778</v>
+        <v>2.208934735662841</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02777777777777778</v>
+        <v>2.073392253367062</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_pulling_wide_runs_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7.560323886639677</v>
+        <v>0.2134497534786503</v>
       </c>
       <c r="C97" t="n">
-        <v>6.68126811021548</v>
+        <v>0.1882951873893342</v>
       </c>
       <c r="D97" t="n">
-        <v>13.16</v>
+        <v>13.36</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9215039207220472</v>
+        <v>0.0890819824426994</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9595392855722839</v>
+        <v>0.08707950357307728</v>
       </c>
       <c r="G97" t="n">
-        <v>6.342105263157895</v>
+        <v>0.07002099470873552</v>
       </c>
       <c r="H97" t="n">
-        <v>5.162162162162162</v>
+        <v>0.0236532248018254</v>
       </c>
       <c r="I97" t="n">
-        <v>8.710526315789474</v>
+        <v>0.3129668097151141</v>
       </c>
       <c r="J97" t="n">
-        <v>8.315789473684211</v>
+        <v>0.3169265770712284</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_support_runs_per_match</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.779937022042285</v>
+        <v>10.45890925913629</v>
       </c>
       <c r="C98" t="n">
-        <v>1.5735050840314</v>
+        <v>9.235035460643852</v>
       </c>
       <c r="D98" t="n">
-        <v>13.12</v>
+        <v>13.25</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4428515639102394</v>
+        <v>1.020960671024524</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3517567566659142</v>
+        <v>1.031340492921435</v>
       </c>
       <c r="G98" t="n">
-        <v>1.210526315789474</v>
+        <v>9.194396135243244</v>
       </c>
       <c r="H98" t="n">
-        <v>1.026315789473684</v>
+        <v>7.018692313671341</v>
       </c>
       <c r="I98" t="n">
-        <v>2.388888888888889</v>
+        <v>11.81100533695854</v>
       </c>
       <c r="J98" t="n">
-        <v>2.289473684210526</v>
+        <v>11.0135798860852</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_per_match</t>
+          <t>count_pass_attempts_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>11.38403058929375</v>
+        <v>6.934070356268501</v>
       </c>
       <c r="C99" t="n">
-        <v>10.06871871871872</v>
+        <v>6.123805368959093</v>
       </c>
       <c r="D99" t="n">
-        <v>13.06</v>
+        <v>13.23</v>
       </c>
       <c r="E99" t="n">
-        <v>1.091563811214016</v>
+        <v>0.8293600886274508</v>
       </c>
       <c r="F99" t="n">
-        <v>1.137221672057764</v>
+        <v>0.879810132445957</v>
       </c>
       <c r="G99" t="n">
-        <v>10.05263157894737</v>
+        <v>5.808429702998742</v>
       </c>
       <c r="H99" t="n">
-        <v>7.631578947368421</v>
+        <v>4.722272985951792</v>
       </c>
       <c r="I99" t="n">
-        <v>12.77777777777778</v>
+        <v>7.936415066207677</v>
       </c>
       <c r="J99" t="n">
-        <v>12</v>
+        <v>7.620774234898173</v>
       </c>
     </row>
     <row r="100">
@@ -3819,31 +3819,31 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>23.66457489878542</v>
+        <v>21.73251121401339</v>
       </c>
       <c r="C100" t="n">
-        <v>20.97032032032032</v>
+        <v>19.24956079633929</v>
       </c>
       <c r="D100" t="n">
-        <v>12.85</v>
+        <v>12.9</v>
       </c>
       <c r="E100" t="n">
-        <v>4.352257414447835</v>
+        <v>3.986871546894115</v>
       </c>
       <c r="F100" t="n">
-        <v>4.552249087382366</v>
+        <v>4.193345881559534</v>
       </c>
       <c r="G100" t="n">
-        <v>16.5</v>
+        <v>15.1443473064935</v>
       </c>
       <c r="H100" t="n">
-        <v>14.71052631578947</v>
+        <v>13.53690008651481</v>
       </c>
       <c r="I100" t="n">
-        <v>27.47368421052632</v>
+        <v>25.02168292246985</v>
       </c>
       <c r="J100" t="n">
-        <v>29.73684210526316</v>
+        <v>27.25388539124603</v>
       </c>
     </row>
     <row r="101">
@@ -3853,31 +3853,31 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>13.3408457040036</v>
+        <v>12.25376011089718</v>
       </c>
       <c r="C101" t="n">
-        <v>11.85018966334756</v>
+        <v>10.86874796549616</v>
       </c>
       <c r="D101" t="n">
-        <v>12.58</v>
+        <v>12.74</v>
       </c>
       <c r="E101" t="n">
-        <v>1.127821860652262</v>
+        <v>1.054505600349783</v>
       </c>
       <c r="F101" t="n">
-        <v>1.263011131010878</v>
+        <v>1.143409670359083</v>
       </c>
       <c r="G101" t="n">
-        <v>11.81578947368421</v>
+        <v>10.79390252816808</v>
       </c>
       <c r="H101" t="n">
-        <v>9.210526315789474</v>
+        <v>8.464724120827297</v>
       </c>
       <c r="I101" t="n">
-        <v>14.61111111111111</v>
+        <v>13.49589194221427</v>
       </c>
       <c r="J101" t="n">
-        <v>13.86842105263158</v>
+        <v>12.7345288994032</v>
       </c>
     </row>
     <row r="102">
@@ -3887,31 +3887,31 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>7.829352226720649</v>
+        <v>7.190488044706361</v>
       </c>
       <c r="C102" t="n">
-        <v>6.957786734102524</v>
+        <v>6.377980956418208</v>
       </c>
       <c r="D102" t="n">
-        <v>12.53</v>
+        <v>12.74</v>
       </c>
       <c r="E102" t="n">
-        <v>1.385033357781808</v>
+        <v>1.319488526998044</v>
       </c>
       <c r="F102" t="n">
-        <v>0.892763289288118</v>
+        <v>0.8101757591287161</v>
       </c>
       <c r="G102" t="n">
-        <v>6.342105263157895</v>
+        <v>5.801985327432891</v>
       </c>
       <c r="H102" t="n">
-        <v>5.027777777777778</v>
+        <v>4.619587118643533</v>
       </c>
       <c r="I102" t="n">
-        <v>9.416666666666666</v>
+        <v>8.708573581741598</v>
       </c>
       <c r="J102" t="n">
-        <v>8.105263157894736</v>
+        <v>7.368693937172718</v>
       </c>
     </row>
     <row r="103">
@@ -3921,31 +3921,31 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>16.1678587494377</v>
+        <v>14.85361220058566</v>
       </c>
       <c r="C103" t="n">
-        <v>14.44418629155471</v>
+        <v>13.24661362716271</v>
       </c>
       <c r="D103" t="n">
-        <v>11.93</v>
+        <v>12.13</v>
       </c>
       <c r="E103" t="n">
-        <v>2.044350025485508</v>
+        <v>1.946388008629608</v>
       </c>
       <c r="F103" t="n">
-        <v>1.689443626360494</v>
+        <v>1.530590361590451</v>
       </c>
       <c r="G103" t="n">
-        <v>13.57894736842105</v>
+        <v>12.43951880444235</v>
       </c>
       <c r="H103" t="n">
-        <v>11.44736842105263</v>
+        <v>10.52103123243766</v>
       </c>
       <c r="I103" t="n">
-        <v>18.47222222222222</v>
+        <v>17.04561242337827</v>
       </c>
       <c r="J103" t="n">
-        <v>17.08108108108108</v>
+        <v>15.77585401066057</v>
       </c>
     </row>
     <row r="104">
@@ -3955,65 +3955,65 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.003497525865946918</v>
+        <v>0.003195084645801378</v>
       </c>
       <c r="C104" t="n">
-        <v>0.003138691322901849</v>
+        <v>0.002860072667841498</v>
       </c>
       <c r="D104" t="n">
-        <v>11.43</v>
+        <v>11.71</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0009059289076320459</v>
+        <v>0.0008339441364273298</v>
       </c>
       <c r="F104" t="n">
-        <v>0.001256042178309794</v>
+        <v>0.001146048987042814</v>
       </c>
       <c r="G104" t="n">
-        <v>0.002368421052631579</v>
+        <v>0.002151874678302669</v>
       </c>
       <c r="H104" t="n">
-        <v>0.001351351351351351</v>
+        <v>0.001238276665069131</v>
       </c>
       <c r="I104" t="n">
-        <v>0.004444444444444444</v>
+        <v>0.004078976232215055</v>
       </c>
       <c r="J104" t="n">
-        <v>0.006052631578947369</v>
+        <v>0.005535423534441676</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_dropping_off_runs_threat_per_match</t>
+          <t>pass_opportunities_to_runs_ahead_of_the_ball_threat_per_match</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.009271030139451191</v>
+        <v>0.5182258886081456</v>
       </c>
       <c r="C105" t="n">
-        <v>0.00832564143090459</v>
+        <v>0.4652308777165046</v>
       </c>
       <c r="D105" t="n">
-        <v>11.36</v>
+        <v>11.39</v>
       </c>
       <c r="E105" t="n">
-        <v>0.002757583524986001</v>
+        <v>0.07779342658345298</v>
       </c>
       <c r="F105" t="n">
-        <v>0.002173622692101919</v>
+        <v>0.0481339471773567</v>
       </c>
       <c r="G105" t="n">
-        <v>0.004736842105263157</v>
+        <v>0.4144959692322691</v>
       </c>
       <c r="H105" t="n">
-        <v>0.005135135135135136</v>
+        <v>0.3927651550261618</v>
       </c>
       <c r="I105" t="n">
-        <v>0.01138888888888889</v>
+        <v>0.5983001794566141</v>
       </c>
       <c r="J105" t="n">
-        <v>0.01194444444444445</v>
+        <v>0.5297333748871927</v>
       </c>
     </row>
     <row r="106">
@@ -4023,65 +4023,65 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.02152181736392263</v>
+        <v>0.01974638291031754</v>
       </c>
       <c r="C106" t="n">
-        <v>0.01934405458089668</v>
+        <v>0.01773340344221607</v>
       </c>
       <c r="D106" t="n">
-        <v>11.26</v>
+        <v>11.35</v>
       </c>
       <c r="E106" t="n">
-        <v>0.002913477985997871</v>
+        <v>0.002711147726815079</v>
       </c>
       <c r="F106" t="n">
-        <v>0.004179754759237702</v>
+        <v>0.003805670763340242</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01641025641025641</v>
+        <v>0.01499825703596083</v>
       </c>
       <c r="H106" t="n">
-        <v>0.01166666666666667</v>
+        <v>0.01079054525614751</v>
       </c>
       <c r="I106" t="n">
-        <v>0.02368421052631579</v>
+        <v>0.02177988386132562</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02408301534315908</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_runs_ahead_of_the_ball_threat_per_match</t>
+          <t>pass_opportunities_to_dropping_off_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.563968286099865</v>
+        <v>0.008474428004029665</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5073962120014752</v>
+        <v>0.007615893009322492</v>
       </c>
       <c r="D107" t="n">
-        <v>11.15</v>
+        <v>11.27</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0817139415206431</v>
+        <v>0.002530630182860454</v>
       </c>
       <c r="F107" t="n">
-        <v>0.05323056349250572</v>
+        <v>0.001986994142927686</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4526315789473684</v>
+        <v>0.00431550981765555</v>
       </c>
       <c r="H107" t="n">
-        <v>0.4275</v>
+        <v>0.004698522204689481</v>
       </c>
       <c r="I107" t="n">
-        <v>0.648157894736842</v>
+        <v>0.01043978547534069</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5826315789473684</v>
+        <v>0.01099336323057885</v>
       </c>
     </row>
     <row r="108">
@@ -4091,31 +4091,31 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4.674741340530813</v>
+        <v>4.290887939932896</v>
       </c>
       <c r="C108" t="n">
-        <v>4.227667140825035</v>
+        <v>3.878061660020994</v>
       </c>
       <c r="D108" t="n">
-        <v>10.57</v>
+        <v>10.65</v>
       </c>
       <c r="E108" t="n">
-        <v>1.419872159853307</v>
+        <v>1.292234304802079</v>
       </c>
       <c r="F108" t="n">
-        <v>0.818052901812237</v>
+        <v>0.7592393656257718</v>
       </c>
       <c r="G108" t="n">
-        <v>3.184210526315789</v>
+        <v>2.936404422490037</v>
       </c>
       <c r="H108" t="n">
-        <v>3.108108108108108</v>
+        <v>2.830564389360021</v>
       </c>
       <c r="I108" t="n">
-        <v>6.410256410256411</v>
+        <v>5.877591262229148</v>
       </c>
       <c r="J108" t="n">
-        <v>5.315789473684211</v>
+        <v>4.880640456018018</v>
       </c>
     </row>
     <row r="109">
@@ -4125,31 +4125,31 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>14.70994152046784</v>
+        <v>13.49814251350317</v>
       </c>
       <c r="C109" t="n">
-        <v>13.33948158685001</v>
+        <v>12.22872418729508</v>
       </c>
       <c r="D109" t="n">
-        <v>10.27</v>
+        <v>10.38</v>
       </c>
       <c r="E109" t="n">
-        <v>1.987776632823529</v>
+        <v>1.797851417937315</v>
       </c>
       <c r="F109" t="n">
-        <v>1.925575656302747</v>
+        <v>1.759824089971488</v>
       </c>
       <c r="G109" t="n">
-        <v>12.05263157894737</v>
+        <v>11.05455522660214</v>
       </c>
       <c r="H109" t="n">
-        <v>10.10810810810811</v>
+        <v>9.235557025370316</v>
       </c>
       <c r="I109" t="n">
-        <v>17</v>
+        <v>15.59551063001421</v>
       </c>
       <c r="J109" t="n">
-        <v>16.31578947368421</v>
+        <v>14.92838027109784</v>
       </c>
     </row>
     <row r="110">
@@ -4159,31 +4159,31 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>15.2465811965812</v>
+        <v>13.98847510130309</v>
       </c>
       <c r="C110" t="n">
-        <v>13.83202676360571</v>
+        <v>12.67908226492364</v>
       </c>
       <c r="D110" t="n">
-        <v>10.23</v>
+        <v>10.33</v>
       </c>
       <c r="E110" t="n">
-        <v>2.182996775150241</v>
+        <v>1.976308976179894</v>
       </c>
       <c r="F110" t="n">
-        <v>2.029025886627097</v>
+        <v>1.855034640688929</v>
       </c>
       <c r="G110" t="n">
-        <v>12.3421052631579</v>
+        <v>11.31641960792581</v>
       </c>
       <c r="H110" t="n">
-        <v>10.35135135135135</v>
+        <v>9.457579580919596</v>
       </c>
       <c r="I110" t="n">
-        <v>17.87179487179487</v>
+        <v>16.39023525875412</v>
       </c>
       <c r="J110" t="n">
-        <v>17.10526315789474</v>
+        <v>15.65534395366479</v>
       </c>
     </row>
     <row r="111">
@@ -4193,31 +4193,31 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.0158229869545659</v>
+        <v>0.01451915684829115</v>
       </c>
       <c r="C111" t="n">
-        <v>0.01439871450397766</v>
+        <v>0.0131961398596008</v>
       </c>
       <c r="D111" t="n">
-        <v>9.890000000000001</v>
+        <v>10.03</v>
       </c>
       <c r="E111" t="n">
-        <v>0.003634274634028774</v>
+        <v>0.003349914207949674</v>
       </c>
       <c r="F111" t="n">
-        <v>0.003665137643569859</v>
+        <v>0.003336051219863443</v>
       </c>
       <c r="G111" t="n">
-        <v>0.009743589743589744</v>
+        <v>0.008936194117478695</v>
       </c>
       <c r="H111" t="n">
-        <v>0.008055555555555555</v>
+        <v>0.007469708313129759</v>
       </c>
       <c r="I111" t="n">
-        <v>0.01894736842105263</v>
+        <v>0.01743117566292117</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02078947368421053</v>
+        <v>0.01908949696424333</v>
       </c>
     </row>
     <row r="112">
@@ -4227,133 +4227,133 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.2490350877192982</v>
+        <v>0.2287488888078291</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2269037721932459</v>
+        <v>0.207925360006829</v>
       </c>
       <c r="D112" t="n">
-        <v>9.75</v>
+        <v>10.01</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0385512593812042</v>
+        <v>0.0369456136929845</v>
       </c>
       <c r="F112" t="n">
-        <v>0.02556717823966022</v>
+        <v>0.02328394930985778</v>
       </c>
       <c r="G112" t="n">
-        <v>0.2128947368421052</v>
+        <v>0.1948771158537967</v>
       </c>
       <c r="H112" t="n">
-        <v>0.1678947368421053</v>
+        <v>0.1539989712093035</v>
       </c>
       <c r="I112" t="n">
-        <v>0.2955263157894737</v>
+        <v>0.273039705846529</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2542105263157895</v>
+        <v>0.2309885015828655</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_dropping_off_runs</t>
+          <t>count_pass_attempts_to_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>22.3671020402824</v>
+        <v>4.44749804412473</v>
       </c>
       <c r="C113" t="n">
-        <v>20.39061242685365</v>
+        <v>4.053070815457162</v>
       </c>
       <c r="D113" t="n">
-        <v>9.69</v>
+        <v>9.73</v>
       </c>
       <c r="E113" t="n">
-        <v>4.564967753758394</v>
+        <v>1.32206653894713</v>
       </c>
       <c r="F113" t="n">
-        <v>3.732241195405032</v>
+        <v>0.7658779034633347</v>
       </c>
       <c r="G113" t="n">
-        <v>16.67264607322502</v>
+        <v>3.058240880015545</v>
       </c>
       <c r="H113" t="n">
-        <v>14.43947079236553</v>
+        <v>2.903009139398017</v>
       </c>
       <c r="I113" t="n">
-        <v>27.10007175730253</v>
+        <v>6.066233187676497</v>
       </c>
       <c r="J113" t="n">
-        <v>24.11372411372411</v>
+        <v>5.015184442000698</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dropping_off_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4.84412955465587</v>
+        <v>2.025126272508674</v>
       </c>
       <c r="C114" t="n">
-        <v>4.418555397502766</v>
+        <v>1.84593866150964</v>
       </c>
       <c r="D114" t="n">
-        <v>9.630000000000001</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>1.452959107141194</v>
+        <v>0.3809195911624794</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8245306606477651</v>
+        <v>0.3179529629486526</v>
       </c>
       <c r="G114" t="n">
-        <v>3.315789473684211</v>
+        <v>1.567390102197457</v>
       </c>
       <c r="H114" t="n">
-        <v>3.189189189189189</v>
+        <v>1.235135137895403</v>
       </c>
       <c r="I114" t="n">
-        <v>6.615384615384615</v>
+        <v>2.518642675461245</v>
       </c>
       <c r="J114" t="n">
-        <v>5.447368421052632</v>
+        <v>2.178032748101367</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>pass_completion_ratio_to_dropping_off_runs</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2.208007197480882</v>
+        <v>20.51642903537849</v>
       </c>
       <c r="C115" t="n">
-        <v>2.01409304040883</v>
+        <v>18.70820507335648</v>
       </c>
       <c r="D115" t="n">
-        <v>9.630000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3952527793618303</v>
+        <v>4.14046761603653</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3497335397250362</v>
+        <v>3.451468275889616</v>
       </c>
       <c r="G115" t="n">
-        <v>1.736842105263158</v>
+        <v>15.32745410012505</v>
       </c>
       <c r="H115" t="n">
-        <v>1.342105263157895</v>
+        <v>13.26055806614595</v>
       </c>
       <c r="I115" t="n">
-        <v>2.722222222222222</v>
+        <v>24.82447461804817</v>
       </c>
       <c r="J115" t="n">
-        <v>2.378378378378379</v>
+        <v>22.09038942468626</v>
       </c>
     </row>
     <row r="116">
@@ -4363,31 +4363,31 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>21.06659951032623</v>
+        <v>19.35627908702782</v>
       </c>
       <c r="C116" t="n">
-        <v>19.24311548100101</v>
+        <v>17.66774088746812</v>
       </c>
       <c r="D116" t="n">
-        <v>9.48</v>
+        <v>9.56</v>
       </c>
       <c r="E116" t="n">
-        <v>3.131434599728571</v>
+        <v>2.907654127634045</v>
       </c>
       <c r="F116" t="n">
-        <v>3.700214845535324</v>
+        <v>3.369747288460793</v>
       </c>
       <c r="G116" t="n">
-        <v>18.2156295200526</v>
+        <v>16.77250695747093</v>
       </c>
       <c r="H116" t="n">
-        <v>13.5685104985105</v>
+        <v>12.61822135207865</v>
       </c>
       <c r="I116" t="n">
-        <v>26.3862908017908</v>
+        <v>24.33734793090714</v>
       </c>
       <c r="J116" t="n">
-        <v>27.32656631964527</v>
+        <v>25.07656350475248</v>
       </c>
     </row>
     <row r="117">
@@ -4397,31 +4397,31 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.003014844804318489</v>
+        <v>0.002757234475521053</v>
       </c>
       <c r="C117" t="n">
-        <v>0.002763500342447711</v>
+        <v>0.002517963436371748</v>
       </c>
       <c r="D117" t="n">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0006684318286035015</v>
+        <v>0.0006181356154438607</v>
       </c>
       <c r="F117" t="n">
-        <v>0.001014422238303509</v>
+        <v>0.0009238637409219356</v>
       </c>
       <c r="G117" t="n">
-        <v>0.002105263157894737</v>
+        <v>0.001906187847116821</v>
       </c>
       <c r="H117" t="n">
-        <v>0.001351351351351351</v>
+        <v>0.001238276665069131</v>
       </c>
       <c r="I117" t="n">
-        <v>0.003846153846153846</v>
+        <v>0.003514983885760777</v>
       </c>
       <c r="J117" t="n">
-        <v>0.005</v>
+        <v>0.00456410122478921</v>
       </c>
     </row>
     <row r="118">
@@ -4431,31 +4431,31 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>44.75859199280252</v>
+        <v>41.13612501464005</v>
       </c>
       <c r="C118" t="n">
-        <v>41.24605131447236</v>
+        <v>37.82962195443426</v>
       </c>
       <c r="D118" t="n">
-        <v>8.52</v>
+        <v>8.74</v>
       </c>
       <c r="E118" t="n">
-        <v>4.901137488477305</v>
+        <v>4.64628024538866</v>
       </c>
       <c r="F118" t="n">
-        <v>4.295405704105915</v>
+        <v>3.881241380999088</v>
       </c>
       <c r="G118" t="n">
-        <v>36.73684210526316</v>
+        <v>33.66520458365429</v>
       </c>
       <c r="H118" t="n">
-        <v>32.60526315789474</v>
+        <v>29.98471668092848</v>
       </c>
       <c r="I118" t="n">
-        <v>48.94736842105263</v>
+        <v>45.16159175183019</v>
       </c>
       <c r="J118" t="n">
-        <v>48.16216216216216</v>
+        <v>44.40005684002753</v>
       </c>
     </row>
     <row r="119">
@@ -4465,31 +4465,31 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>26.61612685560054</v>
+        <v>24.44029977167445</v>
       </c>
       <c r="C119" t="n">
-        <v>24.64502397133976</v>
+        <v>22.59536258124399</v>
       </c>
       <c r="D119" t="n">
-        <v>8</v>
+        <v>8.17</v>
       </c>
       <c r="E119" t="n">
-        <v>2.232327475689917</v>
+        <v>2.105739659125986</v>
       </c>
       <c r="F119" t="n">
-        <v>2.386381825701311</v>
+        <v>2.157110805570919</v>
       </c>
       <c r="G119" t="n">
-        <v>23.07894736842105</v>
+        <v>21.0980801288261</v>
       </c>
       <c r="H119" t="n">
-        <v>19.28947368421053</v>
+        <v>17.70613613013054</v>
       </c>
       <c r="I119" t="n">
-        <v>28.41666666666667</v>
+        <v>26.25155559159163</v>
       </c>
       <c r="J119" t="n">
-        <v>28.23684210526316</v>
+        <v>25.89783713140779</v>
       </c>
     </row>
     <row r="120">
@@ -4499,31 +4499,31 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>9.551799370220422</v>
+        <v>8.776833328060722</v>
       </c>
       <c r="C120" t="n">
-        <v>8.8937200358253</v>
+        <v>8.15679794657391</v>
       </c>
       <c r="D120" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="E120" t="n">
-        <v>1.764284661732445</v>
+        <v>1.649628815061807</v>
       </c>
       <c r="F120" t="n">
-        <v>2.021747467552773</v>
+        <v>1.846557322168033</v>
       </c>
       <c r="G120" t="n">
-        <v>8.102564102564102</v>
+        <v>7.437830571648933</v>
       </c>
       <c r="H120" t="n">
-        <v>6.657894736842105</v>
+        <v>6.120223357479633</v>
       </c>
       <c r="I120" t="n">
-        <v>12.47222222222222</v>
+        <v>11.53360444890847</v>
       </c>
       <c r="J120" t="n">
-        <v>13.78947368421053</v>
+        <v>12.65057687096432</v>
       </c>
     </row>
     <row r="121">
@@ -4533,31 +4533,31 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>20.98040935672515</v>
+        <v>19.27242142150217</v>
       </c>
       <c r="C121" t="n">
-        <v>19.57783573046731</v>
+        <v>17.95574378776539</v>
       </c>
       <c r="D121" t="n">
-        <v>7.16</v>
+        <v>7.33</v>
       </c>
       <c r="E121" t="n">
-        <v>2.443250516368672</v>
+        <v>2.344270197109043</v>
       </c>
       <c r="F121" t="n">
-        <v>1.969756512836217</v>
+        <v>1.790544518410917</v>
       </c>
       <c r="G121" t="n">
-        <v>17.63157894736842</v>
+        <v>16.12642812262207</v>
       </c>
       <c r="H121" t="n">
-        <v>15.81578947368421</v>
+        <v>14.55073437648477</v>
       </c>
       <c r="I121" t="n">
-        <v>23.31578947368421</v>
+        <v>21.52801843409661</v>
       </c>
       <c r="J121" t="n">
-        <v>23.54054054054054</v>
+        <v>21.72918930889567</v>
       </c>
     </row>
     <row r="122">
@@ -4567,31 +4567,31 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>9.429667116509222</v>
+        <v>8.663906114277674</v>
       </c>
       <c r="C122" t="n">
-        <v>8.813771666403246</v>
+        <v>8.08373302874541</v>
       </c>
       <c r="D122" t="n">
-        <v>6.99</v>
+        <v>7.18</v>
       </c>
       <c r="E122" t="n">
-        <v>1.75060535790859</v>
+        <v>1.635817335779727</v>
       </c>
       <c r="F122" t="n">
-        <v>1.997117457544471</v>
+        <v>1.824134781909982</v>
       </c>
       <c r="G122" t="n">
-        <v>7.974358974358974</v>
+        <v>7.319174854348962</v>
       </c>
       <c r="H122" t="n">
-        <v>6.657894736842105</v>
+        <v>6.120223357479633</v>
       </c>
       <c r="I122" t="n">
-        <v>12.30555555555556</v>
+        <v>11.37786937420016</v>
       </c>
       <c r="J122" t="n">
-        <v>13.68421052631579</v>
+        <v>12.55410109616856</v>
       </c>
     </row>
     <row r="123">
@@ -4601,31 +4601,31 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>30.09493927125506</v>
+        <v>27.62915079479132</v>
       </c>
       <c r="C123" t="n">
-        <v>28.22523839629103</v>
+        <v>25.87666532914726</v>
       </c>
       <c r="D123" t="n">
-        <v>6.62</v>
+        <v>6.77</v>
       </c>
       <c r="E123" t="n">
-        <v>2.405980958921231</v>
+        <v>2.261809063157282</v>
       </c>
       <c r="F123" t="n">
-        <v>2.917504189905507</v>
+        <v>2.64204028444854</v>
       </c>
       <c r="G123" t="n">
-        <v>26.5</v>
+        <v>24.21587152018451</v>
       </c>
       <c r="H123" t="n">
-        <v>21.73684210526316</v>
+        <v>19.945980560217</v>
       </c>
       <c r="I123" t="n">
-        <v>32.13157894736842</v>
+        <v>29.48771481469299</v>
       </c>
       <c r="J123" t="n">
-        <v>32.47368421052632</v>
+        <v>29.78753707870773</v>
       </c>
     </row>
     <row r="124">
@@ -4635,99 +4635,99 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>51.65933423301844</v>
+        <v>47.47375390967878</v>
       </c>
       <c r="C124" t="n">
-        <v>48.63145250513671</v>
+        <v>44.59774309518704</v>
       </c>
       <c r="D124" t="n">
-        <v>6.23</v>
+        <v>6.45</v>
       </c>
       <c r="E124" t="n">
-        <v>6.33091305925468</v>
+        <v>5.979584223994062</v>
       </c>
       <c r="F124" t="n">
-        <v>5.169659866026564</v>
+        <v>4.677575971126543</v>
       </c>
       <c r="G124" t="n">
-        <v>41.23684210526316</v>
+        <v>37.75875808284119</v>
       </c>
       <c r="H124" t="n">
-        <v>38.71052631578947</v>
+        <v>35.59108605877091</v>
       </c>
       <c r="I124" t="n">
-        <v>57.73684210526316</v>
+        <v>53.28056661065789</v>
       </c>
       <c r="J124" t="n">
-        <v>57.35135135135135</v>
+        <v>52.89094476411368</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_support_runs</t>
+          <t>count_pass_attempts_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>41.09307466469278</v>
+        <v>0.02424292941557912</v>
       </c>
       <c r="C125" t="n">
-        <v>38.75726413642597</v>
+        <v>0.02280253096359526</v>
       </c>
       <c r="D125" t="n">
-        <v>6.03</v>
+        <v>6.32</v>
       </c>
       <c r="E125" t="n">
-        <v>3.09671251854395</v>
+        <v>0.03446814003077334</v>
       </c>
       <c r="F125" t="n">
-        <v>3.678011304910231</v>
+        <v>0.01910803549083634</v>
       </c>
       <c r="G125" t="n">
-        <v>37.36321647650595</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>30.1675356660883</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>43.89650633981403</v>
+        <v>0.07372817543313445</v>
       </c>
       <c r="J125" t="n">
-        <v>43.00245307762412</v>
+        <v>0.0487455279654139</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_pulling_wide_runs_per_match</t>
+          <t>pass_completion_ratio_to_support_runs</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.02631578947368421</v>
+        <v>37.75007076503225</v>
       </c>
       <c r="C126" t="n">
-        <v>0.02489594858015911</v>
+        <v>35.56513199931435</v>
       </c>
       <c r="D126" t="n">
-        <v>5.7</v>
+        <v>6.14</v>
       </c>
       <c r="E126" t="n">
-        <v>0.03721614637823934</v>
+        <v>2.799770943935917</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0211845518022079</v>
+        <v>3.354920059605531</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>34.49745336078298</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>27.72821480149595</v>
       </c>
       <c r="I126" t="n">
-        <v>0.07894736842105263</v>
+        <v>40.27853310506857</v>
       </c>
       <c r="J126" t="n">
-        <v>0.05405405405405406</v>
+        <v>39.53652031367247</v>
       </c>
     </row>
     <row r="127">
@@ -4737,99 +4737,99 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>9.88106162843005</v>
+        <v>9.068499284389691</v>
       </c>
       <c r="C127" t="n">
-        <v>9.491322901849218</v>
+        <v>8.704671582575193</v>
       </c>
       <c r="D127" t="n">
-        <v>4.11</v>
+        <v>4.18</v>
       </c>
       <c r="E127" t="n">
-        <v>2.345554224193174</v>
+        <v>2.139917149860294</v>
       </c>
       <c r="F127" t="n">
-        <v>1.611026804134943</v>
+        <v>1.486287966034636</v>
       </c>
       <c r="G127" t="n">
-        <v>7.578947368421052</v>
+        <v>6.951381484296683</v>
       </c>
       <c r="H127" t="n">
-        <v>7.081081081081081</v>
+        <v>6.458543958099581</v>
       </c>
       <c r="I127" t="n">
-        <v>13.15384615384615</v>
+        <v>12.05452648434572</v>
       </c>
       <c r="J127" t="n">
-        <v>12.07894736842105</v>
+        <v>11.10132428583323</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_leading_to_shot_per_match</t>
+          <t>count_pass_attempts_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.5054430949167791</v>
+        <v>2.843559568464182</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5251251251251251</v>
+        <v>2.74561188762616</v>
       </c>
       <c r="D128" t="n">
-        <v>-3.75</v>
+        <v>3.57</v>
       </c>
       <c r="E128" t="n">
-        <v>0.1826648412096884</v>
+        <v>0.5631781087893639</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1745288254484178</v>
+        <v>0.42290835689475</v>
       </c>
       <c r="G128" t="n">
-        <v>0.3421052631578947</v>
+        <v>2.331723270592501</v>
       </c>
       <c r="H128" t="n">
-        <v>0.3157894736842105</v>
+        <v>1.92958372272848</v>
       </c>
       <c r="I128" t="n">
-        <v>0.7222222222222222</v>
+        <v>3.571124764926369</v>
       </c>
       <c r="J128" t="n">
-        <v>0.8421052631578947</v>
+        <v>3.279387582246465</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>count_completed_pass_to_overlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>3.100022492127755</v>
+        <v>0.4630520120463925</v>
       </c>
       <c r="C129" t="n">
-        <v>2.997194562984037</v>
+        <v>0.4798557632528493</v>
       </c>
       <c r="D129" t="n">
-        <v>3.43</v>
+        <v>-3.5</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5882014245042132</v>
+        <v>0.1676029686824835</v>
       </c>
       <c r="F129" t="n">
-        <v>0.4632915174655703</v>
+        <v>0.1589784342330088</v>
       </c>
       <c r="G129" t="n">
-        <v>2.578947368421053</v>
+        <v>0.3132898371049146</v>
       </c>
       <c r="H129" t="n">
-        <v>2.105263157894737</v>
+        <v>0.2935769611453536</v>
       </c>
       <c r="I129" t="n">
-        <v>3.861111111111111</v>
+        <v>0.6662260151454031</v>
       </c>
       <c r="J129" t="n">
-        <v>3.578947368421053</v>
+        <v>0.7598548979276023</v>
       </c>
     </row>
     <row r="130">
@@ -4839,31 +4839,31 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>48.5398077651356</v>
+        <v>44.60053047657481</v>
       </c>
       <c r="C130" t="n">
-        <v>46.96299702581194</v>
+        <v>43.09554964390909</v>
       </c>
       <c r="D130" t="n">
-        <v>3.36</v>
+        <v>3.49</v>
       </c>
       <c r="E130" t="n">
-        <v>3.3180515644607</v>
+        <v>3.201528892378583</v>
       </c>
       <c r="F130" t="n">
-        <v>3.194156739981737</v>
+        <v>2.872827057648991</v>
       </c>
       <c r="G130" t="n">
-        <v>44.34674021592443</v>
+        <v>40.67829969573478</v>
       </c>
       <c r="H130" t="n">
-        <v>39.90688172353962</v>
+        <v>36.71885982925163</v>
       </c>
       <c r="I130" t="n">
-        <v>53.26565440577941</v>
+        <v>49.20837952916901</v>
       </c>
       <c r="J130" t="n">
-        <v>51.75274026086526</v>
+        <v>47.75535960472872</v>
       </c>
     </row>
     <row r="131">
@@ -4873,31 +4873,31 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>10.22582096266307</v>
+        <v>9.384015821923583</v>
       </c>
       <c r="C131" t="n">
-        <v>10.02679258205574</v>
+        <v>9.196496037837038</v>
       </c>
       <c r="D131" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="E131" t="n">
-        <v>2.538686365083639</v>
+        <v>2.315436075222227</v>
       </c>
       <c r="F131" t="n">
-        <v>1.727987745987321</v>
+        <v>1.593301310822641</v>
       </c>
       <c r="G131" t="n">
-        <v>7.815789473684211</v>
+        <v>7.166829831061309</v>
       </c>
       <c r="H131" t="n">
-        <v>7.243243243243243</v>
+        <v>6.606308101776054</v>
       </c>
       <c r="I131" t="n">
-        <v>13.87179487179487</v>
+        <v>12.71233195254217</v>
       </c>
       <c r="J131" t="n">
-        <v>12.78947368421053</v>
+        <v>11.75897324991886</v>
       </c>
     </row>
   </sheetData>
